--- a/inputs/fr/Optima_template.xlsx
+++ b/inputs/fr/Optima_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{161BA057-898A-42B1-A5C6-78BFBFFDE8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66B084B8-C1E4-40C1-8A0D-5FC331467B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2692,7 +2692,7 @@
       <c r="A63" s="57"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kNkcaAGZOYzTwSI0v5X4ZkqQBGBmhxxGwUbkb+E6oAd4whRE8dbJwaxxtuceT6zaqBDFxafv3YFbbGamopreAQ==" saltValue="YJMrzFaBVMMkCdh3EsYfHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QJTi4/5QI+NK8kyPsACSFSrUiD/uloMWJe5VF+xH1grxIKVQpbRGlHww+4KyJctnhqj2ST/jZ5fln+2UfjQzNg==" saltValue="SEX/+lxJJaBTnduR5EwWiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3470,7 +3470,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xBOfVpRpDTtlErBQCfADVaVuP1AJtJMv2wMqf3MbQPz0D9TXaaftEkTOUI0OCgp1wRuUXYkq2c2wgzINGW/5Kw==" saltValue="d7S31tRDYYxOw5Qx8Wg6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2Cel0n6I8tK1o6rWuJwGKl27Mazl+wlZFE4qzq2Fl4xIDplUeZeJPuicX1MzN8nE1CFH5g7doS8QTtBWswRyHQ==" saltValue="SmO8595GOnZehC0vXQKRQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3620,7 +3620,7 @@
       <c r="C20" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="egdQZyrZEd8QMJue4uy3M/T5rebusisUCFpXgW96rRt5XkST4G/tinZAw6SuMj8tyDKZWGtuFG5n9ZsXS9rAIg==" saltValue="lqVO4QIUd8Zrsae5d9pxJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3mbZOnw/f59Vq/WkcN7KpzpdLSaDMVcQUVZHLvVbPiGGxlEpHEJPqQOh18tbp6VFceHDmrSmKSgtQdcCtibPeg==" saltValue="MAxuDC6jPB9IPQR8r7FuDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3721,7 +3721,7 @@
       <c r="A19" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wXGkM20Pfyt4vtXWwGJKFRa0mAn3lNbaVd/9wUy7pW9bpGjiwujnaQo1GBvQRM17vfpacETmD11KcnnmEaHmww==" saltValue="FHlUjEVa7kjbt7gBI+DjEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eV8+Vif18beOgXXnwVyVJrY3jpgL5f7hhfT2iJi6IQVwa8ZU4qymxmER0URJUuRrpTVWJU3TjumUw4O6ERqnZg==" saltValue="ZBiox1sCmDvNAGmtbl9+cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3836,7 +3836,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XLToagOKKNruY10i9bTg8jRaehOFDXeX/hPRPcF1MDiulVy3o3ZeBzWLLbbF8tiu0fanDl7n0DeNZQZoFtKs3g==" saltValue="IKjtsQWNL+AbPm48EZFz8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Mm1xqcHLMPfGiZeX9GtxgCMatdceWr31wRSbTHS9hUda1KT6jA7fzOhFg+rkXvdHxv7uowkvrv+wfr6LL/05Mw==" saltValue="IUUk8Uz4BnPsfR+Jc1zJCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5597,7 +5597,7 @@
       <c r="B40" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LO1ZYf9ctlt9jZmzChGGatp1TU0pLO7e3hbU20IsY5y5WfqwfuITJiffL1Ha9VrzQMcRsCAPvgvA7o6SkvI5OA==" saltValue="BSvG8YaDLASTSUq/tIozew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TqYmLdIibGUZaW4+SE0mnyDJI6BwWh8BT39Puw9s56ESdWnXngRbTDGSDNxqneQe15Zcx92O2Yiq0AixSpvNbw==" saltValue="Mytt0bEd788AVugo+wiAcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5632,7 +5632,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kpBwaYNajt5wRRVxe6mUpcJwD/b1JY75nxOe6F/e4Bgel4Exp/1nqJB4F3BUqykekNwypynONCsJe8dds7dwxQ==" saltValue="FVrrrk2jicsInLPPQkx4Hg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a/iZc2UAO69e8CV6pR7LNuwbvCJ/8jFBB7SnGhQSzQz/IhGxK8aB0K6H6+Pk0PDpswSgwubzBjAmANGr3rflTA==" saltValue="hmK2B16m/8lnHsFURcUx/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5838,7 +5838,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PlCNJ5v4BxeL4bzcnex6bsah53xGI/dP5OCg8newQV4KVJerpnCI2j/v5mcJm9D9Ye2GPpKKWT9bLkujl/nbEg==" saltValue="2wc3V0BF2KdCtR0zuAjJ4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dGKgwC/8+KBYoXScUuoTUXWu/1ac2tkANIY5iWiklVWAi8nh2AtdcnPfjyL2ERF+3zA3DMtXFnbwJuxy2erMBA==" saltValue="pU54W9wmfjwkRiUrRs4gXg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7653,7 +7653,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/gBxK3cLhqDW1xm+/bJQJFDzBu+EInzLUxUTY3r5SDT9kBIbEiyXGG7bPgh/OUUCGZcLeM6lcB73I9gCqJVRdg==" saltValue="SmHGeaOT6eGewqifEZw1cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vKUS7Xj7v1txM0GfXaJIJkcdHVtRKmNPHWISGXgk7VFAkfpp4zIX5NLYF1pfMYgWNbkMF6bfEWfrwAT/j8eRjA==" saltValue="ws7rCf2nrMmRczFz+GLsbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8421,7 +8421,7 @@
       <c r="K39" s="87"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bhu4Qha01LaVjqfLkwGihC6x5VCPiGQhRT9dzURanwV1Zzs8LLukvJqyhbaa+XBJQBPomsHNm0PQMsDkkYPAJw==" saltValue="QG8PwPtD5uH6qIQ3L+NCyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G050OKa4DTF5bOWRGOHG0DnHFCgwlaW4uswzgnLS/s88w6zoTXXlVCeLQI3BSxQnilCeoYv0g3+xk7myaatEhw==" saltValue="aH8rxgZLDvxnnwNQph2icQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8796,7 +8796,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RA4WnxtojASXrgJwVrE9SBjSd0AkEuwRApMBE6cCtTpOH+GLGIxVU6q8qpyhMM115TUBJNnrOAEmsgOalGio2w==" saltValue="Yl3A0asMijVxPM5LTR7K7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="srxKj5v/cPLWdnGpNNB+Fk92J4GrW/jkxrTCkiBxwLx5ln8a4DJ7QgqR6ilWcsDezJDCIWfv2PmsJWQ0G6+PGw==" saltValue="Ce9lYrbLeEAnhrTdGCZ7kg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9786,7 +9786,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yuxuDecZlulkl5EtmP/9FqdoEZEJxKmljoy2aKOJdi+OcX+pirSLYz3hN4iyYkefUdSdmvwMw5XlJX/ha9kkDw==" saltValue="zrtoafL/i9E7K/bkJd6HVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IX/B6VHIii+5GSR39NXNgcOIgMVCRlTtw+bgA75Xfml0xG5dopckd0lKx2zqGmbtJajSDG+TwDOVX3AbEz+//g==" saltValue="f8I1d1UncK3nTIlTjKx2EA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13604,7 +13604,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D1BNVU5c29szf5NPI03HCXfjp9t9eL5fnGYJ7qp3p6jmqP/ZItC2LLrVdJUvjYntjYOykIEhoOC5DbJ7fSstig==" saltValue="dMGFxhNtv2q8M8YYThfL+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0CPpy6LkQC1zeEB12pVseo/D6mg3NExp1n8XP5nv45B78VAR93bpbwvduFeZEjClg7CQrbwwIFJ+qTwnNp/QQQ==" saltValue="/PWonnJJDuy69MWZYrPDrg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -14871,7 +14871,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NyuS8R1pBwYzF/LxYh2f+KgdTMFRBzOB0+i1+FTF9KrEEPR7gcq3gfOhw9CowNOOOCNMjRuGGTnJ9X/KwXbUwQ==" saltValue="VEwDrqC7KQT8+1O1vXQd/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="06m/efVQ74LwCu0KDd09ZY5g1UerE2lz9+hm66LdPV4dMNNq94SpYaMMd2bpORyZ6AS9f+5lWkbinLpezDw5Ag==" saltValue="BI9Dr48hBMivCxocGENSJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23010,7 +23010,7 @@
       <c r="I328" s="77"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F7GxJ1X5z0/GuYzz6UNJWbQeo6mj7rGbD/UkhhPh7tKdXFHE9c/NqFI3OjjDd2b9uCZ1IAE5ex6Fgm0iiNeQEw==" saltValue="oRo8dNFDZXA/aHnWaF0BRg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="REAOKAx6HGfABkbs17LkjXA1bdIFYxFbJvuGqmZwGAlv+Y9B5YXJohI9p80apdMHuYM4FR3rzmXXddCP3e8TTQ==" saltValue="Q8HGALDAiIR1c1BBOn9FSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -24100,7 +24100,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T7WUV+pnS4bZbL5tv+jGDfmU1rlVZ1TixpV0hNyDHNVbAk2in6P2g50DL9QnFcjxSIuymZCLDBl/n4TzERA3Og==" saltValue="Ns2Y5NLD1vlgN/Y9CB+kYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2M2+lYOaJ+mg8cjAkRDRrnlZQ9WcICQlepLUWOfF3aPQsGttDc5LBWSBPpTWppRzvzOYgbvg59OKCaaEQ8LPOQ==" saltValue="s37Uz8lgKwJPppfKgSyH7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -24972,7 +24972,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KEIkea3mDFPRuCthRw7aeue0+7IqsAfMAD53D1hzmsmqt1DY1VOhAoS29Xkew3CsDE53th2bAFBpg50uZp9GXg==" saltValue="1He5CIW355LfBvN2VLKgMg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="25UISFydgwbjb4q4le29ejJH5OjG66Z5/S8KuaVq9AoHmtRlyAsJZGVvLiZEz6tAia/xh3W+0gZ21VcVk5gaoQ==" saltValue="5pb5w/LYB+9ogQBDbjYV9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -27857,7 +27857,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DfXHOZsN/KqoVMKhgVUK+vQfXiTa4rgDenMOe4VUoxkgq9JhYiCebNNrXui/OpknKU6YoAArMegXLvgAyA03Fg==" saltValue="JgEtyYSNZZiVUwn6nYrscg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Mr+5mXUObzeL0crKfR0QG+H32m11xxq0uChJqTqMQ8jxAbgWhL8j1jRmEgCcK2ct8Um888AQP20OOQZ5vWhIrA==" saltValue="b9V646B55dK7ikwjZfJEUg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -28139,7 +28139,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pancduqDo4CVgGsALkA984WhfWdgAwBXJSuQkCoQx3SgEeeI96kheooKE2pbWbn7IZM95oa5rGcrCCWOJHD6dg==" saltValue="Cq0dgUNWGEdLOOCCtHp1iQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Qbi0E7dL0s3yJFRHXhQusvJlb/Y2fmLCeQpheqcrgp2rE9bg80AfJOWlFhnhen/cIqRzO15WzweGN6PYbZdOIw==" saltValue="JZvH8sxq7hzJl6HfbRmLJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -32254,7 +32254,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9HWPkCyfJ+U0EzbRXSr9Nwx/xpPFtNyddaph5k86xj2DYG5KF69NEkxr6zt6KxYRuZKgtR0/406G4ILw+BIEZw==" saltValue="eEZwr3/7XHutXMu3T6tSyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q/luzU6ArjrzPGS8B5BzFLUQRTMI5MD9c8PG3GTE/iovCQFW1IBgid9h2Ln2zWdhVdgG/tA0plBVxiOfU4IaRw==" saltValue="oNwWtYXK4zfXpY8U/0YmLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -32770,7 +32770,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3AAokZM4jJUtpj8fVmQpoKtplnMEawv/PjGyD+W2y+h7BnrS2JFAQbOg45p+nMMoPXd4rUdOzGrGgi146+jPrg==" saltValue="ptZRnOhku+iCPzX25ag5cA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HpnhKU+Sg7mMchUGiE8eiEZzW/lkl6OQR5GrP7lkHtT60x88XFSfRD/u6fvHgZAZFENXZQkytj8SngWuyeXutg==" saltValue="rN6eGAsXuTbtz6cup+3Q4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33101,7 +33101,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N/6TFaCoEC+K+bnMWRnkqsKJ2juUgIIbJJiybLBca4XHyoaTMSjYgPryO3JI0PU8XwYg8jM85hX0reoT4WH/Ug==" saltValue="8eDVTq2BSc60hc4Cmzdl0A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FEvp3E1K/UjOdCn0t61+Gdp24s/bNilL9ExXNvo0LgsiXOzFuUROd/uOoi6QwkA5cJMLYgPuKGR1DjzJl519tA==" saltValue="LJGrAVa42iH3Jn27dC+ALg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33359,7 +33359,7 @@
       <c r="G17" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dMvju11IS2hBfn0j8nVKzFFLpCMkD6sqkDVjJyy2DCN88pvdeQmktK8AoN8UtkbQMqK9plK/C14geogH3cld8Q==" saltValue="mZt3wsvHicId3FlrOnBZBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hr85/gpEzQpOJMonXZjmd1zkhy/FoIGNjrEJV8GUYGTOsr5BBBSKa4rmJmtthRsrY+xFqdrK+9vLLaRZ2APt1A==" saltValue="hpeKUqIjJ/0VZiNP1p3olA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33450,7 +33450,7 @@
       <c r="G5" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l5HsOcAmpQzmo2l1Cqu4hp+SiSkeTshDoX3jOLjmHWkkuzY1pYC4w48qLPKfH14Wz+IvTRTTfFJmW/xMNodNhA==" saltValue="beNraHIcVfkUhMuK8iH8xQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ScW+dH3YWedluddHWszqxi3wsWmLThWuB6YFXupjP9LQmIiFHFf1GzO2t2dclArTMKVpg1gZgZetMFMZOZO6OA==" saltValue="Ou/AWTkyRazGJMd70KdyMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -33678,7 +33678,7 @@
       <c r="L14" s="103"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GkPw3CuECrZ83SMB2+U3z+0wNh8xAaidu3wHD2W+3BGgN04Q4jip8KTv0hYAg8Phf3dXHgFBU0HmQvw6lLkpBQ==" saltValue="E8m8rjgq9y8zEchAbG6zOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bRlU+5L5pcKaa4QwjlO0TUBzmGr6jT/uRgKhYs3w7woIno8Fxq6nnVpXX6uwDvFMCXFARQREq/KM1wiOkcth4Q==" saltValue="dHvU1rMKAA+iwuLoxffoOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait"/>
 </worksheet>
@@ -33756,7 +33756,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tXsxZPoujV7tmajan0gTSJ/AQv4A1px2RPTxdDazhfGq2HTplu0DVnfe96OvlGtuQjoPBOHq1JzAhGmcSjfpIQ==" saltValue="PnxFa5FprLHjFbI8Nhk+EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Chl7ZeHsHL1683Rlsjq6QJNHHLorT3qKd03CD/vk+vqKBmdnwK+HEM7yDkqyVRKnDuMmEqZpWlF9PhJ1LynQwg==" saltValue="RYWwx0EjWdZPYyTnfPx3LQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34019,7 +34019,7 @@
       <c r="E21" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+T5Agrk8H0rFhOWENWPYS6hmtoanELw0qSANblezucmWGa6WILv+qIgrsry1v9kzNX3KSKKp1Yh0WKe0bBkTqg==" saltValue="gIWd0NvJ4bLDNd2gTgOLaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iTJ5HoqC49WyEaKKiKnQQF0GbtmllLpkyNGJAq/fjddw4o9t/B1VtE8on7afKd5IsasXrNQonOQf6r7jTBoDfg==" saltValue="mm/jxzg1tCUWJ/hDGpAyTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -34083,7 +34083,7 @@
       <c r="D3" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9DEnaO33j/f7rxANX9s1wQ23NP/vfwQfPs+FNlV0qieGakHqWLUpuHWZvKPRfptERGXrDvl1KfXK90TnkuwqlQ==" saltValue="HTxcKpfXP+eA3fZB9P2KfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mufbpzKK2aKFj09cgeSzW+TCevWodNjkOqG1eUMxYBG7nMcQPJJ8ZTwGzLXFyIPpxn0Qu9fuc11cXx6KI9LvBA==" saltValue="tLqqpsZSHy3S4vjaQ8PpQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/Optima_template.xlsx
+++ b/inputs/fr/Optima_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5618196A-A636-4C6C-B38A-43AACE01F729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559F0618-6E9E-447B-B6AE-59F84B7CF01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causes du décès" sheetId="3" r:id="rId3"/>
     <sheet name="Dist. de l'état nutritionnel" sheetId="4" r:id="rId4"/>
     <sheet name="Dist. l'allaitement maternel" sheetId="5" r:id="rId5"/>
-    <sheet name="Tendances temporelles" sheetId="6" r:id="rId6"/>
+    <sheet name="Tendances temporelles" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="7" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="8" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="9" r:id="rId9"/>
@@ -96,8 +96,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -406,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
   <si>
     <t>Field</t>
   </si>
@@ -1916,17 +1920,17 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -2295,18 +2299,18 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="98" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="66" customWidth="1"/>
-    <col min="3" max="7" width="14.453125" style="98" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="98"/>
+    <col min="1" max="1" width="27.77734375" style="98" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="66" customWidth="1"/>
+    <col min="3" max="7" width="14.44140625" style="98" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>13</v>
       </c>
@@ -2317,14 +2321,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="71"/>
       <c r="B3" s="70" t="s">
         <v>15</v>
@@ -2333,7 +2337,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71"/>
       <c r="B4" s="70" t="s">
         <v>16</v>
@@ -2342,7 +2346,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -2397,7 +2401,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>25</v>
       </c>
@@ -2432,7 +2436,7 @@
       <c r="B20" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="102">
+      <c r="C20" s="100">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>1</v>
       </c>
@@ -2504,17 +2508,17 @@
       </c>
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="103">
+      <c r="C33" s="101">
         <f>SUM(C29:C32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>42</v>
       </c>
@@ -2600,7 +2604,7 @@
       <c r="B48" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="102">
+      <c r="C48" s="100">
         <f>1-preterm_SGA-preterm_AGA-term_SGA</f>
         <v>1</v>
       </c>
@@ -2682,7 +2686,7 @@
       </c>
       <c r="C62" s="33"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
     </row>
   </sheetData>
@@ -2704,20 +2708,20 @@
       <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="70" customWidth="1"/>
     <col min="2" max="2" width="20" style="98" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="98" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="98" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="98" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="98" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="98" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.453125" style="98" customWidth="1"/>
-    <col min="13" max="16384" width="14.453125" style="98"/>
+    <col min="7" max="7" width="22.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.44140625" style="98" customWidth="1"/>
+    <col min="13" max="16384" width="14.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>160</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>157</v>
       </c>
@@ -3482,16 +3486,16 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="98" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="98" customWidth="1"/>
-    <col min="4" max="8" width="11.453125" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="98"/>
+    <col min="2" max="2" width="47.77734375" style="98" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="98" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>160</v>
       </c>
@@ -3632,14 +3636,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" style="98" customWidth="1"/>
-    <col min="2" max="6" width="11.453125" style="98" customWidth="1"/>
-    <col min="7" max="16384" width="11.453125" style="98"/>
+    <col min="1" max="1" width="30.21875" style="98" customWidth="1"/>
+    <col min="2" max="6" width="11.44140625" style="98" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>160</v>
       </c>
@@ -3732,7 +3736,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
@@ -3847,19 +3851,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>211</v>
       </c>
@@ -3906,7 +3910,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>86</v>
       </c>
@@ -4467,7 +4471,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>100</v>
       </c>
@@ -4518,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="70" t="s">
         <v>169</v>
@@ -4563,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
       <c r="B17" s="70" t="s">
         <v>180</v>
@@ -4612,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="70" t="s">
         <v>181</v>
@@ -4848,7 +4852,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>75</v>
       </c>
@@ -5098,7 +5102,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>210</v>
       </c>
@@ -5603,7 +5607,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
@@ -5642,17 +5646,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" style="98" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="98" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="98" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="98" customWidth="1"/>
-    <col min="6" max="10" width="11.453125" style="98" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="98"/>
+    <col min="1" max="1" width="33.77734375" style="98" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="98" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="98" customWidth="1"/>
+    <col min="6" max="10" width="11.44140625" style="98" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>216</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>217</v>
       </c>
@@ -5687,7 +5691,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>218</v>
       </c>
@@ -5705,7 +5709,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>219</v>
       </c>
@@ -5723,7 +5727,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>220</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
@@ -5759,7 +5763,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>221</v>
       </c>
@@ -5777,7 +5781,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>222</v>
       </c>
@@ -5795,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>223</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>224</v>
       </c>
@@ -5850,21 +5854,21 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="52" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1796875" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.26953125" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.81640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="16.1796875" style="52" customWidth="1"/>
-    <col min="21" max="16384" width="16.1796875" style="52"/>
+    <col min="6" max="7" width="13.21875" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.21875" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.77734375" style="52" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="16.21875" style="52" customWidth="1"/>
+    <col min="21" max="16384" width="16.21875" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>211</v>
       </c>
@@ -5911,7 +5915,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>86</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="70" t="s">
         <v>171</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="70" t="s">
         <v>157</v>
       </c>
@@ -6046,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="70" t="s">
         <v>158</v>
       </c>
@@ -6090,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="70" t="s">
         <v>159</v>
       </c>
@@ -6134,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="70" t="s">
         <v>184</v>
       </c>
@@ -6178,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="70" t="s">
         <v>185</v>
       </c>
@@ -6222,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="70" t="s">
         <v>189</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="70" t="s">
         <v>191</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="70" t="s">
         <v>192</v>
       </c>
@@ -6354,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="70" t="s">
         <v>205</v>
       </c>
@@ -6398,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="70" t="s">
         <v>161</v>
       </c>
@@ -6442,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="70" t="s">
         <v>193</v>
       </c>
@@ -6486,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="70" t="s">
         <v>199</v>
       </c>
@@ -6530,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="70" t="s">
         <v>200</v>
       </c>
@@ -6574,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="70"/>
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
@@ -6590,7 +6594,7 @@
       <c r="N17" s="80"/>
       <c r="O17" s="80"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>100</v>
       </c>
@@ -6637,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="53"/>
       <c r="B19" s="70" t="s">
         <v>169</v>
@@ -6682,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="70" t="s">
         <v>180</v>
       </c>
@@ -6726,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="70" t="s">
         <v>181</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="50" t="s">
         <v>182</v>
       </c>
@@ -6814,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="70" t="s">
         <v>187</v>
       </c>
@@ -6858,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="70" t="s">
         <v>188</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="70" t="s">
         <v>190</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="70"/>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
@@ -6962,7 +6966,7 @@
       <c r="N26" s="80"/>
       <c r="O26" s="80"/>
     </row>
-    <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
         <v>75</v>
       </c>
@@ -7010,7 +7014,7 @@
       </c>
       <c r="P27" s="51"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="66" t="s">
         <v>176</v>
       </c>
@@ -7054,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="53"/>
       <c r="B29" s="66" t="s">
         <v>177</v>
@@ -7099,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="66" t="s">
         <v>178</v>
       </c>
@@ -7143,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="66" t="s">
         <v>179</v>
       </c>
@@ -7187,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="70"/>
       <c r="C32" s="81"/>
       <c r="D32" s="81"/>
@@ -7203,7 +7207,7 @@
       <c r="N32" s="80"/>
       <c r="O32" s="80"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="53" t="s">
         <v>210</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="70" t="s">
         <v>174</v>
       </c>
@@ -7294,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="70" t="s">
         <v>175</v>
       </c>
@@ -7338,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="70" t="s">
         <v>183</v>
       </c>
@@ -7382,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="70" t="s">
         <v>186</v>
       </c>
@@ -7426,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="70" t="s">
         <v>194</v>
       </c>
@@ -7470,7 +7474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="70" t="s">
         <v>195</v>
       </c>
@@ -7514,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="70" t="s">
         <v>196</v>
       </c>
@@ -7558,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="70" t="s">
         <v>197</v>
       </c>
@@ -7602,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="70" t="s">
         <v>198</v>
       </c>
@@ -7663,23 +7667,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="98" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="98" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="98" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.7265625" style="98" customWidth="1"/>
-    <col min="16" max="16384" width="12.7265625" style="98"/>
+    <col min="1" max="1" width="58.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="98" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="98" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.77734375" style="98" customWidth="1"/>
+    <col min="16" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>160</v>
       </c>
@@ -8431,23 +8434,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="98" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="98" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="98" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.7265625" style="98" customWidth="1"/>
-    <col min="16" max="16384" width="12.7265625" style="98"/>
+    <col min="1" max="1" width="16.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="98" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="98" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.77734375" style="98" customWidth="1"/>
+    <col min="16" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>230</v>
       </c>
@@ -8806,15 +8808,15 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="98" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="98" customWidth="1"/>
-    <col min="10" max="14" width="14.453125" style="98" customWidth="1"/>
-    <col min="15" max="16384" width="14.453125" style="98"/>
+    <col min="1" max="1" width="8.44140625" style="98" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="98" customWidth="1"/>
+    <col min="10" max="14" width="14.44140625" style="98" customWidth="1"/>
+    <col min="15" max="16384" width="14.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>76</v>
       </c>
@@ -9802,16 +9804,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" style="98" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" style="98" customWidth="1"/>
     <col min="2" max="2" width="15" style="98" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="98" customWidth="1"/>
-    <col min="4" max="8" width="12.7265625" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="12.7265625" style="98"/>
+    <col min="3" max="3" width="14.77734375" style="98" customWidth="1"/>
+    <col min="4" max="8" width="12.77734375" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>231</v>
       </c>
@@ -9837,11 +9839,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="98" t="s">
@@ -9864,7 +9866,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="98" t="s">
         <v>154</v>
       </c>
@@ -9886,7 +9888,7 @@
       <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="101"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="98" t="s">
         <v>155</v>
       </c>
@@ -9908,7 +9910,7 @@
       <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="98" t="s">
@@ -9932,7 +9934,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="101"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="98" t="s">
         <v>154</v>
       </c>
@@ -9953,7 +9955,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="101"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="98" t="s">
         <v>155</v>
       </c>
@@ -9974,7 +9976,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="98" t="s">
@@ -9997,7 +9999,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="101"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="98" t="s">
         <v>154</v>
       </c>
@@ -10018,7 +10020,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="98" t="s">
         <v>155</v>
       </c>
@@ -10039,7 +10041,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="98" t="s">
@@ -10062,7 +10064,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="101"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="98" t="s">
         <v>154</v>
       </c>
@@ -10083,7 +10085,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="101"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="98" t="s">
         <v>155</v>
       </c>
@@ -10104,7 +10106,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -10127,7 +10129,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="98" t="s">
         <v>154</v>
       </c>
@@ -10148,7 +10150,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="101"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="98" t="s">
         <v>155</v>
       </c>
@@ -10168,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="97" t="s">
         <v>156</v>
       </c>
@@ -10198,11 +10200,11 @@
       <c r="G18" s="82"/>
       <c r="H18" s="82"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="98" t="s">
@@ -10225,7 +10227,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="101"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="98" t="s">
         <v>154</v>
       </c>
@@ -10246,7 +10248,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="101"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="98" t="s">
         <v>155</v>
       </c>
@@ -10267,7 +10269,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="98" t="s">
@@ -10290,7 +10292,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="101"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="98" t="s">
         <v>154</v>
       </c>
@@ -10311,7 +10313,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="101"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="98" t="s">
         <v>155</v>
       </c>
@@ -10332,7 +10334,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="98" t="s">
@@ -10355,7 +10357,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="101"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="98" t="s">
         <v>154</v>
       </c>
@@ -10376,7 +10378,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="101"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="98" t="s">
         <v>155</v>
       </c>
@@ -10397,7 +10399,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="98" t="s">
@@ -10420,7 +10422,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="101"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="98" t="s">
         <v>154</v>
       </c>
@@ -10441,7 +10443,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="101"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="98" t="s">
         <v>155</v>
       </c>
@@ -10462,7 +10464,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="98" t="s">
@@ -10485,7 +10487,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="101"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="98" t="s">
         <v>154</v>
       </c>
@@ -10506,7 +10508,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="101"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="98" t="s">
         <v>155</v>
       </c>
@@ -10526,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="97" t="s">
         <v>156</v>
       </c>
@@ -10556,11 +10558,11 @@
       <c r="G35" s="82"/>
       <c r="H35" s="82"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="98" t="s">
@@ -10583,7 +10585,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="101"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="98" t="s">
         <v>154</v>
       </c>
@@ -10604,7 +10606,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="101"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="98" t="s">
         <v>155</v>
       </c>
@@ -10625,7 +10627,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="98" t="s">
@@ -10648,7 +10650,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="101"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="98" t="s">
         <v>154</v>
       </c>
@@ -10669,7 +10671,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="101"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="98" t="s">
         <v>155</v>
       </c>
@@ -10690,7 +10692,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="98" t="s">
@@ -10713,7 +10715,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="101"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="98" t="s">
         <v>154</v>
       </c>
@@ -10734,7 +10736,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="101"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="98" t="s">
         <v>155</v>
       </c>
@@ -10755,7 +10757,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="98" t="s">
@@ -10778,7 +10780,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="101"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="98" t="s">
         <v>154</v>
       </c>
@@ -10799,7 +10801,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="101"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="98" t="s">
         <v>155</v>
       </c>
@@ -10820,7 +10822,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="100" t="s">
+      <c r="B48" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="98" t="s">
@@ -10843,7 +10845,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="101"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="98" t="s">
         <v>154</v>
       </c>
@@ -10864,7 +10866,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="101"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="98" t="s">
         <v>155</v>
       </c>
@@ -10884,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="97" t="s">
         <v>156</v>
       </c>
@@ -10907,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="89" t="s">
         <v>235</v>
       </c>
@@ -10919,7 +10921,7 @@
       <c r="G53" s="89"/>
       <c r="H53" s="89"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
         <v>231</v>
       </c>
@@ -10945,11 +10947,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="100" t="s">
+      <c r="B55" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="98" t="s">
@@ -10977,7 +10979,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="101"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="98" t="s">
         <v>154</v>
       </c>
@@ -11003,7 +11005,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="101"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="98" t="s">
         <v>155</v>
       </c>
@@ -11029,7 +11031,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="100" t="s">
+      <c r="B58" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="98" t="s">
@@ -11057,7 +11059,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="101"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="98" t="s">
         <v>154</v>
       </c>
@@ -11083,7 +11085,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="101"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="98" t="s">
         <v>155</v>
       </c>
@@ -11109,7 +11111,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="98" t="s">
@@ -11137,7 +11139,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="101"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="98" t="s">
         <v>154</v>
       </c>
@@ -11163,7 +11165,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="101"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="98" t="s">
         <v>155</v>
       </c>
@@ -11189,7 +11191,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="100" t="s">
+      <c r="B64" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="98" t="s">
@@ -11217,7 +11219,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="101"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="98" t="s">
         <v>154</v>
       </c>
@@ -11243,7 +11245,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="101"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="98" t="s">
         <v>155</v>
       </c>
@@ -11269,7 +11271,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="100" t="s">
+      <c r="B67" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="98" t="s">
@@ -11297,7 +11299,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="101"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="98" t="s">
         <v>154</v>
       </c>
@@ -11323,7 +11325,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="101"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="98" t="s">
         <v>155</v>
       </c>
@@ -11348,7 +11350,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="97" t="s">
         <v>156</v>
       </c>
@@ -11383,11 +11385,11 @@
       <c r="G71" s="82"/>
       <c r="H71" s="82"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="100" t="s">
+      <c r="B72" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="98" t="s">
@@ -11415,7 +11417,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="101"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="98" t="s">
         <v>154</v>
       </c>
@@ -11441,7 +11443,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="101"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="98" t="s">
         <v>155</v>
       </c>
@@ -11467,7 +11469,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="100" t="s">
+      <c r="B75" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="98" t="s">
@@ -11495,7 +11497,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="101"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="98" t="s">
         <v>154</v>
       </c>
@@ -11521,7 +11523,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="101"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="98" t="s">
         <v>155</v>
       </c>
@@ -11547,7 +11549,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="100" t="s">
+      <c r="B78" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="98" t="s">
@@ -11575,7 +11577,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="101"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="98" t="s">
         <v>154</v>
       </c>
@@ -11601,7 +11603,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="101"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="98" t="s">
         <v>155</v>
       </c>
@@ -11627,7 +11629,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="100" t="s">
+      <c r="B81" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="98" t="s">
@@ -11655,7 +11657,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="101"/>
+      <c r="B82" s="104"/>
       <c r="C82" s="98" t="s">
         <v>154</v>
       </c>
@@ -11681,7 +11683,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="101"/>
+      <c r="B83" s="104"/>
       <c r="C83" s="98" t="s">
         <v>155</v>
       </c>
@@ -11707,7 +11709,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="100" t="s">
+      <c r="B84" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="98" t="s">
@@ -11735,7 +11737,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="101"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="98" t="s">
         <v>154</v>
       </c>
@@ -11761,7 +11763,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="101"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="98" t="s">
         <v>155</v>
       </c>
@@ -11786,7 +11788,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="97" t="s">
         <v>156</v>
       </c>
@@ -11821,11 +11823,11 @@
       <c r="G88" s="82"/>
       <c r="H88" s="82"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="100" t="s">
+      <c r="B89" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="98" t="s">
@@ -11853,7 +11855,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="101"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="98" t="s">
         <v>154</v>
       </c>
@@ -11879,7 +11881,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="101"/>
+      <c r="B91" s="104"/>
       <c r="C91" s="98" t="s">
         <v>155</v>
       </c>
@@ -11905,7 +11907,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="100" t="s">
+      <c r="B92" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="98" t="s">
@@ -11933,7 +11935,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="101"/>
+      <c r="B93" s="104"/>
       <c r="C93" s="98" t="s">
         <v>154</v>
       </c>
@@ -11959,7 +11961,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="101"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="98" t="s">
         <v>155</v>
       </c>
@@ -11985,7 +11987,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="100" t="s">
+      <c r="B95" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="98" t="s">
@@ -12013,7 +12015,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="101"/>
+      <c r="B96" s="104"/>
       <c r="C96" s="98" t="s">
         <v>154</v>
       </c>
@@ -12039,7 +12041,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="101"/>
+      <c r="B97" s="104"/>
       <c r="C97" s="98" t="s">
         <v>155</v>
       </c>
@@ -12065,7 +12067,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="100" t="s">
+      <c r="B98" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="98" t="s">
@@ -12093,7 +12095,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="101"/>
+      <c r="B99" s="104"/>
       <c r="C99" s="98" t="s">
         <v>154</v>
       </c>
@@ -12119,7 +12121,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="101"/>
+      <c r="B100" s="104"/>
       <c r="C100" s="98" t="s">
         <v>155</v>
       </c>
@@ -12145,7 +12147,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="100" t="s">
+      <c r="B101" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="98" t="s">
@@ -12173,7 +12175,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="101"/>
+      <c r="B102" s="104"/>
       <c r="C102" s="98" t="s">
         <v>154</v>
       </c>
@@ -12199,7 +12201,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="101"/>
+      <c r="B103" s="104"/>
       <c r="C103" s="98" t="s">
         <v>155</v>
       </c>
@@ -12224,7 +12226,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="97" t="s">
         <v>156</v>
       </c>
@@ -12252,7 +12254,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="89" t="s">
         <v>239</v>
       </c>
@@ -12264,7 +12266,7 @@
       <c r="G106" s="89"/>
       <c r="H106" s="89"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="53" t="s">
         <v>231</v>
       </c>
@@ -12290,11 +12292,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="100" t="s">
+      <c r="B108" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="98" t="s">
@@ -12322,7 +12324,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="101"/>
+      <c r="B109" s="104"/>
       <c r="C109" s="98" t="s">
         <v>154</v>
       </c>
@@ -12348,7 +12350,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="101"/>
+      <c r="B110" s="104"/>
       <c r="C110" s="98" t="s">
         <v>155</v>
       </c>
@@ -12374,7 +12376,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="100" t="s">
+      <c r="B111" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="98" t="s">
@@ -12402,7 +12404,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="101"/>
+      <c r="B112" s="104"/>
       <c r="C112" s="98" t="s">
         <v>154</v>
       </c>
@@ -12428,7 +12430,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="101"/>
+      <c r="B113" s="104"/>
       <c r="C113" s="98" t="s">
         <v>155</v>
       </c>
@@ -12454,7 +12456,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="100" t="s">
+      <c r="B114" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="98" t="s">
@@ -12482,7 +12484,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="101"/>
+      <c r="B115" s="104"/>
       <c r="C115" s="98" t="s">
         <v>154</v>
       </c>
@@ -12508,7 +12510,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="101"/>
+      <c r="B116" s="104"/>
       <c r="C116" s="98" t="s">
         <v>155</v>
       </c>
@@ -12534,7 +12536,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="100" t="s">
+      <c r="B117" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="98" t="s">
@@ -12562,7 +12564,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="101"/>
+      <c r="B118" s="104"/>
       <c r="C118" s="98" t="s">
         <v>154</v>
       </c>
@@ -12588,7 +12590,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="101"/>
+      <c r="B119" s="104"/>
       <c r="C119" s="98" t="s">
         <v>155</v>
       </c>
@@ -12614,7 +12616,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="100" t="s">
+      <c r="B120" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="98" t="s">
@@ -12642,7 +12644,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="101"/>
+      <c r="B121" s="104"/>
       <c r="C121" s="98" t="s">
         <v>154</v>
       </c>
@@ -12668,7 +12670,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="101"/>
+      <c r="B122" s="104"/>
       <c r="C122" s="98" t="s">
         <v>155</v>
       </c>
@@ -12693,7 +12695,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="97" t="s">
         <v>156</v>
       </c>
@@ -12728,11 +12730,11 @@
       <c r="G124" s="82"/>
       <c r="H124" s="82"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="100" t="s">
+      <c r="B125" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="98" t="s">
@@ -12760,7 +12762,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="101"/>
+      <c r="B126" s="104"/>
       <c r="C126" s="98" t="s">
         <v>154</v>
       </c>
@@ -12786,7 +12788,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="101"/>
+      <c r="B127" s="104"/>
       <c r="C127" s="98" t="s">
         <v>155</v>
       </c>
@@ -12812,7 +12814,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="100" t="s">
+      <c r="B128" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="98" t="s">
@@ -12840,7 +12842,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="101"/>
+      <c r="B129" s="104"/>
       <c r="C129" s="98" t="s">
         <v>154</v>
       </c>
@@ -12866,7 +12868,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="101"/>
+      <c r="B130" s="104"/>
       <c r="C130" s="98" t="s">
         <v>155</v>
       </c>
@@ -12892,7 +12894,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="100" t="s">
+      <c r="B131" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="98" t="s">
@@ -12920,7 +12922,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="101"/>
+      <c r="B132" s="104"/>
       <c r="C132" s="98" t="s">
         <v>154</v>
       </c>
@@ -12946,7 +12948,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="101"/>
+      <c r="B133" s="104"/>
       <c r="C133" s="98" t="s">
         <v>155</v>
       </c>
@@ -12972,7 +12974,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="100" t="s">
+      <c r="B134" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="98" t="s">
@@ -13000,7 +13002,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="101"/>
+      <c r="B135" s="104"/>
       <c r="C135" s="98" t="s">
         <v>154</v>
       </c>
@@ -13026,7 +13028,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="101"/>
+      <c r="B136" s="104"/>
       <c r="C136" s="98" t="s">
         <v>155</v>
       </c>
@@ -13052,7 +13054,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="100" t="s">
+      <c r="B137" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="98" t="s">
@@ -13080,7 +13082,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="101"/>
+      <c r="B138" s="104"/>
       <c r="C138" s="98" t="s">
         <v>154</v>
       </c>
@@ -13106,7 +13108,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="101"/>
+      <c r="B139" s="104"/>
       <c r="C139" s="98" t="s">
         <v>155</v>
       </c>
@@ -13131,7 +13133,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="97" t="s">
         <v>156</v>
       </c>
@@ -13166,11 +13168,11 @@
       <c r="G141" s="82"/>
       <c r="H141" s="82"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="100" t="s">
+      <c r="B142" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="98" t="s">
@@ -13198,7 +13200,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="101"/>
+      <c r="B143" s="104"/>
       <c r="C143" s="98" t="s">
         <v>154</v>
       </c>
@@ -13224,7 +13226,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="101"/>
+      <c r="B144" s="104"/>
       <c r="C144" s="98" t="s">
         <v>155</v>
       </c>
@@ -13250,7 +13252,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="100" t="s">
+      <c r="B145" s="103" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="98" t="s">
@@ -13278,7 +13280,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="101"/>
+      <c r="B146" s="104"/>
       <c r="C146" s="98" t="s">
         <v>154</v>
       </c>
@@ -13304,7 +13306,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="101"/>
+      <c r="B147" s="104"/>
       <c r="C147" s="98" t="s">
         <v>155</v>
       </c>
@@ -13330,7 +13332,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="100" t="s">
+      <c r="B148" s="103" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="98" t="s">
@@ -13358,7 +13360,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="101"/>
+      <c r="B149" s="104"/>
       <c r="C149" s="98" t="s">
         <v>154</v>
       </c>
@@ -13384,7 +13386,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="101"/>
+      <c r="B150" s="104"/>
       <c r="C150" s="98" t="s">
         <v>155</v>
       </c>
@@ -13410,7 +13412,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="100" t="s">
+      <c r="B151" s="103" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="98" t="s">
@@ -13438,7 +13440,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="101"/>
+      <c r="B152" s="104"/>
       <c r="C152" s="98" t="s">
         <v>154</v>
       </c>
@@ -13464,7 +13466,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="101"/>
+      <c r="B153" s="104"/>
       <c r="C153" s="98" t="s">
         <v>155</v>
       </c>
@@ -13490,7 +13492,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="100" t="s">
+      <c r="B154" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="98" t="s">
@@ -13518,7 +13520,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="101"/>
+      <c r="B155" s="104"/>
       <c r="C155" s="98" t="s">
         <v>154</v>
       </c>
@@ -13544,7 +13546,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="101"/>
+      <c r="B156" s="104"/>
       <c r="C156" s="98" t="s">
         <v>155</v>
       </c>
@@ -13569,7 +13571,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="97" t="s">
         <v>156</v>
       </c>
@@ -13600,6 +13602,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eXeDV3CTyCLgN8FUpMP5/2LF0U8026cwVyQwJBDJYxvKgS7NrJI0gZt4Lxoc/3rTntZoETXK2jgkGhdFHHp12g==" saltValue="D3VAVCxVY8wfQ5CrbLjpYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -13609,42 +13647,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13662,23 +13664,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="98" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" style="98" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="98" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="98" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="98" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="98" customWidth="1"/>
     <col min="5" max="6" width="15" style="98" customWidth="1"/>
-    <col min="7" max="11" width="16.1796875" style="98" customWidth="1"/>
-    <col min="12" max="16384" width="16.1796875" style="98"/>
+    <col min="7" max="11" width="16.21875" style="98" customWidth="1"/>
+    <col min="12" max="16384" width="16.21875" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="75"/>
       <c r="C2" s="57" t="s">
         <v>54</v>
@@ -13693,7 +13695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>244</v>
       </c>
@@ -13777,7 +13779,7 @@
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>249</v>
       </c>
@@ -13800,7 +13802,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
     </row>
-    <row r="11" spans="1:6" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>245</v>
       </c>
@@ -13809,7 +13811,7 @@
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>246</v>
       </c>
@@ -13869,7 +13871,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -13877,7 +13879,7 @@
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>248</v>
       </c>
@@ -14026,7 +14028,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="66"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="89" t="s">
         <v>235</v>
       </c>
@@ -14036,12 +14038,12 @@
       <c r="E27" s="92"/>
       <c r="F27" s="92"/>
     </row>
-    <row r="28" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="75"/>
       <c r="C29" s="57" t="s">
         <v>54</v>
@@ -14056,7 +14058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>250</v>
       </c>
@@ -14156,7 +14158,7 @@
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>262</v>
       </c>
@@ -14177,7 +14179,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="56" t="s">
         <v>245</v>
       </c>
@@ -14187,7 +14189,7 @@
       <c r="E38" s="64"/>
       <c r="F38" s="64"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>251</v>
       </c>
@@ -14259,7 +14261,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="53"/>
       <c r="B43" s="66"/>
       <c r="C43" s="67"/>
@@ -14267,7 +14269,7 @@
       <c r="E43" s="54"/>
       <c r="F43" s="54"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
         <v>252</v>
       </c>
@@ -14445,7 +14447,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="89" t="s">
         <v>239</v>
       </c>
@@ -14455,12 +14457,12 @@
       <c r="E54" s="92"/>
       <c r="F54" s="92"/>
     </row>
-    <row r="55" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="75"/>
       <c r="C56" s="57" t="s">
         <v>54</v>
@@ -14475,7 +14477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="53" t="s">
         <v>253</v>
       </c>
@@ -14575,7 +14577,7 @@
       <c r="E62" s="54"/>
       <c r="F62" s="54"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
         <v>263</v>
       </c>
@@ -14596,7 +14598,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
         <v>245</v>
       </c>
@@ -14606,7 +14608,7 @@
       <c r="E65" s="64"/>
       <c r="F65" s="64"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>254</v>
       </c>
@@ -14678,7 +14680,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="53"/>
       <c r="B70" s="66"/>
       <c r="C70" s="67"/>
@@ -14686,7 +14688,7 @@
       <c r="E70" s="54"/>
       <c r="F70" s="54"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="53" t="s">
         <v>255</v>
       </c>
@@ -14882,24 +14884,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="98" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="98" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="98" customWidth="1"/>
-    <col min="4" max="8" width="14.7265625" style="98" customWidth="1"/>
-    <col min="9" max="12" width="15.26953125" style="98" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="12.7265625" style="98" customWidth="1"/>
-    <col min="22" max="16384" width="12.7265625" style="98"/>
+    <col min="1" max="1" width="27.21875" style="98" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="98" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="98" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="98" customWidth="1"/>
+    <col min="9" max="12" width="15.21875" style="98" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="12.77734375" style="98" customWidth="1"/>
+    <col min="22" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="65" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>226</v>
       </c>
@@ -14933,7 +14935,7 @@
       <c r="O2" s="72"/>
       <c r="P2" s="72"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
       <c r="B3" s="98" t="s">
         <v>87</v>
@@ -15366,7 +15368,7 @@
       <c r="O17" s="73"/>
       <c r="P17" s="73"/>
     </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="79" t="s">
         <v>269</v>
       </c>
@@ -15624,12 +15626,12 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
     </row>
-    <row r="28" spans="1:16" s="65" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="73" t="s">
         <v>279</v>
       </c>
@@ -15663,7 +15665,7 @@
       <c r="O29" s="72"/>
       <c r="P29" s="72"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
       <c r="B30" s="98" t="s">
         <v>87</v>
@@ -16358,12 +16360,12 @@
       <c r="C54" s="79"/>
       <c r="D54" s="79"/>
     </row>
-    <row r="55" spans="1:16" s="65" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="73" t="s">
         <v>121</v>
       </c>
@@ -16391,7 +16393,7 @@
       <c r="O56" s="72"/>
       <c r="P56" s="72"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="53"/>
       <c r="B57" s="98" t="s">
         <v>101</v>
@@ -16537,12 +16539,12 @@
       <c r="C63" s="79"/>
       <c r="D63" s="79"/>
     </row>
-    <row r="64" spans="1:16" s="65" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="73" t="s">
         <v>128</v>
       </c>
@@ -16576,7 +16578,7 @@
       <c r="O65" s="72"/>
       <c r="P65" s="72"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="77"/>
       <c r="B66" s="98" t="s">
         <v>78</v>
@@ -17612,12 +17614,12 @@
       <c r="O101" s="73"/>
       <c r="P101" s="73"/>
     </row>
-    <row r="103" spans="1:16" s="65" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="56" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="73" t="s">
         <v>87</v>
       </c>
@@ -17651,7 +17653,7 @@
       <c r="O104" s="72"/>
       <c r="P104" s="72"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="53"/>
       <c r="C105" s="79" t="s">
         <v>129</v>
@@ -17764,13 +17766,13 @@
       <c r="O108" s="73"/>
       <c r="P108" s="73"/>
     </row>
-    <row r="110" spans="1:16" s="90" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="89" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="89"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="56" t="s">
         <v>264</v>
       </c>
@@ -17782,7 +17784,7 @@
       <c r="G111" s="65"/>
       <c r="H111" s="65"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="73" t="s">
         <v>226</v>
       </c>
@@ -17808,7 +17810,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="53"/>
       <c r="B113" s="98" t="s">
         <v>87</v>
@@ -18427,7 +18429,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="56" t="s">
         <v>278</v>
       </c>
@@ -18439,7 +18441,7 @@
       <c r="G138" s="65"/>
       <c r="H138" s="65"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="73" t="s">
         <v>279</v>
       </c>
@@ -18465,7 +18467,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="53"/>
       <c r="B140" s="98" t="s">
         <v>87</v>
@@ -19088,7 +19090,7 @@
       <c r="C164" s="79"/>
       <c r="D164" s="79"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="56" t="s">
         <v>271</v>
       </c>
@@ -19100,7 +19102,7 @@
       <c r="G165" s="65"/>
       <c r="H165" s="65"/>
     </row>
-    <row r="166" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="73" t="s">
         <v>121</v>
       </c>
@@ -19124,7 +19126,7 @@
       </c>
       <c r="H166" s="72"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="53"/>
       <c r="B167" s="98" t="s">
         <v>101</v>
@@ -19270,7 +19272,7 @@
       <c r="C173" s="79"/>
       <c r="D173" s="79"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="56" t="s">
         <v>275</v>
       </c>
@@ -19282,7 +19284,7 @@
       <c r="G174" s="65"/>
       <c r="H174" s="65"/>
     </row>
-    <row r="175" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="73" t="s">
         <v>128</v>
       </c>
@@ -19308,7 +19310,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="77"/>
       <c r="B176" s="98" t="s">
         <v>78</v>
@@ -20200,7 +20202,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="56" t="s">
         <v>277</v>
       </c>
@@ -20212,7 +20214,7 @@
       <c r="G213" s="65"/>
       <c r="H213" s="65"/>
     </row>
-    <row r="214" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="73" t="s">
         <v>87</v>
       </c>
@@ -20238,7 +20240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="53"/>
       <c r="C215" s="79" t="s">
         <v>129</v>
@@ -20335,13 +20337,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="90" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="89" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="89"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="56" t="s">
         <v>264</v>
       </c>
@@ -20354,7 +20356,7 @@
       <c r="H221" s="65"/>
       <c r="I221" s="65"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="73" t="s">
         <v>226</v>
       </c>
@@ -20381,7 +20383,7 @@
       </c>
       <c r="I222" s="72"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="53"/>
       <c r="B223" s="98" t="s">
         <v>87</v>
@@ -21024,7 +21026,7 @@
       </c>
       <c r="I246" s="73"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="56" t="s">
         <v>278</v>
       </c>
@@ -21037,7 +21039,7 @@
       <c r="H248" s="65"/>
       <c r="I248" s="65"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="73" t="s">
         <v>279</v>
       </c>
@@ -21064,7 +21066,7 @@
       </c>
       <c r="I249" s="72"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="53"/>
       <c r="B250" s="98" t="s">
         <v>87</v>
@@ -21711,7 +21713,7 @@
       <c r="C274" s="79"/>
       <c r="D274" s="79"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="56" t="s">
         <v>271</v>
       </c>
@@ -21724,7 +21726,7 @@
       <c r="H275" s="65"/>
       <c r="I275" s="65"/>
     </row>
-    <row r="276" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="73" t="s">
         <v>121</v>
       </c>
@@ -21748,7 +21750,7 @@
       </c>
       <c r="H276" s="72"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="53"/>
       <c r="B277" s="98" t="s">
         <v>101</v>
@@ -21894,7 +21896,7 @@
       <c r="C283" s="79"/>
       <c r="D283" s="79"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="56" t="s">
         <v>275</v>
       </c>
@@ -21907,7 +21909,7 @@
       <c r="H284" s="65"/>
       <c r="I284" s="65"/>
     </row>
-    <row r="285" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="73" t="s">
         <v>128</v>
       </c>
@@ -21934,7 +21936,7 @@
       </c>
       <c r="I285" s="72"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="77"/>
       <c r="B286" s="98" t="s">
         <v>78</v>
@@ -22862,7 +22864,7 @@
       </c>
       <c r="I321" s="73"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="56" t="s">
         <v>277</v>
       </c>
@@ -22875,7 +22877,7 @@
       <c r="H323" s="65"/>
       <c r="I323" s="65"/>
     </row>
-    <row r="324" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="73" t="s">
         <v>87</v>
       </c>
@@ -22902,7 +22904,7 @@
       </c>
       <c r="I324" s="72"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="53"/>
       <c r="C325" s="79" t="s">
         <v>129</v>
@@ -23021,25 +23023,25 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" style="98" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="98" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="98" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="98" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="98" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" style="98" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="98" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="98" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="98" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="98" customWidth="1"/>
     <col min="6" max="6" width="15" style="98" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="98" customWidth="1"/>
-    <col min="8" max="12" width="12.7265625" style="98" customWidth="1"/>
-    <col min="13" max="16384" width="12.7265625" style="98"/>
+    <col min="7" max="7" width="13.77734375" style="98" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="98" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>7</v>
       </c>
@@ -23080,7 +23082,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="70" t="s">
         <v>281</v>
@@ -23101,7 +23103,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>282</v>
       </c>
@@ -23194,12 +23196,12 @@
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
     </row>
-    <row r="11" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
       <c r="B12" s="66" t="s">
         <v>184</v>
@@ -23220,16 +23222,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="66"/>
     </row>
-    <row r="14" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>279</v>
       </c>
@@ -23252,7 +23254,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="70" t="s">
         <v>287</v>
@@ -23273,7 +23275,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>121</v>
       </c>
@@ -23297,12 +23299,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>69</v>
       </c>
@@ -23333,12 +23335,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>233</v>
       </c>
@@ -23349,7 +23351,7 @@
       <c r="F24" s="65"/>
       <c r="G24" s="65"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>7</v>
       </c>
@@ -23394,7 +23396,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="70" t="s">
         <v>290</v>
@@ -23420,7 +23422,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
         <v>291</v>
       </c>
@@ -23533,7 +23535,7 @@
       <c r="F33" s="70"/>
       <c r="G33" s="70"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
         <v>295</v>
       </c>
@@ -23544,7 +23546,7 @@
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
       <c r="B35" s="66" t="s">
         <v>296</v>
@@ -23567,11 +23569,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="66"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="s">
         <v>283</v>
       </c>
@@ -23582,7 +23584,7 @@
       <c r="F37" s="65"/>
       <c r="G37" s="65"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="77" t="s">
         <v>279</v>
       </c>
@@ -23610,7 +23612,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
       <c r="B39" s="70" t="s">
         <v>298</v>
@@ -23636,7 +23638,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
         <v>121</v>
       </c>
@@ -23664,7 +23666,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="s">
         <v>300</v>
       </c>
@@ -23675,7 +23677,7 @@
       <c r="F42" s="65"/>
       <c r="G42" s="65"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
       <c r="C43" s="53" t="s">
@@ -23713,12 +23715,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="89" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="s">
         <v>233</v>
       </c>
@@ -23729,7 +23731,7 @@
       <c r="F47" s="65"/>
       <c r="G47" s="65"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="77" t="s">
         <v>7</v>
       </c>
@@ -23774,7 +23776,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="53"/>
       <c r="B50" s="70" t="s">
         <v>303</v>
@@ -23800,7 +23802,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
         <v>304</v>
       </c>
@@ -23913,7 +23915,7 @@
       <c r="F56" s="70"/>
       <c r="G56" s="70"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="56" t="s">
         <v>308</v>
       </c>
@@ -23924,7 +23926,7 @@
       <c r="F57" s="65"/>
       <c r="G57" s="65"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="59"/>
       <c r="B58" s="66" t="s">
         <v>309</v>
@@ -23947,11 +23949,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="59"/>
       <c r="B59" s="66"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="56" t="s">
         <v>283</v>
       </c>
@@ -23962,7 +23964,7 @@
       <c r="F60" s="65"/>
       <c r="G60" s="65"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="77" t="s">
         <v>279</v>
       </c>
@@ -23990,7 +23992,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
       <c r="B62" s="70" t="s">
         <v>311</v>
@@ -24016,7 +24018,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="77" t="s">
         <v>121</v>
       </c>
@@ -24044,7 +24046,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
         <v>313</v>
       </c>
@@ -24055,7 +24057,7 @@
       <c r="F65" s="65"/>
       <c r="G65" s="65"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
       <c r="C66" s="53" t="s">
@@ -24112,16 +24114,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" style="98" customWidth="1"/>
-    <col min="2" max="6" width="16.1796875" style="98" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" style="98" customWidth="1"/>
-    <col min="8" max="13" width="16.1796875" style="98" customWidth="1"/>
-    <col min="14" max="16384" width="16.1796875" style="98"/>
+    <col min="1" max="1" width="52.21875" style="98" customWidth="1"/>
+    <col min="2" max="6" width="16.21875" style="98" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="98" customWidth="1"/>
+    <col min="8" max="13" width="16.21875" style="98" customWidth="1"/>
+    <col min="14" max="16384" width="16.21875" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>160</v>
       </c>
@@ -24367,12 +24369,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="89" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
         <v>160</v>
       </c>
@@ -24666,12 +24668,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="89" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="71" t="s">
         <v>160</v>
       </c>
@@ -24983,16 +24985,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="98" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="98" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="98" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="98" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="98" customWidth="1"/>
-    <col min="16" max="20" width="12.7265625" style="98" customWidth="1"/>
-    <col min="21" max="16384" width="12.7265625" style="98"/>
+    <col min="16" max="20" width="12.77734375" style="98" customWidth="1"/>
+    <col min="21" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="58" t="s">
@@ -25035,7 +25037,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>319</v>
       </c>
@@ -25480,7 +25482,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="66" t="s">
         <v>189</v>
       </c>
@@ -25612,7 +25614,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>320</v>
       </c>
@@ -25794,12 +25796,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="58" t="s">
@@ -25842,7 +25844,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>321</v>
       </c>
@@ -26588,7 +26590,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>323</v>
       </c>
@@ -26822,12 +26824,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="89" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="58" t="s">
@@ -26870,7 +26872,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>322</v>
       </c>
@@ -27616,7 +27618,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
         <v>324</v>
       </c>
@@ -27868,16 +27870,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="98" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="98" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="98" customWidth="1"/>
-    <col min="8" max="12" width="12.7265625" style="98" customWidth="1"/>
-    <col min="13" max="16384" width="12.7265625" style="98"/>
+    <col min="1" max="1" width="21.21875" style="98" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="98" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="98" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="98" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="71"/>
       <c r="C1" s="53" t="s">
@@ -27896,7 +27898,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>325</v>
       </c>
@@ -27921,7 +27923,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>326</v>
       </c>
@@ -27952,12 +27954,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="71"/>
       <c r="C8" s="53" t="s">
@@ -27976,7 +27978,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>327</v>
       </c>
@@ -28006,7 +28008,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>328</v>
       </c>
@@ -28042,12 +28044,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="89" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="71"/>
       <c r="C15" s="53" t="s">
@@ -28066,7 +28068,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>329</v>
       </c>
@@ -28096,7 +28098,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>330</v>
       </c>
@@ -28150,21 +28152,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="70" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="70" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="70" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="70" customWidth="1"/>
     <col min="4" max="4" width="15" style="98" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="98" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="98" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="98" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="98" customWidth="1"/>
-    <col min="9" max="13" width="12.7265625" style="98" customWidth="1"/>
-    <col min="14" max="16384" width="12.7265625" style="98"/>
+    <col min="5" max="5" width="13.77734375" style="98" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="98" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="98" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="98" customWidth="1"/>
+    <col min="9" max="13" width="12.77734375" style="98" customWidth="1"/>
+    <col min="14" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>160</v>
       </c>
@@ -29347,14 +29349,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="90" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="s">
         <v>331</v>
       </c>
       <c r="B55" s="94"/>
       <c r="C55" s="94"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="53" t="s">
         <v>160</v>
       </c>
@@ -30797,14 +30799,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="90" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="s">
         <v>332</v>
       </c>
       <c r="B110" s="94"/>
       <c r="C110" s="94"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="53" t="s">
         <v>160</v>
       </c>
@@ -32265,17 +32267,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="98" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="98" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="98" customWidth="1"/>
-    <col min="4" max="7" width="17.26953125" style="98" customWidth="1"/>
-    <col min="8" max="12" width="12.7265625" style="98" customWidth="1"/>
-    <col min="13" max="16384" width="12.7265625" style="98"/>
+    <col min="2" max="2" width="27.44140625" style="98" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="98" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="98" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="98" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>160</v>
       </c>
@@ -32423,12 +32425,12 @@
       </c>
       <c r="H7" s="79"/>
     </row>
-    <row r="9" spans="1:8" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="89" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
         <v>160</v>
       </c>
@@ -32593,12 +32595,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="89" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
         <v>160</v>
       </c>
@@ -32780,14 +32782,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2021) imputable à chaque cause</v>
@@ -32798,7 +32800,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -32865,7 +32867,7 @@
       <c r="B11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C11" s="101">
         <f>SUM(C3:C10)</f>
         <v>0</v>
       </c>
@@ -32881,7 +32883,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="98" t="s">
         <v>86</v>
       </c>
@@ -32987,19 +32989,19 @@
       <c r="B23" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="103">
+      <c r="C23" s="101">
         <f>SUM(C14:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="103">
+      <c r="D23" s="101">
         <f>SUM(D14:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="103">
+      <c r="E23" s="101">
         <f>SUM(E14:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="103">
+      <c r="F23" s="101">
         <f>SUM(F14:F22)</f>
         <v>0</v>
       </c>
@@ -33015,7 +33017,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -33089,7 +33091,7 @@
       <c r="B35" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="103">
+      <c r="C35" s="101">
         <f>SUM(C26:C34)</f>
         <v>0</v>
       </c>
@@ -33112,13 +33114,13 @@
       <selection activeCell="C15" activeCellId="2" sqref="C2:G3 C8:G9 C15:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2021)</v>
@@ -33149,23 +33151,23 @@
       <c r="B2" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="104" t="str">
+      <c r="C2" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D2" s="104" t="str">
+      <c r="D2" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E2" s="104" t="str">
+      <c r="E2" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F2" s="104" t="str">
+      <c r="F2" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G2" s="104" t="str">
+      <c r="G2" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
@@ -33174,23 +33176,23 @@
       <c r="B3" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="104" t="str">
+      <c r="C3" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v/>
       </c>
-      <c r="D3" s="104" t="str">
+      <c r="D3" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v/>
       </c>
-      <c r="E3" s="104" t="str">
+      <c r="E3" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v/>
       </c>
-      <c r="F3" s="104" t="str">
+      <c r="F3" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v/>
       </c>
-      <c r="G3" s="104" t="str">
+      <c r="G3" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v/>
       </c>
@@ -33238,23 +33240,23 @@
       <c r="B8" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="104" t="str">
+      <c r="C8" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D8" s="104" t="str">
+      <c r="D8" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E8" s="104" t="str">
+      <c r="E8" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F8" s="104" t="str">
+      <c r="F8" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G8" s="104" t="str">
+      <c r="G8" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
@@ -33263,23 +33265,23 @@
       <c r="B9" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="104" t="str">
+      <c r="C9" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v/>
       </c>
-      <c r="D9" s="104" t="str">
+      <c r="D9" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v/>
       </c>
-      <c r="E9" s="104" t="str">
+      <c r="E9" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v/>
       </c>
-      <c r="F9" s="104" t="str">
+      <c r="F9" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v/>
       </c>
-      <c r="G9" s="104" t="str">
+      <c r="G9" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v/>
       </c>
@@ -33384,55 +33386,55 @@
       <c r="B15" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="102">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="104">
+      <c r="F15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="104">
+      <c r="G15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="104">
+      <c r="H15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="104">
+      <c r="I15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="104">
+      <c r="J15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="104">
+      <c r="K15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="104">
+      <c r="L15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="104">
+      <c r="M15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="104">
+      <c r="N15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="104">
+      <c r="O15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33469,13 +33471,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2021)</v>
@@ -33536,23 +33538,23 @@
       <c r="B5" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="102">
         <f>1-C2-C3-C4</f>
         <v>1</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="102">
         <f t="shared" ref="D5:G5" si="0">1-D2-D3-D4</f>
         <v>1</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F5" s="104">
+      <c r="F5" s="102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="104">
+      <c r="G5" s="102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -33575,13 +33577,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>133</v>
       </c>
@@ -33801,13 +33803,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -33877,19 +33879,19 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="98" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="98" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="98" customWidth="1"/>
-    <col min="4" max="8" width="11.453125" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="98"/>
+    <col min="2" max="2" width="19.21875" style="98" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="98" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>151</v>
       </c>
@@ -33906,7 +33908,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>157</v>
       </c>
@@ -33924,8 +33926,8 @@
       <c r="B3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="43" t="b">
-        <v>1</v>
+      <c r="C3" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="28" t="str">
@@ -33937,8 +33939,8 @@
       <c r="B4" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="43" t="b">
-        <v>1</v>
+      <c r="C4" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="28" t="str">
@@ -33950,8 +33952,8 @@
       <c r="B5" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="43" t="b">
-        <v>1</v>
+      <c r="C5" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="28" t="str">
@@ -33963,8 +33965,8 @@
       <c r="B6" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="43" t="b">
-        <v>1</v>
+      <c r="C6" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="28" t="str">
@@ -33980,7 +33982,7 @@
       <c r="D7" s="21"/>
       <c r="E7" s="43"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>158</v>
       </c>
@@ -33988,9 +33990,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="43" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="43"/>
       <c r="E9" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34001,7 +34001,9 @@
         <v>109</v>
       </c>
       <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="43" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34012,7 +34014,9 @@
         <v>96</v>
       </c>
       <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="D11" s="43" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34023,7 +34027,9 @@
         <v>97</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="43" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34034,7 +34040,9 @@
         <v>98</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="D13" s="43" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34046,11 +34054,9 @@
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="43"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>159</v>
       </c>
@@ -34058,9 +34064,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="43"/>
-      <c r="D16" s="43" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="43"/>
       <c r="E16" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34097,9 +34101,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="43"/>
-      <c r="D19" s="43" t="s">
-        <v>5</v>
-      </c>
+      <c r="D19" s="43"/>
       <c r="E19" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34110,9 +34112,7 @@
         <v>98</v>
       </c>
       <c r="C20" s="43"/>
-      <c r="D20" s="43" t="s">
-        <v>5</v>
-      </c>
+      <c r="D20" s="43"/>
       <c r="E20" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34144,15 +34144,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -34166,7 +34166,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>160</v>
       </c>
@@ -34178,7 +34178,7 @@
       </c>
       <c r="D2" s="43"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>164</v>
       </c>

--- a/inputs/fr/Optima_template.xlsx
+++ b/inputs/fr/Optima_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559F0618-6E9E-447B-B6AE-59F84B7CF01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF9A22C-837F-4A88-BE6C-E02E56950DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -2298,7 +2298,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -3482,7 +3482,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -13602,12 +13602,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eXeDV3CTyCLgN8FUpMP5/2LF0U8026cwVyQwJBDJYxvKgS7NrJI0gZt4Lxoc/3rTntZoETXK2jgkGhdFHHp12g==" saltValue="D3VAVCxVY8wfQ5CrbLjpYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -13617,36 +13641,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -28148,8 +28148,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28209,13 +28209,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -28229,13 +28229,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="86">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="86">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="86">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -28249,13 +28249,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="86">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="G4" s="86">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="H4" s="86">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -28295,10 +28295,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G6" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H6" s="86">
         <v>0</v>
@@ -28338,10 +28338,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G8" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H8" s="86">
         <v>0</v>
@@ -28384,10 +28384,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G10" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H10" s="86">
         <v>0</v>
@@ -28427,10 +28427,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G12" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H12" s="86">
         <v>0</v>
@@ -28473,10 +28473,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G14" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H14" s="86">
         <v>0</v>
@@ -28516,10 +28516,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G16" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H16" s="86">
         <v>0</v>
@@ -28562,7 +28562,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="86">
         <v>0.62</v>
@@ -28605,7 +28605,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="86">
         <v>0.62</v>
@@ -28625,13 +28625,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="86">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="86">
         <v>0</v>
       </c>
       <c r="F21" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="86">
         <v>0</v>
@@ -28651,7 +28651,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="86">
         <v>0</v>
@@ -28671,13 +28671,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="86">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="86">
         <v>0</v>
       </c>
       <c r="F23" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="86">
         <v>0</v>
@@ -28697,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="86">
         <v>0</v>
@@ -28717,13 +28717,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="86">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="86">
         <v>0</v>
       </c>
       <c r="F25" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="86">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="86">
         <v>0</v>
@@ -28769,7 +28769,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="86">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="86">
         <v>1</v>
@@ -28789,7 +28789,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="86">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="86">
         <v>0</v>
@@ -28835,7 +28835,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="86">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="86">
         <v>1</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="86">
         <v>0</v>
@@ -28875,7 +28875,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="86">
         <v>0</v>
@@ -28901,7 +28901,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="86">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="86">
         <v>1</v>
@@ -28921,7 +28921,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="86">
         <v>0</v>
@@ -28941,7 +28941,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="86">
         <v>0</v>
@@ -28967,7 +28967,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="86">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="86">
         <v>1</v>
@@ -28987,7 +28987,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="86">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="86">
         <v>0</v>
@@ -29033,7 +29033,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="86">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="86">
         <v>1</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="86">
         <v>0</v>
@@ -29073,7 +29073,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="86">
         <v>0</v>
@@ -29099,7 +29099,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="86">
         <v>0.3</v>
@@ -29119,7 +29119,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="86">
         <v>0.5</v>
@@ -29139,7 +29139,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="86">
         <v>0.65</v>
@@ -29162,7 +29162,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="86">
         <v>0.3</v>
@@ -29182,7 +29182,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="86">
         <v>0.49</v>
@@ -29202,7 +29202,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="86">
         <v>0.52</v>
@@ -29228,7 +29228,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="86">
         <v>0.88</v>
@@ -29242,19 +29242,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="86">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="86">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="86">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="86">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -29268,19 +29268,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="86">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="86">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="86">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="86">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -29294,7 +29294,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="86">
         <v>0.86</v>
@@ -29320,7 +29320,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="86">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="86">
         <v>0</v>
@@ -29402,15 +29402,15 @@
       </c>
       <c r="F57" s="86">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="86">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="86">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -29427,15 +29427,15 @@
       </c>
       <c r="F58" s="86">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="86">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="86">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -29452,15 +29452,15 @@
       </c>
       <c r="F59" s="86">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
       <c r="G59" s="86">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
       <c r="H59" s="86">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -29508,11 +29508,11 @@
       </c>
       <c r="F61" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G61" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H61" s="86">
         <f t="shared" si="0"/>
@@ -29561,11 +29561,11 @@
       </c>
       <c r="F63" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G63" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H63" s="86">
         <f t="shared" si="0"/>
@@ -29617,11 +29617,11 @@
       </c>
       <c r="F65" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G65" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H65" s="86">
         <f t="shared" si="0"/>
@@ -29670,11 +29670,11 @@
       </c>
       <c r="F67" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G67" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H67" s="86">
         <f t="shared" si="1"/>
@@ -29726,11 +29726,11 @@
       </c>
       <c r="F69" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G69" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H69" s="86">
         <f t="shared" si="1"/>
@@ -29779,11 +29779,11 @@
       </c>
       <c r="F71" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G71" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H71" s="86">
         <f t="shared" si="1"/>
@@ -29835,7 +29835,7 @@
       </c>
       <c r="F73" s="86">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="86">
         <f t="shared" si="1"/>
@@ -29888,7 +29888,7 @@
       </c>
       <c r="F75" s="86">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="86">
         <f t="shared" si="1"/>
@@ -29911,7 +29911,7 @@
       </c>
       <c r="D76" s="86">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="86">
         <f t="shared" si="1"/>
@@ -29919,7 +29919,7 @@
       </c>
       <c r="F76" s="86">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="86">
         <f t="shared" si="1"/>
@@ -29944,7 +29944,7 @@
       </c>
       <c r="F77" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="86">
         <f t="shared" si="2"/>
@@ -29967,7 +29967,7 @@
       </c>
       <c r="D78" s="86">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="86">
         <f t="shared" si="2"/>
@@ -29975,7 +29975,7 @@
       </c>
       <c r="F78" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="86">
         <f t="shared" si="2"/>
@@ -30000,7 +30000,7 @@
       </c>
       <c r="F79" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="86">
         <f t="shared" si="2"/>
@@ -30023,7 +30023,7 @@
       </c>
       <c r="D80" s="86">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="86">
         <f t="shared" si="2"/>
@@ -30031,7 +30031,7 @@
       </c>
       <c r="F80" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="86">
         <f t="shared" si="2"/>
@@ -30056,7 +30056,7 @@
       </c>
       <c r="F81" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="86">
         <f t="shared" si="2"/>
@@ -30087,7 +30087,7 @@
       </c>
       <c r="F82" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="86">
         <f t="shared" si="2"/>
@@ -30112,7 +30112,7 @@
       </c>
       <c r="F83" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="86">
         <f t="shared" si="2"/>
@@ -30137,7 +30137,7 @@
       </c>
       <c r="F84" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="86">
         <f t="shared" si="2"/>
@@ -30168,7 +30168,7 @@
       </c>
       <c r="F85" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="86">
         <f t="shared" si="2"/>
@@ -30193,7 +30193,7 @@
       </c>
       <c r="F86" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="86">
         <f t="shared" si="2"/>
@@ -30218,7 +30218,7 @@
       </c>
       <c r="F87" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="86">
         <f t="shared" si="3"/>
@@ -30249,7 +30249,7 @@
       </c>
       <c r="F88" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="86">
         <f t="shared" si="3"/>
@@ -30274,7 +30274,7 @@
       </c>
       <c r="F89" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="86">
         <f t="shared" si="3"/>
@@ -30299,7 +30299,7 @@
       </c>
       <c r="F90" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="86">
         <f t="shared" si="3"/>
@@ -30330,7 +30330,7 @@
       </c>
       <c r="F91" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="86">
         <f t="shared" si="3"/>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="F92" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="86">
         <f t="shared" si="3"/>
@@ -30380,7 +30380,7 @@
       </c>
       <c r="F93" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="86">
         <f t="shared" si="3"/>
@@ -30411,7 +30411,7 @@
       </c>
       <c r="F94" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="86">
         <f t="shared" si="3"/>
@@ -30436,7 +30436,7 @@
       </c>
       <c r="F95" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="86">
         <f t="shared" si="3"/>
@@ -30461,7 +30461,7 @@
       </c>
       <c r="F96" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="86">
         <f t="shared" si="3"/>
@@ -30492,7 +30492,7 @@
       </c>
       <c r="F97" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="86">
         <f t="shared" si="4"/>
@@ -30517,7 +30517,7 @@
       </c>
       <c r="F98" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="86">
         <f t="shared" si="4"/>
@@ -30542,7 +30542,7 @@
       </c>
       <c r="F99" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="86">
         <f t="shared" si="4"/>
@@ -30570,7 +30570,7 @@
       </c>
       <c r="F100" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="86">
         <f t="shared" si="4"/>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="F101" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="86">
         <f t="shared" si="4"/>
@@ -30620,7 +30620,7 @@
       </c>
       <c r="F102" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="86">
         <f t="shared" si="4"/>
@@ -30651,7 +30651,7 @@
       </c>
       <c r="F103" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="86">
         <f t="shared" si="4"/>
@@ -30668,23 +30668,23 @@
       </c>
       <c r="D104" s="86">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="86">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="86">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="86">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -30699,23 +30699,23 @@
       </c>
       <c r="D105" s="86">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="86">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="86">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="86">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -30732,7 +30732,7 @@
       </c>
       <c r="F106" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="86">
         <f t="shared" si="4"/>
@@ -30763,7 +30763,7 @@
       </c>
       <c r="F107" s="86">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="86">
         <f t="shared" si="5"/>
@@ -30788,7 +30788,7 @@
       </c>
       <c r="F108" s="86">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="86">
         <f t="shared" si="5"/>
@@ -30852,15 +30852,15 @@
       </c>
       <c r="F112" s="86">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="86">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="86">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -30877,15 +30877,15 @@
       </c>
       <c r="F113" s="86">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="86">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="86">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -30902,15 +30902,15 @@
       </c>
       <c r="F114" s="86">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
       <c r="G114" s="86">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
       <c r="H114" s="86">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -30958,11 +30958,11 @@
       </c>
       <c r="F116" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G116" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H116" s="86">
         <f t="shared" si="6"/>
@@ -31011,11 +31011,11 @@
       </c>
       <c r="F118" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G118" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H118" s="86">
         <f t="shared" si="6"/>
@@ -31067,11 +31067,11 @@
       </c>
       <c r="F120" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G120" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H120" s="86">
         <f t="shared" si="6"/>
@@ -31120,11 +31120,11 @@
       </c>
       <c r="F122" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G122" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H122" s="86">
         <f t="shared" si="7"/>
@@ -31176,11 +31176,11 @@
       </c>
       <c r="F124" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G124" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H124" s="86">
         <f t="shared" si="7"/>
@@ -31229,11 +31229,11 @@
       </c>
       <c r="F126" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G126" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H126" s="86">
         <f t="shared" si="7"/>
@@ -31285,7 +31285,7 @@
       </c>
       <c r="F128" s="86">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="86">
         <f t="shared" si="7"/>
@@ -31338,7 +31338,7 @@
       </c>
       <c r="F130" s="86">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="86">
         <f t="shared" si="7"/>
@@ -31361,7 +31361,7 @@
       </c>
       <c r="D131" s="86">
         <f t="shared" si="7"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="86">
         <f t="shared" si="7"/>
@@ -31369,7 +31369,7 @@
       </c>
       <c r="F131" s="86">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="86">
         <f t="shared" si="7"/>
@@ -31394,7 +31394,7 @@
       </c>
       <c r="F132" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="86">
         <f t="shared" si="8"/>
@@ -31417,7 +31417,7 @@
       </c>
       <c r="D133" s="86">
         <f t="shared" si="8"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="86">
         <f t="shared" si="8"/>
@@ -31425,7 +31425,7 @@
       </c>
       <c r="F133" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="86">
         <f t="shared" si="8"/>
@@ -31450,7 +31450,7 @@
       </c>
       <c r="F134" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="86">
         <f t="shared" si="8"/>
@@ -31473,7 +31473,7 @@
       </c>
       <c r="D135" s="86">
         <f t="shared" si="8"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="86">
         <f t="shared" si="8"/>
@@ -31481,7 +31481,7 @@
       </c>
       <c r="F135" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="86">
         <f t="shared" si="8"/>
@@ -31506,7 +31506,7 @@
       </c>
       <c r="F136" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="86">
         <f t="shared" si="8"/>
@@ -31537,7 +31537,7 @@
       </c>
       <c r="F137" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="86">
         <f t="shared" si="8"/>
@@ -31562,7 +31562,7 @@
       </c>
       <c r="F138" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="86">
         <f t="shared" si="8"/>
@@ -31587,7 +31587,7 @@
       </c>
       <c r="F139" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="86">
         <f t="shared" si="8"/>
@@ -31618,7 +31618,7 @@
       </c>
       <c r="F140" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="86">
         <f t="shared" si="8"/>
@@ -31643,7 +31643,7 @@
       </c>
       <c r="F141" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="86">
         <f t="shared" si="8"/>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="F142" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="86">
         <f t="shared" si="9"/>
@@ -31699,7 +31699,7 @@
       </c>
       <c r="F143" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="86">
         <f t="shared" si="9"/>
@@ -31724,7 +31724,7 @@
       </c>
       <c r="F144" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="86">
         <f t="shared" si="9"/>
@@ -31749,7 +31749,7 @@
       </c>
       <c r="F145" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="86">
         <f t="shared" si="9"/>
@@ -31780,7 +31780,7 @@
       </c>
       <c r="F146" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="86">
         <f t="shared" si="9"/>
@@ -31805,7 +31805,7 @@
       </c>
       <c r="F147" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="86">
         <f t="shared" si="9"/>
@@ -31830,7 +31830,7 @@
       </c>
       <c r="F148" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="86">
         <f t="shared" si="9"/>
@@ -31861,7 +31861,7 @@
       </c>
       <c r="F149" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="86">
         <f t="shared" si="9"/>
@@ -31886,7 +31886,7 @@
       </c>
       <c r="F150" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="86">
         <f t="shared" si="9"/>
@@ -31911,7 +31911,7 @@
       </c>
       <c r="F151" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="86">
         <f t="shared" si="9"/>
@@ -31942,7 +31942,7 @@
       </c>
       <c r="F152" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="86">
         <f t="shared" si="10"/>
@@ -31967,7 +31967,7 @@
       </c>
       <c r="F153" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="86">
         <f t="shared" si="10"/>
@@ -31992,7 +31992,7 @@
       </c>
       <c r="F154" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="86">
         <f t="shared" si="10"/>
@@ -32020,7 +32020,7 @@
       </c>
       <c r="F155" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="86">
         <f t="shared" si="10"/>
@@ -32045,7 +32045,7 @@
       </c>
       <c r="F156" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="86">
         <f t="shared" si="10"/>
@@ -32070,7 +32070,7 @@
       </c>
       <c r="F157" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="86">
         <f t="shared" si="10"/>
@@ -32101,7 +32101,7 @@
       </c>
       <c r="F158" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="86">
         <f t="shared" si="10"/>
@@ -32118,23 +32118,23 @@
       </c>
       <c r="D159" s="86">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="86">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="86">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="86">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -32149,23 +32149,23 @@
       </c>
       <c r="D160" s="86">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="86">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="86">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="86">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -32182,7 +32182,7 @@
       </c>
       <c r="F161" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="86">
         <f t="shared" si="10"/>
@@ -32213,7 +32213,7 @@
       </c>
       <c r="F162" s="86">
         <f t="shared" si="11"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="86">
         <f t="shared" si="11"/>
@@ -32238,7 +32238,7 @@
       </c>
       <c r="F163" s="86">
         <f t="shared" si="11"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="86">
         <f t="shared" si="11"/>

--- a/inputs/fr/Optima_template.xlsx
+++ b/inputs/fr/Optima_template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B4A98D4-5153-4C8A-BFF7-7B7296AFDD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7556B9F9-4A02-4EA5-A1A5-1B8B2589AAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="740" windowWidth="19150" windowHeight="10060" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15795" yWindow="-15840" windowWidth="21600" windowHeight="12525" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
+    <sheet name="Données pop de l'année de ref" sheetId="1" r:id="rId1"/>
     <sheet name="Projections démographiques" sheetId="2" r:id="rId2"/>
     <sheet name="Causes du décès" sheetId="3" r:id="rId3"/>
     <sheet name="Dist. de l'état nutritionnel" sheetId="4" r:id="rId4"/>
@@ -43,53 +43,53 @@
     <sheet name="Programmes pour les FE" sheetId="28" state="hidden" r:id="rId28"/>
   </sheets>
   <definedNames>
-    <definedName name="abortion" localSheetId="7">'Donnees pop de l''annee de ref'!$C$38</definedName>
-    <definedName name="abortion">'Donnees pop de l''annee de ref'!$C$41</definedName>
+    <definedName name="abortion" localSheetId="7">'Données pop de l''année de ref'!$C$38</definedName>
+    <definedName name="abortion">'Données pop de l''année de ref'!$C$41</definedName>
     <definedName name="comm_deliv">'Traitement de la MAS'!$D$3</definedName>
-    <definedName name="diarrhoea_1_5mo">'Donnees pop de l''annee de ref'!$C$52</definedName>
-    <definedName name="diarrhoea_12_23mo">'Donnees pop de l''annee de ref'!$C$54</definedName>
-    <definedName name="diarrhoea_1mo">'Donnees pop de l''annee de ref'!$C$51</definedName>
-    <definedName name="diarrhoea_24_59mo">'Donnees pop de l''annee de ref'!$C$55</definedName>
-    <definedName name="diarrhoea_6_11mo">'Donnees pop de l''annee de ref'!$C$53</definedName>
-    <definedName name="end_year">'Donnees pop de l''annee de ref'!$C$4</definedName>
-    <definedName name="famplan_unmet_need">'Donnees pop de l''annee de ref'!$C$13</definedName>
-    <definedName name="food_insecure">'Donnees pop de l''annee de ref'!$C$8</definedName>
-    <definedName name="frac_children_health_facility">'Donnees pop de l''annee de ref'!$C$12</definedName>
-    <definedName name="frac_diarrhea_severe">'Donnees pop de l''annee de ref'!$C$58</definedName>
-    <definedName name="frac_maize">'Donnees pop de l''annee de ref'!$C$19</definedName>
-    <definedName name="frac_malaria_risk">'Donnees pop de l''annee de ref'!$C$9</definedName>
+    <definedName name="diarrhoea_1_5mo">'Données pop de l''année de ref'!$C$52</definedName>
+    <definedName name="diarrhoea_12_23mo">'Données pop de l''année de ref'!$C$54</definedName>
+    <definedName name="diarrhoea_1mo">'Données pop de l''année de ref'!$C$51</definedName>
+    <definedName name="diarrhoea_24_59mo">'Données pop de l''année de ref'!$C$55</definedName>
+    <definedName name="diarrhoea_6_11mo">'Données pop de l''année de ref'!$C$53</definedName>
+    <definedName name="end_year">'Données pop de l''année de ref'!$C$4</definedName>
+    <definedName name="famplan_unmet_need">'Données pop de l''année de ref'!$C$13</definedName>
+    <definedName name="food_insecure">'Données pop de l''année de ref'!$C$8</definedName>
+    <definedName name="frac_children_health_facility">'Données pop de l''année de ref'!$C$12</definedName>
+    <definedName name="frac_diarrhea_severe">'Données pop de l''année de ref'!$C$58</definedName>
+    <definedName name="frac_maize">'Données pop de l''année de ref'!$C$19</definedName>
+    <definedName name="frac_malaria_risk">'Données pop de l''année de ref'!$C$9</definedName>
     <definedName name="frac_mam_1_5months">'Dist. de l''état nutritionnel'!$D$10</definedName>
     <definedName name="frac_mam_12_23months">'Dist. de l''état nutritionnel'!$F$10</definedName>
     <definedName name="frac_mam_1month">'Dist. de l''état nutritionnel'!$C$10</definedName>
     <definedName name="frac_mam_24_59months">'Dist. de l''état nutritionnel'!$G$10</definedName>
     <definedName name="frac_mam_6_11months">'Dist. de l''état nutritionnel'!$E$10</definedName>
-    <definedName name="frac_MAMtoSAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
-    <definedName name="frac_other_staples">'Donnees pop de l''annee de ref'!$C$20</definedName>
-    <definedName name="frac_PW_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
-    <definedName name="frac_rice">'Donnees pop de l''annee de ref'!$C$17</definedName>
+    <definedName name="frac_MAMtoSAM">'Données pop de l''année de ref'!#REF!</definedName>
+    <definedName name="frac_other_staples">'Données pop de l''année de ref'!$C$20</definedName>
+    <definedName name="frac_PW_health_facility">'Données pop de l''année de ref'!$C$11</definedName>
+    <definedName name="frac_rice">'Données pop de l''année de ref'!$C$17</definedName>
     <definedName name="frac_sam_1_5months">'Dist. de l''état nutritionnel'!$D$11</definedName>
     <definedName name="frac_sam_12_23months">'Dist. de l''état nutritionnel'!$F$11</definedName>
     <definedName name="frac_sam_1month">'Dist. de l''état nutritionnel'!$C$11</definedName>
     <definedName name="frac_sam_24_59months">'Dist. de l''état nutritionnel'!$G$11</definedName>
     <definedName name="frac_sam_6_11months">'Dist. de l''état nutritionnel'!$E$11</definedName>
-    <definedName name="frac_SAMtoMAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
-    <definedName name="frac_subsistence_farming">'Donnees pop de l''annee de ref'!$C$16</definedName>
-    <definedName name="frac_wheat">'Donnees pop de l''annee de ref'!$C$18</definedName>
-    <definedName name="infant_mortality">'Donnees pop de l''annee de ref'!$C$38</definedName>
-    <definedName name="iron_deficiency_anaemia">'Donnees pop de l''annee de ref'!$C$59</definedName>
+    <definedName name="frac_SAMtoMAM">'Données pop de l''année de ref'!#REF!</definedName>
+    <definedName name="frac_subsistence_farming">'Données pop de l''année de ref'!$C$16</definedName>
+    <definedName name="frac_wheat">'Données pop de l''année de ref'!$C$18</definedName>
+    <definedName name="infant_mortality">'Données pop de l''année de ref'!$C$38</definedName>
+    <definedName name="iron_deficiency_anaemia">'Données pop de l''année de ref'!$C$59</definedName>
     <definedName name="manage_mam">'Traitement de la MAS'!$D$2</definedName>
-    <definedName name="maternal_mortality">'Donnees pop de l''annee de ref'!$C$40</definedName>
-    <definedName name="neonatal_mortality">'Donnees pop de l''annee de ref'!$C$37</definedName>
-    <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
-    <definedName name="preterm_AGA">'Donnees pop de l''annee de ref'!$C$46</definedName>
-    <definedName name="preterm_SGA">'Donnees pop de l''annee de ref'!$C$45</definedName>
-    <definedName name="school_attendance">'Donnees pop de l''annee de ref'!$C$10</definedName>
-    <definedName name="start_year">'Donnees pop de l''annee de ref'!$C$3</definedName>
-    <definedName name="stillbirth" localSheetId="7">'Donnees pop de l''annee de ref'!$C$39</definedName>
-    <definedName name="stillbirth">'Donnees pop de l''annee de ref'!$C$42</definedName>
-    <definedName name="term_AGA">'Donnees pop de l''annee de ref'!$C$48</definedName>
-    <definedName name="term_SGA">'Donnees pop de l''annee de ref'!$C$47</definedName>
-    <definedName name="U5_mortality">'Donnees pop de l''annee de ref'!$C$39</definedName>
+    <definedName name="maternal_mortality">'Données pop de l''année de ref'!$C$40</definedName>
+    <definedName name="neonatal_mortality">'Données pop de l''année de ref'!$C$37</definedName>
+    <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Données pop de l''année de ref'!$C$11</definedName>
+    <definedName name="preterm_AGA">'Données pop de l''année de ref'!$C$46</definedName>
+    <definedName name="preterm_SGA">'Données pop de l''année de ref'!$C$45</definedName>
+    <definedName name="school_attendance">'Données pop de l''année de ref'!$C$10</definedName>
+    <definedName name="start_year">'Données pop de l''année de ref'!$C$3</definedName>
+    <definedName name="stillbirth" localSheetId="7">'Données pop de l''année de ref'!$C$39</definedName>
+    <definedName name="stillbirth">'Données pop de l''année de ref'!$C$42</definedName>
+    <definedName name="term_AGA">'Données pop de l''année de ref'!$C$48</definedName>
+    <definedName name="term_SGA">'Données pop de l''année de ref'!$C$47</definedName>
+    <definedName name="U5_mortality">'Données pop de l''année de ref'!$C$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1428,7 +1428,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1544,6 +1544,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1689,7 +1695,7 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1935,6 +1941,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2701,7 +2710,7 @@
       <c r="A63" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gelkmODFofzP1pcdo6UFGS4NM22fBUJcos0OtoQAEJTuicABZhMn0ZKFDuKQY3s+khbLDOh9wWbjiol8WMKknw==" saltValue="0ur8T6Mz0uTmLuIQ0SppmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eQwhegixl60HMlJR8z6uoOe5Yle0I7tFCYzTTXTXuoTGXFwqFGVj7pB7MJpelYSpPLe0niBjlUwsiWzuRkvGKg==" saltValue="j0ihlDInsunWUibZhP+YJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3479,7 +3488,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pmHVsvuYIrpeclAoT4Ov2u0d7Z+AEfg2Sw19nfU7U7gsGYzsJ52+SkO8ijUbaG4Mr1M+fR3QyVbUYU3HrXHDZQ==" saltValue="hk9KBongsDQdxIXCzTAqKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nMZB9ovAFO8B6IQhBGOAqg00zzy15zLrtl3PBbou6tAufSumMP0ikp4zdFCq9uqRdk6zzbDk0lPImj8QHfizfA==" saltValue="77WUXacvqusnBje/6AdDYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3517,7 +3526,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>180</v>
       </c>
@@ -3526,7 +3535,7 @@
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>181</v>
       </c>
@@ -3535,7 +3544,7 @@
       </c>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>192</v>
       </c>
@@ -3544,7 +3553,7 @@
       </c>
       <c r="C4" s="42"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>189</v>
       </c>
@@ -3553,83 +3562,83 @@
       </c>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6v3M4x32+Ts5LOmvtlTnH/XauReUkuYrPJlcGk0UEmmdYkFpHNT/KBerk6d8PorsApP9n14liqMtUFxgWRTzVw==" saltValue="qtqzwj60gZwHOz50cnvbLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Qyb5nuWFJHgXcyxWXRKwdgsoxA8ylaiP/78nsQ2BisB6jAeGqVR24k4nS5zAxp9cLx+fcxwhJYFQTPYl17BjXw==" saltValue="YaiEOdA/S7OEIsnB9aqBlw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3659,78 +3668,78 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mDEA3YcUSvodKqBvPqfl+9xHbFyAvJhQZ41aDPUackYK2035fWfQVn66+PDndy7oN6sgPkyBKqABFYcL/zG0LQ==" saltValue="04pPSBPSGzM5W8WXN5sDvw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yz4/ms8nwmcuHGbCXOJxw6LaoKSBXDutxKNbvnn/bkfwJzp6IRsgJnUHaLDDkV6FFCAJJ1AvER51s9WHa6PSCA==" saltValue="qi9HbfEB45btUXc3D/Ae/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3774,23 +3783,23 @@
         <v>87</v>
       </c>
       <c r="B2" s="13">
-        <f>'Donnees pop de l''annee de ref'!C51</f>
+        <f>'Données pop de l''année de ref'!C51</f>
         <v>0</v>
       </c>
       <c r="C2" s="13">
-        <f>'Donnees pop de l''annee de ref'!C52</f>
+        <f>'Données pop de l''année de ref'!C52</f>
         <v>0</v>
       </c>
       <c r="D2" s="13">
-        <f>'Donnees pop de l''annee de ref'!C53</f>
+        <f>'Données pop de l''année de ref'!C53</f>
         <v>0</v>
       </c>
       <c r="E2" s="13">
-        <f>'Donnees pop de l''annee de ref'!C54</f>
+        <f>'Données pop de l''année de ref'!C54</f>
         <v>0</v>
       </c>
       <c r="F2" s="13">
-        <f>'Donnees pop de l''annee de ref'!C55</f>
+        <f>'Données pop de l''année de ref'!C55</f>
         <v>0</v>
       </c>
     </row>
@@ -3845,7 +3854,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7PCNOl9iDvel58KgmZS1u60W2WuHBUIfLSEA83TOILzd2xYoSbBE6wxce/mIRiYSmuKrH1zZay96iFMxj77u6w==" saltValue="yLwFf9nA3MB6FZIqovPvpg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0cbPhgles/35rIWmE2TMXQeZfi4gPcq1teBriYUgp9j4gdt/8+3SMAtl55q5Q9pct173YkhG+D7mZF5OsMM7Nw==" saltValue="/Lo83NDeBoTjXhBhNk4/Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5606,7 +5615,7 @@
       <c r="B40" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j9FDwKniSpwtEYATTBWnwRMhCWkHat8q4qedlbUp+iLMwgPA0/3b3fjS2xvO9rCQRt3EP5n4aMTVjz22BBUPHA==" saltValue="jZbOLYkeI+lqqKUcSDgo2w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LKDG1D/LvR440iDGcYsh4ZuAgJKIwzoxygG9ZFx6CkD4SUDY+r++IIuqNETmozCU7c9x0jip0x37dMO0Q/RlDw==" saltValue="H6yAZe4Zy5CCM7j+BbRdrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5641,7 +5650,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cAKfLEECVNnwTMnGFiX74CiBFAeGD9xel+ydM2m3VWQDyeNyyJgBKEBNi/0ziKmbzDOgvVgCwnNgWn3efnPTXA==" saltValue="YlA5B66kDo7CAY2FAb+0Rw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2O4m0WXTD9DFJY09SNnRWEPLg4jSDsXp7FoZxv0/P3ZgGhgoj34PdxBH7j7EY9ne7ABuD1Etr8Riu2jbKz+rFw==" saltValue="R60W6Mnm0PJCZ/ugLecmnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5847,7 +5856,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pF5wFOwUOK9eYR/6WQHDhDr/4wCb1S/T+316ARraVbMNiK64NQG7ubt5OEno9DGFA0Jtb1UUoG/jg/YjyisGUw==" saltValue="W4n/LkH8fzxM1gGZ+4/qoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tc5Dc+rj4+qS9sFTcLbHTZENeLnVT2mVZ0MaD2SdguumJeNH9GV4OgWUseVEl2C0cExpjwoLkBcK+bgQft9Gig==" saltValue="2yD9n5At1XXbLIAjeU4mCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7662,7 +7671,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p1x3eUVtCJDGAyJyTAq3T1NWVs2A+Mm46mSvW+MuC6KVK0gx5ikIu+6WGyDreY9yF11/HsjJRra5qcdJOfeu2A==" saltValue="kZcD4eBnf9rl4fkVg+U4EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5PYa2zm1r4/9GPXtrUnRbiGk9BCIdyh+2UGQCce7EftubCRYq9PG1RPIWPh8uVt4XtELWK/OcCYIiMpzyhA17A==" saltValue="9vmNRAE3QlGabf+uPWwx3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7729,7 +7738,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>168</v>
       </c>
@@ -7746,7 +7755,7 @@
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>169</v>
       </c>
@@ -7763,7 +7772,7 @@
       <c r="J3" s="82"/>
       <c r="K3" s="82"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>170</v>
       </c>
@@ -7780,7 +7789,7 @@
       <c r="J4" s="82"/>
       <c r="K4" s="82"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>171</v>
       </c>
@@ -7797,7 +7806,7 @@
       <c r="J5" s="82"/>
       <c r="K5" s="82"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>172</v>
       </c>
@@ -7816,7 +7825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>173</v>
       </c>
@@ -7835,7 +7844,7 @@
       <c r="J7" s="82"/>
       <c r="K7" s="82"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>174</v>
       </c>
@@ -7854,7 +7863,7 @@
       <c r="J8" s="82"/>
       <c r="K8" s="82"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>175</v>
       </c>
@@ -7873,7 +7882,7 @@
       <c r="J9" s="82"/>
       <c r="K9" s="82"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>176</v>
       </c>
@@ -7890,7 +7899,7 @@
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>177</v>
       </c>
@@ -7907,7 +7916,7 @@
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
         <v>178</v>
       </c>
@@ -7924,7 +7933,7 @@
       <c r="J12" s="82"/>
       <c r="K12" s="82"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
         <v>179</v>
       </c>
@@ -7941,7 +7950,7 @@
       <c r="J13" s="82"/>
       <c r="K13" s="82"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>180</v>
       </c>
@@ -7960,7 +7969,7 @@
       <c r="J14" s="82"/>
       <c r="K14" s="82"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
         <v>181</v>
       </c>
@@ -7979,7 +7988,7 @@
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>182</v>
       </c>
@@ -8000,7 +8009,7 @@
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
         <v>183</v>
       </c>
@@ -8017,7 +8026,7 @@
       <c r="J17" s="82"/>
       <c r="K17" s="82"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
         <v>157</v>
       </c>
@@ -8036,7 +8045,7 @@
       <c r="J18" s="82"/>
       <c r="K18" s="82"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
         <v>158</v>
       </c>
@@ -8055,7 +8064,7 @@
       <c r="J19" s="82"/>
       <c r="K19" s="82"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
         <v>159</v>
       </c>
@@ -8074,7 +8083,7 @@
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>184</v>
       </c>
@@ -8093,7 +8102,7 @@
       <c r="J21" s="82"/>
       <c r="K21" s="82"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
         <v>185</v>
       </c>
@@ -8114,7 +8123,7 @@
       <c r="J22" s="82"/>
       <c r="K22" s="82"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>186</v>
       </c>
@@ -8133,7 +8142,7 @@
       <c r="J23" s="82"/>
       <c r="K23" s="82"/>
     </row>
-    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
         <v>187</v>
       </c>
@@ -8150,7 +8159,7 @@
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>188</v>
       </c>
@@ -8167,7 +8176,7 @@
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
         <v>189</v>
       </c>
@@ -8184,7 +8193,7 @@
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
     </row>
-    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>190</v>
       </c>
@@ -8203,7 +8212,7 @@
       <c r="J27" s="82"/>
       <c r="K27" s="82"/>
     </row>
-    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
         <v>191</v>
       </c>
@@ -8220,7 +8229,7 @@
       <c r="J28" s="82"/>
       <c r="K28" s="82"/>
     </row>
-    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
         <v>192</v>
       </c>
@@ -8239,7 +8248,7 @@
       <c r="J29" s="82"/>
       <c r="K29" s="82"/>
     </row>
-    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="69" t="s">
         <v>205</v>
       </c>
@@ -8260,7 +8269,7 @@
       <c r="J30" s="82"/>
       <c r="K30" s="82"/>
     </row>
-    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="69" t="s">
         <v>161</v>
       </c>
@@ -8277,7 +8286,7 @@
       <c r="J31" s="82"/>
       <c r="K31" s="82"/>
     </row>
-    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
         <v>193</v>
       </c>
@@ -8296,7 +8305,7 @@
       <c r="J32" s="82"/>
       <c r="K32" s="82"/>
     </row>
-    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
         <v>194</v>
       </c>
@@ -8315,7 +8324,7 @@
       <c r="J33" s="82"/>
       <c r="K33" s="82"/>
     </row>
-    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="69" t="s">
         <v>195</v>
       </c>
@@ -8334,7 +8343,7 @@
       <c r="J34" s="82"/>
       <c r="K34" s="82"/>
     </row>
-    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="69" t="s">
         <v>196</v>
       </c>
@@ -8353,7 +8362,7 @@
       <c r="J35" s="82"/>
       <c r="K35" s="82"/>
     </row>
-    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
         <v>197</v>
       </c>
@@ -8372,7 +8381,7 @@
       <c r="J36" s="82"/>
       <c r="K36" s="82"/>
     </row>
-    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
         <v>198</v>
       </c>
@@ -8391,7 +8400,7 @@
       <c r="J37" s="82"/>
       <c r="K37" s="82"/>
     </row>
-    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="69" t="s">
         <v>199</v>
       </c>
@@ -8408,7 +8417,7 @@
       <c r="J38" s="82"/>
       <c r="K38" s="82"/>
     </row>
-    <row r="39" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="69" t="s">
         <v>200</v>
       </c>
@@ -8430,7 +8439,7 @@
       <c r="K39" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E5AJ4+ic+Mc6pOwasiPPKnpMe1PQgtH7B5q+jXNMBumiU4a3uYKBY3aj60l5KotnBafsu4aUFMdMuSHH67IqjQ==" saltValue="VeW5TSbOiCyD+cW8FgH9Lw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aCxXe5vwZOf0qXV1QGsIcBTMw9eephIdMh0qC0mrjM/pv/5mPW7txC23aFHpj4mM7E4EI2jZXTDAGRUhNgMMGA==" saltValue="tfnGRLgUku5FK2z4m2lA6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8497,7 +8506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>109</v>
       </c>
@@ -8526,7 +8535,7 @@
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>96</v>
       </c>
@@ -8555,7 +8564,7 @@
       <c r="J3" s="82"/>
       <c r="K3" s="82"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="96" t="s">
         <v>97</v>
       </c>
@@ -8584,7 +8593,7 @@
       <c r="J4" s="82"/>
       <c r="K4" s="82"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
         <v>98</v>
       </c>
@@ -8613,7 +8622,7 @@
       <c r="J5" s="82"/>
       <c r="K5" s="82"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
         <v>99</v>
       </c>
@@ -8642,7 +8651,7 @@
       <c r="J6" s="82"/>
       <c r="K6" s="82"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
         <v>122</v>
       </c>
@@ -8663,7 +8672,7 @@
       <c r="J7" s="82"/>
       <c r="K7" s="82"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>123</v>
       </c>
@@ -8684,7 +8693,7 @@
       <c r="J8" s="82"/>
       <c r="K8" s="82"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>124</v>
       </c>
@@ -8705,7 +8714,7 @@
       <c r="J9" s="82"/>
       <c r="K9" s="82"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="96" t="s">
         <v>125</v>
       </c>
@@ -8726,7 +8735,7 @@
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="96" t="s">
         <v>70</v>
       </c>
@@ -8747,7 +8756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
         <v>71</v>
       </c>
@@ -8766,7 +8775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
         <v>72</v>
       </c>
@@ -8785,7 +8794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="96" t="s">
         <v>73</v>
       </c>
@@ -8805,7 +8814,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y4zyQBYfuusMzk3xCuIBKA7S+ua9eXooxiuTcmsqRTtZ1YAFBCtzEh9wwodGgk5D9kCarW0M1B6RY/iOGTYjFQ==" saltValue="T0Qc6EKlR01WhM1CoiKT3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5SNpA1/HPzCbzlrUBzj8whfKZ4t3vdXeuP0XoS0SDZNp17FFywDOg8Z3QrtO/JYepe2FsA0lrJj3zdueIm2Tog==" saltValue="+/OKp618tncFKoeAhRnYjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9795,7 +9804,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cywgpVLfUgcqorNYzARrkMGX0uWLeKqyqf4XDB7IGthBtESQd440Hj4B8P1BMuSS9zUjnbHLRoDaT1G/v9tO7A==" saltValue="hKRxrjXSmV4HxmnMtEesIw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="59tgFZL193x7msuBksR8VoBDDceM0ljMEU97eRfuYyaaiUCxssW+dtJwfXgClynl6jaJEQjPfJ6uYWkIrUbtHQ==" saltValue="X9Cx/KZG2BxTpXQ8IlmqUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -9856,7 +9865,7 @@
       <c r="A2" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="96" t="s">
@@ -9878,8 +9887,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="107"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="108"/>
       <c r="C3" s="96" t="s">
         <v>154</v>
       </c>
@@ -9900,8 +9909,8 @@
       </c>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="107"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="108"/>
       <c r="C4" s="96" t="s">
         <v>155</v>
       </c>
@@ -9922,8 +9931,8 @@
       </c>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="106" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="96" t="s">
@@ -9946,8 +9955,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="107"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="108"/>
       <c r="C6" s="96" t="s">
         <v>154</v>
       </c>
@@ -9967,8 +9976,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="107"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="108"/>
       <c r="C7" s="96" t="s">
         <v>155</v>
       </c>
@@ -9988,8 +9997,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="106" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="96" t="s">
@@ -10011,8 +10020,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="107"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="108"/>
       <c r="C9" s="96" t="s">
         <v>154</v>
       </c>
@@ -10032,8 +10041,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="107"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="108"/>
       <c r="C10" s="96" t="s">
         <v>155</v>
       </c>
@@ -10053,8 +10062,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="106" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -10076,8 +10085,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="107"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="108"/>
       <c r="C12" s="96" t="s">
         <v>154</v>
       </c>
@@ -10097,8 +10106,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="107"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="108"/>
       <c r="C13" s="96" t="s">
         <v>155</v>
       </c>
@@ -10118,8 +10127,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="106" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="96" t="s">
@@ -10141,8 +10150,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="107"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="108"/>
       <c r="C15" s="96" t="s">
         <v>154</v>
       </c>
@@ -10162,8 +10171,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="107"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="108"/>
       <c r="C16" s="96" t="s">
         <v>155</v>
       </c>
@@ -10206,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
@@ -10217,7 +10226,7 @@
       <c r="A19" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="96" t="s">
@@ -10239,8 +10248,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="107"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="108"/>
       <c r="C20" s="96" t="s">
         <v>154</v>
       </c>
@@ -10260,8 +10269,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="107"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="108"/>
       <c r="C21" s="96" t="s">
         <v>155</v>
       </c>
@@ -10281,8 +10290,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="106" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="96" t="s">
@@ -10304,8 +10313,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="107"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="108"/>
       <c r="C23" s="96" t="s">
         <v>154</v>
       </c>
@@ -10325,8 +10334,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="107"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="108"/>
       <c r="C24" s="96" t="s">
         <v>155</v>
       </c>
@@ -10346,8 +10355,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="106" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="96" t="s">
@@ -10369,8 +10378,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="107"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="108"/>
       <c r="C26" s="96" t="s">
         <v>154</v>
       </c>
@@ -10390,8 +10399,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="107"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="108"/>
       <c r="C27" s="96" t="s">
         <v>155</v>
       </c>
@@ -10411,8 +10420,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="106" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -10434,8 +10443,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="107"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="108"/>
       <c r="C29" s="96" t="s">
         <v>154</v>
       </c>
@@ -10455,8 +10464,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="107"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="108"/>
       <c r="C30" s="96" t="s">
         <v>155</v>
       </c>
@@ -10476,8 +10485,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="106" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="96" t="s">
@@ -10499,8 +10508,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="107"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="108"/>
       <c r="C32" s="96" t="s">
         <v>154</v>
       </c>
@@ -10520,8 +10529,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="107"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="108"/>
       <c r="C33" s="96" t="s">
         <v>155</v>
       </c>
@@ -10564,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
@@ -10575,7 +10584,7 @@
       <c r="A36" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="96" t="s">
@@ -10597,8 +10606,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="107"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="108"/>
       <c r="C37" s="96" t="s">
         <v>154</v>
       </c>
@@ -10618,8 +10627,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="107"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="108"/>
       <c r="C38" s="96" t="s">
         <v>155</v>
       </c>
@@ -10639,8 +10648,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="106" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="96" t="s">
@@ -10662,8 +10671,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B40" s="107"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="108"/>
       <c r="C40" s="96" t="s">
         <v>154</v>
       </c>
@@ -10683,8 +10692,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B41" s="107"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="108"/>
       <c r="C41" s="96" t="s">
         <v>155</v>
       </c>
@@ -10704,8 +10713,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B42" s="106" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="96" t="s">
@@ -10727,8 +10736,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B43" s="107"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="108"/>
       <c r="C43" s="96" t="s">
         <v>154</v>
       </c>
@@ -10748,8 +10757,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B44" s="107"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="108"/>
       <c r="C44" s="96" t="s">
         <v>155</v>
       </c>
@@ -10769,8 +10778,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B45" s="106" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="96" t="s">
@@ -10792,8 +10801,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="107"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="108"/>
       <c r="C46" s="96" t="s">
         <v>154</v>
       </c>
@@ -10813,8 +10822,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="107"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="108"/>
       <c r="C47" s="96" t="s">
         <v>155</v>
       </c>
@@ -10834,8 +10843,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="106" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="96" t="s">
@@ -10857,8 +10866,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="107"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="108"/>
       <c r="C49" s="96" t="s">
         <v>154</v>
       </c>
@@ -10878,8 +10887,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="107"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="108"/>
       <c r="C50" s="96" t="s">
         <v>155</v>
       </c>
@@ -10964,7 +10973,7 @@
       <c r="A55" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="96" t="s">
@@ -10991,8 +11000,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B56" s="107"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="108"/>
       <c r="C56" s="96" t="s">
         <v>154</v>
       </c>
@@ -11017,8 +11026,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B57" s="107"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="108"/>
       <c r="C57" s="96" t="s">
         <v>155</v>
       </c>
@@ -11043,8 +11052,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="106" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="96" t="s">
@@ -11071,8 +11080,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B59" s="107"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="108"/>
       <c r="C59" s="96" t="s">
         <v>154</v>
       </c>
@@ -11097,8 +11106,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="107"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="108"/>
       <c r="C60" s="96" t="s">
         <v>155</v>
       </c>
@@ -11123,8 +11132,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="106" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="96" t="s">
@@ -11151,8 +11160,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B62" s="107"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="108"/>
       <c r="C62" s="96" t="s">
         <v>154</v>
       </c>
@@ -11177,8 +11186,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B63" s="107"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="108"/>
       <c r="C63" s="96" t="s">
         <v>155</v>
       </c>
@@ -11203,8 +11212,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B64" s="106" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="96" t="s">
@@ -11231,8 +11240,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B65" s="107"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="108"/>
       <c r="C65" s="96" t="s">
         <v>154</v>
       </c>
@@ -11257,8 +11266,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B66" s="107"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="108"/>
       <c r="C66" s="96" t="s">
         <v>155</v>
       </c>
@@ -11283,8 +11292,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="106" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="96" t="s">
@@ -11311,8 +11320,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B68" s="107"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="108"/>
       <c r="C68" s="96" t="s">
         <v>154</v>
       </c>
@@ -11337,8 +11346,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="107"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="108"/>
       <c r="C69" s="96" t="s">
         <v>155</v>
       </c>
@@ -11391,7 +11400,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D71" s="81"/>
       <c r="E71" s="81"/>
       <c r="F71" s="81"/>
@@ -11402,7 +11411,7 @@
       <c r="A72" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="106" t="s">
+      <c r="B72" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="96" t="s">
@@ -11430,7 +11439,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="107"/>
+      <c r="B73" s="108"/>
       <c r="C73" s="96" t="s">
         <v>154</v>
       </c>
@@ -11456,7 +11465,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="107"/>
+      <c r="B74" s="108"/>
       <c r="C74" s="96" t="s">
         <v>155</v>
       </c>
@@ -11482,7 +11491,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="106" t="s">
+      <c r="B75" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="96" t="s">
@@ -11510,7 +11519,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="107"/>
+      <c r="B76" s="108"/>
       <c r="C76" s="96" t="s">
         <v>154</v>
       </c>
@@ -11536,7 +11545,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="107"/>
+      <c r="B77" s="108"/>
       <c r="C77" s="96" t="s">
         <v>155</v>
       </c>
@@ -11562,7 +11571,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="106" t="s">
+      <c r="B78" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="96" t="s">
@@ -11590,7 +11599,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="107"/>
+      <c r="B79" s="108"/>
       <c r="C79" s="96" t="s">
         <v>154</v>
       </c>
@@ -11616,7 +11625,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="107"/>
+      <c r="B80" s="108"/>
       <c r="C80" s="96" t="s">
         <v>155</v>
       </c>
@@ -11642,7 +11651,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="106" t="s">
+      <c r="B81" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="96" t="s">
@@ -11670,7 +11679,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="107"/>
+      <c r="B82" s="108"/>
       <c r="C82" s="96" t="s">
         <v>154</v>
       </c>
@@ -11696,7 +11705,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="107"/>
+      <c r="B83" s="108"/>
       <c r="C83" s="96" t="s">
         <v>155</v>
       </c>
@@ -11722,7 +11731,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="106" t="s">
+      <c r="B84" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="96" t="s">
@@ -11750,7 +11759,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="107"/>
+      <c r="B85" s="108"/>
       <c r="C85" s="96" t="s">
         <v>154</v>
       </c>
@@ -11776,7 +11785,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="107"/>
+      <c r="B86" s="108"/>
       <c r="C86" s="96" t="s">
         <v>155</v>
       </c>
@@ -11840,7 +11849,7 @@
       <c r="A89" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="106" t="s">
+      <c r="B89" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="96" t="s">
@@ -11868,7 +11877,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="107"/>
+      <c r="B90" s="108"/>
       <c r="C90" s="96" t="s">
         <v>154</v>
       </c>
@@ -11894,7 +11903,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="107"/>
+      <c r="B91" s="108"/>
       <c r="C91" s="96" t="s">
         <v>155</v>
       </c>
@@ -11920,7 +11929,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="106" t="s">
+      <c r="B92" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="96" t="s">
@@ -11948,7 +11957,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="107"/>
+      <c r="B93" s="108"/>
       <c r="C93" s="96" t="s">
         <v>154</v>
       </c>
@@ -11974,7 +11983,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="107"/>
+      <c r="B94" s="108"/>
       <c r="C94" s="96" t="s">
         <v>155</v>
       </c>
@@ -12000,7 +12009,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="106" t="s">
+      <c r="B95" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="96" t="s">
@@ -12028,7 +12037,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="107"/>
+      <c r="B96" s="108"/>
       <c r="C96" s="96" t="s">
         <v>154</v>
       </c>
@@ -12054,7 +12063,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="107"/>
+      <c r="B97" s="108"/>
       <c r="C97" s="96" t="s">
         <v>155</v>
       </c>
@@ -12080,7 +12089,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="106" t="s">
+      <c r="B98" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="96" t="s">
@@ -12108,7 +12117,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="107"/>
+      <c r="B99" s="108"/>
       <c r="C99" s="96" t="s">
         <v>154</v>
       </c>
@@ -12134,7 +12143,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="107"/>
+      <c r="B100" s="108"/>
       <c r="C100" s="96" t="s">
         <v>155</v>
       </c>
@@ -12160,7 +12169,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="106" t="s">
+      <c r="B101" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="96" t="s">
@@ -12188,7 +12197,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="107"/>
+      <c r="B102" s="108"/>
       <c r="C102" s="96" t="s">
         <v>154</v>
       </c>
@@ -12214,7 +12223,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="107"/>
+      <c r="B103" s="108"/>
       <c r="C103" s="96" t="s">
         <v>155</v>
       </c>
@@ -12309,7 +12318,7 @@
       <c r="A108" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="106" t="s">
+      <c r="B108" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="96" t="s">
@@ -12337,7 +12346,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="107"/>
+      <c r="B109" s="108"/>
       <c r="C109" s="96" t="s">
         <v>154</v>
       </c>
@@ -12363,7 +12372,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="107"/>
+      <c r="B110" s="108"/>
       <c r="C110" s="96" t="s">
         <v>155</v>
       </c>
@@ -12389,7 +12398,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="106" t="s">
+      <c r="B111" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="96" t="s">
@@ -12417,7 +12426,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="107"/>
+      <c r="B112" s="108"/>
       <c r="C112" s="96" t="s">
         <v>154</v>
       </c>
@@ -12443,7 +12452,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="107"/>
+      <c r="B113" s="108"/>
       <c r="C113" s="96" t="s">
         <v>155</v>
       </c>
@@ -12469,7 +12478,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="106" t="s">
+      <c r="B114" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="96" t="s">
@@ -12497,7 +12506,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="107"/>
+      <c r="B115" s="108"/>
       <c r="C115" s="96" t="s">
         <v>154</v>
       </c>
@@ -12523,7 +12532,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="107"/>
+      <c r="B116" s="108"/>
       <c r="C116" s="96" t="s">
         <v>155</v>
       </c>
@@ -12549,7 +12558,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="106" t="s">
+      <c r="B117" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="96" t="s">
@@ -12577,7 +12586,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="107"/>
+      <c r="B118" s="108"/>
       <c r="C118" s="96" t="s">
         <v>154</v>
       </c>
@@ -12603,7 +12612,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="107"/>
+      <c r="B119" s="108"/>
       <c r="C119" s="96" t="s">
         <v>155</v>
       </c>
@@ -12629,7 +12638,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="106" t="s">
+      <c r="B120" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="96" t="s">
@@ -12657,7 +12666,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="107"/>
+      <c r="B121" s="108"/>
       <c r="C121" s="96" t="s">
         <v>154</v>
       </c>
@@ -12683,7 +12692,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="107"/>
+      <c r="B122" s="108"/>
       <c r="C122" s="96" t="s">
         <v>155</v>
       </c>
@@ -12747,7 +12756,7 @@
       <c r="A125" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="106" t="s">
+      <c r="B125" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="96" t="s">
@@ -12775,7 +12784,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="107"/>
+      <c r="B126" s="108"/>
       <c r="C126" s="96" t="s">
         <v>154</v>
       </c>
@@ -12801,7 +12810,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="107"/>
+      <c r="B127" s="108"/>
       <c r="C127" s="96" t="s">
         <v>155</v>
       </c>
@@ -12827,7 +12836,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="106" t="s">
+      <c r="B128" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="96" t="s">
@@ -12855,7 +12864,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="107"/>
+      <c r="B129" s="108"/>
       <c r="C129" s="96" t="s">
         <v>154</v>
       </c>
@@ -12881,7 +12890,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="107"/>
+      <c r="B130" s="108"/>
       <c r="C130" s="96" t="s">
         <v>155</v>
       </c>
@@ -12907,7 +12916,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="106" t="s">
+      <c r="B131" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="96" t="s">
@@ -12935,7 +12944,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="107"/>
+      <c r="B132" s="108"/>
       <c r="C132" s="96" t="s">
         <v>154</v>
       </c>
@@ -12961,7 +12970,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="107"/>
+      <c r="B133" s="108"/>
       <c r="C133" s="96" t="s">
         <v>155</v>
       </c>
@@ -12987,7 +12996,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="106" t="s">
+      <c r="B134" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="96" t="s">
@@ -13015,7 +13024,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="107"/>
+      <c r="B135" s="108"/>
       <c r="C135" s="96" t="s">
         <v>154</v>
       </c>
@@ -13041,7 +13050,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="107"/>
+      <c r="B136" s="108"/>
       <c r="C136" s="96" t="s">
         <v>155</v>
       </c>
@@ -13067,7 +13076,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="106" t="s">
+      <c r="B137" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="96" t="s">
@@ -13095,7 +13104,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="107"/>
+      <c r="B138" s="108"/>
       <c r="C138" s="96" t="s">
         <v>154</v>
       </c>
@@ -13121,7 +13130,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="107"/>
+      <c r="B139" s="108"/>
       <c r="C139" s="96" t="s">
         <v>155</v>
       </c>
@@ -13185,7 +13194,7 @@
       <c r="A142" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="106" t="s">
+      <c r="B142" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="96" t="s">
@@ -13213,7 +13222,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="107"/>
+      <c r="B143" s="108"/>
       <c r="C143" s="96" t="s">
         <v>154</v>
       </c>
@@ -13239,7 +13248,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="107"/>
+      <c r="B144" s="108"/>
       <c r="C144" s="96" t="s">
         <v>155</v>
       </c>
@@ -13265,7 +13274,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="106" t="s">
+      <c r="B145" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="96" t="s">
@@ -13293,7 +13302,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="107"/>
+      <c r="B146" s="108"/>
       <c r="C146" s="96" t="s">
         <v>154</v>
       </c>
@@ -13319,7 +13328,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="107"/>
+      <c r="B147" s="108"/>
       <c r="C147" s="96" t="s">
         <v>155</v>
       </c>
@@ -13345,7 +13354,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="106" t="s">
+      <c r="B148" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="96" t="s">
@@ -13373,7 +13382,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="107"/>
+      <c r="B149" s="108"/>
       <c r="C149" s="96" t="s">
         <v>154</v>
       </c>
@@ -13399,7 +13408,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="107"/>
+      <c r="B150" s="108"/>
       <c r="C150" s="96" t="s">
         <v>155</v>
       </c>
@@ -13425,7 +13434,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="106" t="s">
+      <c r="B151" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="96" t="s">
@@ -13453,7 +13462,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="107"/>
+      <c r="B152" s="108"/>
       <c r="C152" s="96" t="s">
         <v>154</v>
       </c>
@@ -13479,7 +13488,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="107"/>
+      <c r="B153" s="108"/>
       <c r="C153" s="96" t="s">
         <v>155</v>
       </c>
@@ -13505,7 +13514,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="106" t="s">
+      <c r="B154" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="96" t="s">
@@ -13533,7 +13542,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="107"/>
+      <c r="B155" s="108"/>
       <c r="C155" s="96" t="s">
         <v>154</v>
       </c>
@@ -13559,7 +13568,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="107"/>
+      <c r="B156" s="108"/>
       <c r="C156" s="96" t="s">
         <v>155</v>
       </c>
@@ -13613,8 +13622,44 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1E74N2mLrkaxzGPm3U5JnA1MstNuTIb3HiT8l7zSWKd4x3+3bigpVsjAlt/bW/+eR8oaRtxfjbCBti61ptohoA==" saltValue="CecqxznHFh1jvEivzLZGvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RTr4YZRu8YgEhwPv+AHrSbFfDBSY4RyMZjpGsfANknFZnbqk8IoT2YkbMvh96sgywM/9htRw6ycs96Ng0+qUwg==" saltValue="wGHiKLNQ4tNRiisLHkSyaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -13624,42 +13669,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14880,7 +14889,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wBqWqNVLf6fThieJFIpKhEaBMMg00uWBYR001c7Aj1CCEPHrxwaQFrknwLInCWA9pivPbVVkZG3u2OvN7m/UWA==" saltValue="WmHblSPQ4wYwzvFo36eZ9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="73L0fVO8LMo+kDtmJhCju+UvrRENvcMghbtG2DIDoYoUueGHh3fnDbQJi93zW/L+JF+NeqcCLX2VRrj6zAPLZQ==" saltValue="D65V9WpNDEG+yFkenC+9xg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -21052,7 +21061,7 @@
       <c r="H248" s="64"/>
       <c r="I248" s="64"/>
     </row>
-    <row r="249" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A249" s="72" t="s">
         <v>279</v>
       </c>
@@ -23019,7 +23028,7 @@
       <c r="I328" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NdHvzRFNumjXQd7J6esWVmzGgjWLTLsZmvJwShYaA31riq9wDUJzt1Wn2CVH3edLTFbef3ILrt6bcSh4YsgtNQ==" saltValue="xL+3zH8aK2570+sWrgTGyA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dGG8XXi7a+jL4CoFf/FukHStbtAQ5tz+hS1o5HZEed6GAwWJuE/GjC3rEDInTRD3DQe3jqnF+oAnKPtKDhSv5w==" saltValue="SK0Xtc8MCMxxAk6I1mdbVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -24109,7 +24118,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KCtM1I/IApQ4tUIC2REHyarifoxeoaq50eakqeu16Ebkf3gLCf9mTboYsLX3T0OnhuJ2FXmZ3PrWkAzS2uOz9w==" saltValue="+jrVtQtSJngm1RTHr6v7lw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="94d3F9twXAARU74Ouuuh8fEcC6eZgpkUZp687NJ38x2YVhL2dE2zBZdCmodoJstZgJwIBrOe9DMBftEtpjmIQQ==" saltValue="c/a7gIaGENrGAw+CEemeYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -24981,7 +24990,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4nIb5ilgK2YX9To+A4XGMXnm56LR9bwtd/bWkzKkp1fw5AAeE70NGh0AVFadrjwxZmgXR8TVOJWcT4ErDLURIA==" saltValue="ftjvIj46nU1rrdh1RKzh5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q8XKjg5CQxyChNG9SjU60kVeTRx2UYBbhiLJlXZtfHq+DNvg+6dM4y6161arbLjO1ms61KPKYxq/P1dNI5kYPA==" saltValue="9IdfLMP8UyssZTYZWsiJyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -27866,7 +27875,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vUv1ZHGVOdUAhFvas1zyzRXBTqDVfTt/UxzqNcMFtGrf5vjrwR+Be1+Yup9NwsG1DxuzPAYVVchhDlxIjH4N5Q==" saltValue="LbFcqCh8xWiOveS5rUNanA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0ZkIG0xXH27VS56XXDI7tKEqXHOUT4KGKqx85Syc8w7Kgfsi7Xl2kpCXOqylV2yUF9V9Q/WY4UMm/95NitvrDQ==" saltValue="rejMo134z258eD+42WlarA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -27916,7 +27925,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="65" t="s">
         <v>161</v>
       </c>
@@ -27947,7 +27956,7 @@
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="69" t="s">
         <v>165</v>
       </c>
@@ -27996,7 +28005,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="65" t="s">
         <v>161</v>
       </c>
@@ -28032,7 +28041,7 @@
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
     </row>
-    <row r="12" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
         <v>165</v>
       </c>
@@ -28086,7 +28095,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="65" t="s">
         <v>161</v>
       </c>
@@ -28122,7 +28131,7 @@
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
         <v>165</v>
       </c>
@@ -28148,7 +28157,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b/dMJqg/oFWrZE2sWbZM3eP0UtSiP9UKY41D0m7OlktYxINy2pA1mm44jPrg7nbbwSpPzBlWlrh2gWCPdy/yeA==" saltValue="Q4JCMuoZGxDCz1oXAGhAVw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="79hDzam5WrL+oEjr5RoCdypb/zTML8BczRMNPRyYMX0yM2Ea7KKOGGuZHRW9CtkihZvBEMo5zmsY9K/kEpcgRA==" saltValue="03OiLDi5JhJXmtLK47QmoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -28205,7 +28214,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>193</v>
       </c>
@@ -28231,7 +28240,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="69" t="s">
         <v>333</v>
       </c>
@@ -28251,7 +28260,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="69" t="s">
         <v>334</v>
       </c>
@@ -28271,7 +28280,7 @@
         <v>0.38507462686567179</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>192</v>
       </c>
@@ -28297,7 +28306,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="69" t="s">
         <v>334</v>
       </c>
@@ -28317,7 +28326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
         <v>209</v>
       </c>
@@ -28340,7 +28349,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="69" t="s">
         <v>334</v>
       </c>
@@ -28360,7 +28369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>185</v>
       </c>
@@ -28386,7 +28395,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="69" t="s">
         <v>334</v>
       </c>
@@ -28406,7 +28415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
         <v>209</v>
       </c>
@@ -28429,7 +28438,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="69" t="s">
         <v>334</v>
       </c>
@@ -28449,7 +28458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
         <v>205</v>
       </c>
@@ -28475,7 +28484,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="69" t="s">
         <v>334</v>
       </c>
@@ -28495,7 +28504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="69" t="s">
         <v>209</v>
       </c>
@@ -28518,7 +28527,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="69" t="s">
         <v>334</v>
       </c>
@@ -28538,7 +28547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
         <v>170</v>
       </c>
@@ -28564,7 +28573,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="69" t="s">
         <v>334</v>
       </c>
@@ -28584,7 +28593,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
         <v>209</v>
       </c>
@@ -28607,7 +28616,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="69" t="s">
         <v>334</v>
       </c>
@@ -28627,7 +28636,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>175</v>
       </c>
@@ -28653,7 +28662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="69" t="s">
         <v>333</v>
       </c>
@@ -28673,7 +28682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>173</v>
       </c>
@@ -28699,7 +28708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="69" t="s">
         <v>333</v>
       </c>
@@ -28719,7 +28728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>174</v>
       </c>
@@ -28745,7 +28754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="69" t="s">
         <v>333</v>
       </c>
@@ -28765,7 +28774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>197</v>
       </c>
@@ -28791,7 +28800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="69" t="s">
         <v>333</v>
       </c>
@@ -28811,7 +28820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="69" t="s">
         <v>334</v>
       </c>
@@ -28831,7 +28840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="69" t="s">
         <v>198</v>
       </c>
@@ -28857,7 +28866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="69" t="s">
         <v>333</v>
       </c>
@@ -28877,7 +28886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="69" t="s">
         <v>334</v>
       </c>
@@ -28897,7 +28906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
         <v>196</v>
       </c>
@@ -28923,7 +28932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="69" t="s">
         <v>333</v>
       </c>
@@ -28943,7 +28952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="69" t="s">
         <v>334</v>
       </c>
@@ -28963,7 +28972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
         <v>195</v>
       </c>
@@ -28989,7 +28998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="69" t="s">
         <v>333</v>
       </c>
@@ -29009,7 +29018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="69" t="s">
         <v>334</v>
       </c>
@@ -29029,7 +29038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="69" t="s">
         <v>194</v>
       </c>
@@ -29055,7 +29064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="69" t="s">
         <v>333</v>
       </c>
@@ -29075,7 +29084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="69" t="s">
         <v>334</v>
       </c>
@@ -29095,7 +29104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="69" t="s">
         <v>200</v>
       </c>
@@ -29121,7 +29130,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="69" t="s">
         <v>333</v>
       </c>
@@ -29141,7 +29150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="69" t="s">
         <v>334</v>
       </c>
@@ -29161,7 +29170,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="69" t="s">
         <v>88</v>
       </c>
@@ -29184,7 +29193,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="69" t="s">
         <v>333</v>
       </c>
@@ -29204,7 +29213,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="69" t="s">
         <v>334</v>
       </c>
@@ -29224,7 +29233,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="69" t="s">
         <v>191</v>
       </c>
@@ -29250,7 +29259,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="69" t="s">
         <v>333</v>
       </c>
@@ -29270,7 +29279,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="69" t="s">
         <v>199</v>
       </c>
@@ -29296,7 +29305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="69" t="s">
         <v>333</v>
       </c>
@@ -29316,7 +29325,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="69" t="s">
         <v>184</v>
       </c>
@@ -29342,7 +29351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="69" t="s">
         <v>333</v>
       </c>
@@ -29395,7 +29404,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="69" t="s">
         <v>193</v>
       </c>
@@ -29426,7 +29435,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="69" t="s">
         <v>333</v>
       </c>
@@ -29451,7 +29460,7 @@
         <v>0.47820895522388057</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="69" t="s">
         <v>334</v>
       </c>
@@ -29476,7 +29485,7 @@
         <v>0.3465671641791046</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="69" t="s">
         <v>192</v>
       </c>
@@ -29507,7 +29516,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="69" t="s">
         <v>334</v>
       </c>
@@ -29532,7 +29541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="69" t="s">
         <v>209</v>
       </c>
@@ -29560,7 +29569,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="69" t="s">
         <v>334</v>
       </c>
@@ -29585,7 +29594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="69" t="s">
         <v>185</v>
       </c>
@@ -29616,7 +29625,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="69" t="s">
         <v>334</v>
       </c>
@@ -29641,7 +29650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="69" t="s">
         <v>209</v>
       </c>
@@ -29669,7 +29678,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="69" t="s">
         <v>334</v>
       </c>
@@ -29694,7 +29703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="69" t="s">
         <v>205</v>
       </c>
@@ -29725,7 +29734,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="69" t="s">
         <v>334</v>
       </c>
@@ -29750,7 +29759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="69" t="s">
         <v>209</v>
       </c>
@@ -29778,7 +29787,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="69" t="s">
         <v>334</v>
       </c>
@@ -29803,7 +29812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="69" t="s">
         <v>170</v>
       </c>
@@ -29834,7 +29843,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="69" t="s">
         <v>334</v>
       </c>
@@ -29859,7 +29868,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="69" t="s">
         <v>209</v>
       </c>
@@ -29887,7 +29896,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="69" t="s">
         <v>334</v>
       </c>
@@ -29912,7 +29921,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="69" t="s">
         <v>175</v>
       </c>
@@ -29943,7 +29952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="69" t="s">
         <v>333</v>
       </c>
@@ -29968,7 +29977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="69" t="s">
         <v>173</v>
       </c>
@@ -29999,7 +30008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="69" t="s">
         <v>333</v>
       </c>
@@ -30024,7 +30033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="69" t="s">
         <v>174</v>
       </c>
@@ -30055,7 +30064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C81" s="69" t="s">
         <v>333</v>
       </c>
@@ -30080,7 +30089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="69" t="s">
         <v>197</v>
       </c>
@@ -30111,7 +30120,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C83" s="69" t="s">
         <v>333</v>
       </c>
@@ -30136,7 +30145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="69" t="s">
         <v>334</v>
       </c>
@@ -30161,7 +30170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="69" t="s">
         <v>198</v>
       </c>
@@ -30192,7 +30201,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="69" t="s">
         <v>333</v>
       </c>
@@ -30217,7 +30226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="69" t="s">
         <v>334</v>
       </c>
@@ -30242,7 +30251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="69" t="s">
         <v>196</v>
       </c>
@@ -30273,7 +30282,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="69" t="s">
         <v>333</v>
       </c>
@@ -30298,7 +30307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C90" s="69" t="s">
         <v>334</v>
       </c>
@@ -30323,7 +30332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="69" t="s">
         <v>195</v>
       </c>
@@ -30354,7 +30363,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="69" t="s">
         <v>333</v>
       </c>
@@ -30379,7 +30388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C93" s="69" t="s">
         <v>334</v>
       </c>
@@ -30404,7 +30413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="69" t="s">
         <v>194</v>
       </c>
@@ -30435,7 +30444,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C95" s="69" t="s">
         <v>333</v>
       </c>
@@ -30460,7 +30469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="69" t="s">
         <v>334</v>
       </c>
@@ -30485,7 +30494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="69" t="s">
         <v>200</v>
       </c>
@@ -30516,7 +30525,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="69" t="s">
         <v>333</v>
       </c>
@@ -30541,7 +30550,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="69" t="s">
         <v>334</v>
       </c>
@@ -30566,7 +30575,7 @@
         <v>0.58500000000000008</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100" s="69" t="s">
         <v>88</v>
       </c>
@@ -30594,7 +30603,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="69" t="s">
         <v>333</v>
       </c>
@@ -30619,7 +30628,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="69" t="s">
         <v>334</v>
       </c>
@@ -30644,7 +30653,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="69" t="s">
         <v>191</v>
       </c>
@@ -30675,7 +30684,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="69" t="s">
         <v>333</v>
       </c>
@@ -30700,7 +30709,7 @@
         <v>0.83700000000000008</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="69" t="s">
         <v>199</v>
       </c>
@@ -30731,7 +30740,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="69" t="s">
         <v>333</v>
       </c>
@@ -30756,7 +30765,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="69" t="s">
         <v>184</v>
       </c>
@@ -30787,7 +30796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="69" t="s">
         <v>333</v>
       </c>
@@ -30845,7 +30854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="69" t="s">
         <v>193</v>
       </c>
@@ -30876,7 +30885,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C113" s="69" t="s">
         <v>333</v>
       </c>
@@ -30901,7 +30910,7 @@
         <v>0.55791044776119403</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C114" s="69" t="s">
         <v>334</v>
       </c>
@@ -30926,7 +30935,7 @@
         <v>0.40432835820895541</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="69" t="s">
         <v>192</v>
       </c>
@@ -30957,7 +30966,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="69" t="s">
         <v>334</v>
       </c>
@@ -30982,7 +30991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="69" t="s">
         <v>209</v>
       </c>
@@ -31010,7 +31019,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="69" t="s">
         <v>334</v>
       </c>
@@ -31035,7 +31044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="69" t="s">
         <v>185</v>
       </c>
@@ -31066,7 +31075,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C120" s="69" t="s">
         <v>334</v>
       </c>
@@ -31091,7 +31100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="69" t="s">
         <v>209</v>
       </c>
@@ -31119,7 +31128,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="69" t="s">
         <v>334</v>
       </c>
@@ -31144,7 +31153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="69" t="s">
         <v>205</v>
       </c>
@@ -31175,7 +31184,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="69" t="s">
         <v>334</v>
       </c>
@@ -31200,7 +31209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="69" t="s">
         <v>209</v>
       </c>
@@ -31228,7 +31237,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="69" t="s">
         <v>334</v>
       </c>
@@ -31253,7 +31262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="69" t="s">
         <v>170</v>
       </c>
@@ -31284,7 +31293,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="69" t="s">
         <v>334</v>
       </c>
@@ -31309,7 +31318,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="69" t="s">
         <v>209</v>
       </c>
@@ -31337,7 +31346,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C130" s="69" t="s">
         <v>334</v>
       </c>
@@ -31362,7 +31371,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="69" t="s">
         <v>175</v>
       </c>
@@ -31393,7 +31402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C132" s="69" t="s">
         <v>333</v>
       </c>
@@ -31418,7 +31427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="69" t="s">
         <v>173</v>
       </c>
@@ -31449,7 +31458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="69" t="s">
         <v>333</v>
       </c>
@@ -31474,7 +31483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="69" t="s">
         <v>174</v>
       </c>
@@ -31505,7 +31514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" s="69" t="s">
         <v>333</v>
       </c>
@@ -31530,7 +31539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="69" t="s">
         <v>197</v>
       </c>
@@ -31561,7 +31570,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C138" s="69" t="s">
         <v>333</v>
       </c>
@@ -31586,7 +31595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C139" s="69" t="s">
         <v>334</v>
       </c>
@@ -31611,7 +31620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="69" t="s">
         <v>198</v>
       </c>
@@ -32263,7 +32272,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Wzqq08/t9kc16MupN5jONBuNJFGI++vrvcPgssVhffDGy9QrGnLxbhmdcr7i87x2AkLDciBgBOG7ePnW+KynJQ==" saltValue="sqjqMCfYr5xtduMjHmhtaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Vc3h5nfsJK7iKj49GvDqPkcO6snZ2y/0hmiXrz/+9w3374wL+zU3/rVLwkzcpJ60HMtYAkmmBNM7lBXhlqJ/eA==" saltValue="pb1HI+/ZQEE9+vi6WEG+vw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -32312,7 +32321,7 @@
       </c>
       <c r="H1" s="52"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>169</v>
       </c>
@@ -32336,7 +32345,7 @@
       </c>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="96" t="s">
         <v>333</v>
       </c>
@@ -32354,7 +32363,7 @@
       </c>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>188</v>
       </c>
@@ -32378,7 +32387,7 @@
       </c>
       <c r="H4" s="78"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="96" t="s">
         <v>333</v>
       </c>
@@ -32396,7 +32405,7 @@
       </c>
       <c r="H5" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
         <v>187</v>
       </c>
@@ -32420,7 +32429,7 @@
       </c>
       <c r="H6" s="69"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="96" t="s">
         <v>333</v>
       </c>
@@ -32464,7 +32473,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
         <v>169</v>
       </c>
@@ -32491,7 +32500,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="96" t="s">
         <v>333</v>
       </c>
@@ -32512,7 +32521,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
         <v>188</v>
       </c>
@@ -32539,7 +32548,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="96" t="s">
         <v>333</v>
       </c>
@@ -32560,7 +32569,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="78" t="s">
         <v>187</v>
       </c>
@@ -32587,7 +32596,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="96" t="s">
         <v>333</v>
       </c>
@@ -32634,7 +32643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
         <v>169</v>
       </c>
@@ -32661,7 +32670,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="96" t="s">
         <v>333</v>
       </c>
@@ -32682,7 +32691,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>188</v>
       </c>
@@ -32709,7 +32718,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="96" t="s">
         <v>333</v>
       </c>
@@ -32730,7 +32739,7 @@
         <v>0.61949999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="78" t="s">
         <v>187</v>
       </c>
@@ -32757,7 +32766,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="96" t="s">
         <v>333</v>
       </c>
@@ -32779,7 +32788,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VJwY6wLu21gQCiPHUvseQig9p1EJh/+41DaLwFcJzgcjRrBokjMCuq0McI5rec09TtAQBkJU2mgFOKheuRWngw==" saltValue="E4QWPKLlYwnXmToG+dK1xA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C81VN1Mc5RLvIRGWFGIm1pzzxDAMBVfb7WYh+/stGexEzTwMsu/gsOFGKIboSEX4YpLXnfvLcARoIns1yxXt1A==" saltValue="elbTiNfSG9apWmhzoT5lzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32792,7 +32801,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" activeCellId="2" sqref="C35 C23:F23 C11"/>
+      <selection activeCell="C13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32903,16 +32912,16 @@
       <c r="B13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="106" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="11"/>
@@ -33110,9 +33119,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vLKrgujUJur/R2VKGH5SPssphakl7sYVgML9xsXVSfEjOgKPyX8ZYl9Ms7FELh47m7qYAgVJY85AAI42aazRBQ==" saltValue="qNDLEUXOsR2BQODc3+z9OA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="td87MFi//N0oYbQW4FJqL8KHKjtLjyXOQv2Fnj8k3s/V3M5Tjmv2Lswe/OUvHQaRFO7OxnToTfhNe1utLJth+w==" saltValue="PLNJ2vzx4pBzTE1EXYs3lA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33467,7 +33476,7 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+lLKajOHd3Z2ZZ4QE851L84jwillH2tSq3/zAnFPVNbBfSso0VAgQwcaOIy/wIeXO/NelJZRx+aBM4Tu+59QkQ==" saltValue="DO2rHMHMOrUIEU2uVqwSxw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w6cq8WBQPG4V3O3oEQK8MovICXrKeuZiAJ5DbXmpf48olf+bDVv24KPVPAdLJnawceWP08xvLTNg4Y+pvQKJSw==" saltValue="CiQcIJtsPjF4LibalgYv9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33573,7 +33582,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="720xgxQSfpBerQafNBaDjw7vbS9v3fu1dnZwbPkCJz+SMguBYz3DdVCuei+bg9h+nMo7XfJQPi5DOfjLf9nYmA==" saltValue="y3z62Q4expJt8qRogSKqNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U/eS5v7EXSmAn00lfyjl9tBmHxRjgMnb8NecugK1krTq5/YkdxYj/DYAILZvXsoYcLRWrFQles/NKKedqqZ2PQ==" saltValue="XQM2gTttGm0dcEf0MOxgGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -33632,7 +33641,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>134</v>
       </c>
@@ -33649,10 +33658,10 @@
       <c r="J2" s="104"/>
       <c r="K2" s="104"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="103"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>135</v>
       </c>
@@ -33669,10 +33678,10 @@
       <c r="J4" s="104"/>
       <c r="K4" s="104"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>136</v>
       </c>
@@ -33689,7 +33698,7 @@
       <c r="J6" s="104"/>
       <c r="K6" s="104"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="103" t="s">
         <v>100</v>
       </c>
@@ -33703,7 +33712,7 @@
       <c r="J7" s="104"/>
       <c r="K7" s="104"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="103" t="s">
         <v>137</v>
       </c>
@@ -33717,7 +33726,7 @@
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
         <v>138</v>
       </c>
@@ -33734,7 +33743,7 @@
       <c r="J10" s="104"/>
       <c r="K10" s="104"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="103" t="s">
         <v>140</v>
       </c>
@@ -33748,7 +33757,7 @@
       <c r="J11" s="104"/>
       <c r="K11" s="104"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
         <v>43</v>
       </c>
@@ -33765,7 +33774,7 @@
       <c r="J13" s="104"/>
       <c r="K13" s="104"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="103" t="s">
         <v>142</v>
       </c>
@@ -33780,7 +33789,7 @@
       <c r="K14" s="104"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F+fWtnmwpt3prV0dhm8TIIQA+YSiNzSiEbxgVS9S6M+EDq44tm3azdLd1wKx4apqMs7M/2AaQEntQNikEOg1bA==" saltValue="yOEjyPy5rRj26aeQ6ZCPuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eEaq4hwW/7e1l0vgbDNS3fajfYElkaGLTQrhaGPWzfbsDZQA6uUfkYbekVlUjlGgels2B0wd9wD+0wcAuUqrEw==" saltValue="tMrFjEneTaTJqXNQIQdQtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -33812,7 +33821,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>145</v>
       </c>
@@ -33820,7 +33829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>150</v>
       </c>
@@ -33828,7 +33837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>146</v>
       </c>
@@ -33836,7 +33845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>147</v>
       </c>
@@ -33844,7 +33853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>148</v>
       </c>
@@ -33852,7 +33861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>149</v>
       </c>
@@ -33861,7 +33870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Hr0Pb8xzXAhX3uYGJZ8B6aGPEkKtGpWoccBzgo6LElNN2hHzkPKiNyKKaGgI9em4r9kDJie+5KAt8ILvBG6aAQ==" saltValue="SeJ0mHJu9ka1+MLpx8D/Bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2LOBj/YpdhPHKw+5sgkLSzz2VLKrC3x/aNw1L8Ryv1vsmfbhBw9S3GiII73SlR0WhBuo5PwFCWEkyaHS0i9FUA==" saltValue="nzThz533uEgQeDoJWgS2qA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33917,7 +33926,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>109</v>
       </c>
@@ -33930,7 +33939,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>96</v>
       </c>
@@ -33943,7 +33952,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>97</v>
       </c>
@@ -33956,7 +33965,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>98</v>
       </c>
@@ -33969,7 +33978,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>156</v>
       </c>
@@ -33991,7 +34000,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>109</v>
       </c>
@@ -34004,7 +34013,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>96</v>
       </c>
@@ -34017,7 +34026,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>97</v>
       </c>
@@ -34030,7 +34039,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>98</v>
       </c>
@@ -34043,7 +34052,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>156</v>
       </c>
@@ -34065,7 +34074,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>109</v>
       </c>
@@ -34078,7 +34087,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>96</v>
       </c>
@@ -34091,7 +34100,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>97</v>
       </c>
@@ -34102,7 +34111,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>98</v>
       </c>
@@ -34113,7 +34122,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>156</v>
       </c>
@@ -34122,7 +34131,7 @@
       <c r="E21" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NQe0nSRZugPt6MdzLHJs69wVXxfGxfeZxhNvDeuunYsK1Prk8tss4BV9cr1xi8tadtyxiOujUUjNrWbEuM/W6w==" saltValue="drzXdxAznpv9e/db28kLJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="poui83KaCBAoKYyXFS/EBJrduA72lo3izQaITvLoutcBuutY6Xaf0EMEYDdZP5CtZYUtsOsa4m4nsQ56ifyN1A==" saltValue="RHpP1NO8c7Y3zlqmzK+AMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -34186,7 +34195,7 @@
       <c r="D3" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OFtXl5+1wt5cw+AqBUcD0lnUiQ93LvTw6V58CRnEeEsxcPRpSmlMyLcnqpXl/NYVrZx7dBQ46nDhe/wQKWj3Ng==" saltValue="mVY9/Vc9o55Ay6JRiLZTxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XHIUVwXG2IIwH1pYQNEOoouQVVv5UB2RghLIfz0GSfVSCAgUf0tXcaQIjxcFSK7CzBrJxKfLku1n2lMB2Itehg==" saltValue="VwWo/otmT96NRdsZ1OFKeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/Optima_template.xlsx
+++ b/inputs/fr/Optima_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7556B9F9-4A02-4EA5-A1A5-1B8B2589AAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAEBF6C-2CDF-4CCA-8696-CDD311A39EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15795" yWindow="-15840" windowWidth="21600" windowHeight="12525" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données pop de l'année de ref" sheetId="1" r:id="rId1"/>
@@ -2318,19 +2318,19 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="65" customWidth="1"/>
-    <col min="3" max="7" width="14.453125" style="96" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="96"/>
+    <col min="1" max="1" width="27.6640625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="65" customWidth="1"/>
+    <col min="3" max="7" width="14.44140625" style="96" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>13</v>
       </c>
@@ -2341,14 +2341,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70"/>
       <c r="B3" s="69" t="s">
         <v>15</v>
@@ -2357,7 +2357,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70"/>
       <c r="B4" s="69" t="s">
         <v>16</v>
@@ -2366,7 +2366,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2421,7 +2421,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="96"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="96" t="s">
         <v>25</v>
       </c>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>41</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>42</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C62" s="32"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="52"/>
     </row>
   </sheetData>
@@ -2728,20 +2728,20 @@
       <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="69" customWidth="1"/>
     <col min="2" max="2" width="20" style="96" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="96" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="96" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="96" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="96" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="96" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="96" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.453125" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="14.453125" style="96"/>
+    <col min="7" max="7" width="22.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.44140625" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="14.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>160</v>
       </c>
@@ -3502,20 +3502,20 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="96" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="96" customWidth="1"/>
-    <col min="4" max="8" width="11.453125" style="96" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="96"/>
+    <col min="2" max="2" width="47.88671875" style="96" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="96" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="96" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>160</v>
       </c>
@@ -3656,14 +3656,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="96" customWidth="1"/>
-    <col min="2" max="6" width="11.453125" style="96" customWidth="1"/>
-    <col min="7" max="16384" width="11.453125" style="96"/>
+    <col min="1" max="1" width="30.109375" style="96" customWidth="1"/>
+    <col min="2" max="6" width="11.44140625" style="96" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>160</v>
       </c>
@@ -3756,7 +3756,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
@@ -3871,19 +3871,19 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>211</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>86</v>
       </c>
@@ -4491,7 +4491,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>100</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="69" t="s">
         <v>169</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
       <c r="B17" s="69" t="s">
         <v>180</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="69" t="s">
         <v>181</v>
@@ -4872,7 +4872,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>76</v>
       </c>
@@ -5122,7 +5122,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>210</v>
       </c>
@@ -5627,7 +5627,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
@@ -5666,17 +5666,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="96" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="96" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="96" customWidth="1"/>
-    <col min="6" max="10" width="11.453125" style="96" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="96"/>
+    <col min="1" max="1" width="33.6640625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="96" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="96" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="96" customWidth="1"/>
+    <col min="6" max="10" width="11.44140625" style="96" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>216</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>217</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>218</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>220</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>221</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>222</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>223</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>224</v>
       </c>
@@ -5874,21 +5874,21 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="51" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="16.08984375" style="51" customWidth="1"/>
-    <col min="21" max="16384" width="16.08984375" style="51"/>
+    <col min="6" max="7" width="13.109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="16.109375" style="51" customWidth="1"/>
+    <col min="21" max="16384" width="16.109375" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>211</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>86</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="69" t="s">
         <v>171</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="69" t="s">
         <v>157</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="69" t="s">
         <v>158</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="69" t="s">
         <v>159</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="69" t="s">
         <v>184</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="69" t="s">
         <v>185</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>189</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="69" t="s">
         <v>191</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="69" t="s">
         <v>192</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="69" t="s">
         <v>205</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="69" t="s">
         <v>161</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="69" t="s">
         <v>193</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="69" t="s">
         <v>199</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="69" t="s">
         <v>200</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="69"/>
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
@@ -6614,7 +6614,7 @@
       <c r="N17" s="79"/>
       <c r="O17" s="79"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="52" t="s">
         <v>100</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="52"/>
       <c r="B19" s="69" t="s">
         <v>169</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="69" t="s">
         <v>180</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="69" t="s">
         <v>181</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="49" t="s">
         <v>182</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="69" t="s">
         <v>187</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="69" t="s">
         <v>188</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="69" t="s">
         <v>190</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="69"/>
       <c r="C26" s="79"/>
       <c r="D26" s="79"/>
@@ -6986,7 +6986,7 @@
       <c r="N26" s="79"/>
       <c r="O26" s="79"/>
     </row>
-    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
         <v>76</v>
       </c>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="P27" s="50"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="65" t="s">
         <v>176</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="52"/>
       <c r="B29" s="65" t="s">
         <v>177</v>
@@ -7123,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="65" t="s">
         <v>178</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="65" t="s">
         <v>179</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="69"/>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
@@ -7227,7 +7227,7 @@
       <c r="N32" s="79"/>
       <c r="O32" s="79"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="52" t="s">
         <v>210</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="69" t="s">
         <v>174</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="69" t="s">
         <v>175</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="69" t="s">
         <v>183</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="69" t="s">
         <v>186</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="69" t="s">
         <v>194</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="69" t="s">
         <v>195</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="69" t="s">
         <v>196</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="69" t="s">
         <v>197</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="69" t="s">
         <v>198</v>
       </c>
@@ -7687,23 +7687,23 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="96" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="96" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.81640625" style="96" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="96"/>
+    <col min="1" max="1" width="58.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="96" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="96" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="96" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.77734375" style="96" customWidth="1"/>
+    <col min="16" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>160</v>
       </c>
@@ -8455,23 +8455,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="96" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="96" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.81640625" style="96" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="96"/>
+    <col min="1" max="1" width="16.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="96" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="96" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="96" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.77734375" style="96" customWidth="1"/>
+    <col min="16" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>230</v>
       </c>
@@ -8830,15 +8830,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="96" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="96" customWidth="1"/>
-    <col min="10" max="14" width="14.453125" style="96" customWidth="1"/>
-    <col min="15" max="16384" width="14.453125" style="96"/>
+    <col min="1" max="1" width="8.44140625" style="96" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="96" customWidth="1"/>
+    <col min="10" max="14" width="14.44140625" style="96" customWidth="1"/>
+    <col min="15" max="16384" width="14.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>68</v>
       </c>
@@ -9826,16 +9826,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="96" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="96" customWidth="1"/>
     <col min="2" max="2" width="15" style="96" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="96" customWidth="1"/>
-    <col min="4" max="8" width="12.81640625" style="96" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="96"/>
+    <col min="3" max="3" width="14.6640625" style="96" customWidth="1"/>
+    <col min="4" max="8" width="12.77734375" style="96" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>231</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>232</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="95" t="s">
         <v>156</v>
       </c>
@@ -10222,7 +10222,7 @@
       <c r="G18" s="81"/>
       <c r="H18" s="81"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>233</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="95" t="s">
         <v>156</v>
       </c>
@@ -10580,7 +10580,7 @@
       <c r="G35" s="81"/>
       <c r="H35" s="81"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>234</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="95" t="s">
         <v>156</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="88" t="s">
         <v>235</v>
       </c>
@@ -10943,7 +10943,7 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
         <v>231</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
         <v>236</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="95" t="s">
         <v>156</v>
       </c>
@@ -11407,7 +11407,7 @@
       <c r="G71" s="81"/>
       <c r="H71" s="81"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
         <v>237</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="95" t="s">
         <v>156</v>
       </c>
@@ -11845,7 +11845,7 @@
       <c r="G88" s="81"/>
       <c r="H88" s="81"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="54" t="s">
         <v>238</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="95" t="s">
         <v>156</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="88" t="s">
         <v>239</v>
       </c>
@@ -12288,7 +12288,7 @@
       <c r="G106" s="88"/>
       <c r="H106" s="88"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="52" t="s">
         <v>231</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="52" t="s">
         <v>240</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="95" t="s">
         <v>156</v>
       </c>
@@ -12752,7 +12752,7 @@
       <c r="G124" s="81"/>
       <c r="H124" s="81"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="52" t="s">
         <v>241</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="95" t="s">
         <v>156</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="G141" s="81"/>
       <c r="H141" s="81"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="54" t="s">
         <v>242</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="95" t="s">
         <v>156</v>
       </c>
@@ -13624,12 +13624,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="RTr4YZRu8YgEhwPv+AHrSbFfDBSY4RyMZjpGsfANknFZnbqk8IoT2YkbMvh96sgywM/9htRw6ycs96Ng0+qUwg==" saltValue="wGHiKLNQ4tNRiisLHkSyaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -13639,36 +13663,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13686,23 +13686,23 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="96" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="96" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="96" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="96" customWidth="1"/>
     <col min="5" max="6" width="15" style="96" customWidth="1"/>
-    <col min="7" max="11" width="16.08984375" style="96" customWidth="1"/>
-    <col min="12" max="16384" width="16.08984375" style="96"/>
+    <col min="7" max="11" width="16.109375" style="96" customWidth="1"/>
+    <col min="12" max="16384" width="16.109375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="74"/>
       <c r="C2" s="56" t="s">
         <v>54</v>
@@ -13717,7 +13717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>244</v>
       </c>
@@ -13801,7 +13801,7 @@
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>249</v>
       </c>
@@ -13824,7 +13824,7 @@
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
     </row>
-    <row r="11" spans="1:6" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>245</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>246</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="65"/>
       <c r="C16" s="66"/>
@@ -13901,7 +13901,7 @@
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>248</v>
       </c>
@@ -14050,7 +14050,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="65"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
         <v>235</v>
       </c>
@@ -14060,12 +14060,12 @@
       <c r="E27" s="91"/>
       <c r="F27" s="91"/>
     </row>
-    <row r="28" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="74"/>
       <c r="C29" s="56" t="s">
         <v>54</v>
@@ -14080,7 +14080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>250</v>
       </c>
@@ -14180,7 +14180,7 @@
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>262</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55" t="s">
         <v>245</v>
       </c>
@@ -14211,7 +14211,7 @@
       <c r="E38" s="63"/>
       <c r="F38" s="63"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
         <v>251</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52"/>
       <c r="B43" s="65"/>
       <c r="C43" s="66"/>
@@ -14291,7 +14291,7 @@
       <c r="E43" s="53"/>
       <c r="F43" s="53"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>252</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="88" t="s">
         <v>239</v>
       </c>
@@ -14479,12 +14479,12 @@
       <c r="E54" s="91"/>
       <c r="F54" s="91"/>
     </row>
-    <row r="55" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="74"/>
       <c r="C56" s="56" t="s">
         <v>54</v>
@@ -14499,7 +14499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
         <v>253</v>
       </c>
@@ -14599,7 +14599,7 @@
       <c r="E62" s="53"/>
       <c r="F62" s="53"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
         <v>263</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>245</v>
       </c>
@@ -14630,7 +14630,7 @@
       <c r="E65" s="63"/>
       <c r="F65" s="63"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="52" t="s">
         <v>254</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="52"/>
       <c r="B70" s="65"/>
       <c r="C70" s="66"/>
@@ -14710,7 +14710,7 @@
       <c r="E70" s="53"/>
       <c r="F70" s="53"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
         <v>255</v>
       </c>
@@ -14906,24 +14906,24 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="96" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="96" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="96" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="96" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="12.81640625" style="96" customWidth="1"/>
-    <col min="22" max="16384" width="12.81640625" style="96"/>
+    <col min="1" max="1" width="27.21875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="96" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="96" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="96" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="12.77734375" style="96" customWidth="1"/>
+    <col min="22" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>226</v>
       </c>
@@ -14957,7 +14957,7 @@
       <c r="O2" s="71"/>
       <c r="P2" s="71"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="96" t="s">
         <v>87</v>
@@ -15390,7 +15390,7 @@
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="78" t="s">
         <v>269</v>
       </c>
@@ -15648,12 +15648,12 @@
       <c r="O26" s="72"/>
       <c r="P26" s="72"/>
     </row>
-    <row r="28" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
         <v>279</v>
       </c>
@@ -15687,7 +15687,7 @@
       <c r="O29" s="71"/>
       <c r="P29" s="71"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
       <c r="B30" s="96" t="s">
         <v>87</v>
@@ -16382,12 +16382,12 @@
       <c r="C54" s="78"/>
       <c r="D54" s="78"/>
     </row>
-    <row r="55" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="72" t="s">
         <v>121</v>
       </c>
@@ -16415,7 +16415,7 @@
       <c r="O56" s="71"/>
       <c r="P56" s="71"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="52"/>
       <c r="B57" s="96" t="s">
         <v>101</v>
@@ -16561,12 +16561,12 @@
       <c r="C63" s="78"/>
       <c r="D63" s="78"/>
     </row>
-    <row r="64" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="72" t="s">
         <v>128</v>
       </c>
@@ -16600,7 +16600,7 @@
       <c r="O65" s="71"/>
       <c r="P65" s="71"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="76"/>
       <c r="B66" s="96" t="s">
         <v>78</v>
@@ -17636,12 +17636,12 @@
       <c r="O101" s="72"/>
       <c r="P101" s="72"/>
     </row>
-    <row r="103" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="72" t="s">
         <v>87</v>
       </c>
@@ -17675,7 +17675,7 @@
       <c r="O104" s="71"/>
       <c r="P104" s="71"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="52"/>
       <c r="C105" s="78" t="s">
         <v>129</v>
@@ -17788,13 +17788,13 @@
       <c r="O108" s="72"/>
       <c r="P108" s="72"/>
     </row>
-    <row r="110" spans="1:16" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="88" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="88"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="55" t="s">
         <v>264</v>
       </c>
@@ -17806,7 +17806,7 @@
       <c r="G111" s="64"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A112" s="72" t="s">
         <v>226</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="52"/>
       <c r="B113" s="96" t="s">
         <v>87</v>
@@ -18451,7 +18451,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="55" t="s">
         <v>278</v>
       </c>
@@ -18463,7 +18463,7 @@
       <c r="G138" s="64"/>
       <c r="H138" s="64"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A139" s="72" t="s">
         <v>279</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="52"/>
       <c r="B140" s="96" t="s">
         <v>87</v>
@@ -19112,7 +19112,7 @@
       <c r="C164" s="78"/>
       <c r="D164" s="78"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="55" t="s">
         <v>271</v>
       </c>
@@ -19124,7 +19124,7 @@
       <c r="G165" s="64"/>
       <c r="H165" s="64"/>
     </row>
-    <row r="166" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="72" t="s">
         <v>121</v>
       </c>
@@ -19148,7 +19148,7 @@
       </c>
       <c r="H166" s="71"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="52"/>
       <c r="B167" s="96" t="s">
         <v>101</v>
@@ -19294,7 +19294,7 @@
       <c r="C173" s="78"/>
       <c r="D173" s="78"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="55" t="s">
         <v>275</v>
       </c>
@@ -19306,7 +19306,7 @@
       <c r="G174" s="64"/>
       <c r="H174" s="64"/>
     </row>
-    <row r="175" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="72" t="s">
         <v>128</v>
       </c>
@@ -19332,7 +19332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="76"/>
       <c r="B176" s="96" t="s">
         <v>78</v>
@@ -20224,7 +20224,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="55" t="s">
         <v>277</v>
       </c>
@@ -20236,7 +20236,7 @@
       <c r="G213" s="64"/>
       <c r="H213" s="64"/>
     </row>
-    <row r="214" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="72" t="s">
         <v>87</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="52"/>
       <c r="C215" s="78" t="s">
         <v>129</v>
@@ -20359,13 +20359,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="88" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="88"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="55" t="s">
         <v>264</v>
       </c>
@@ -20378,7 +20378,7 @@
       <c r="H221" s="64"/>
       <c r="I221" s="64"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A222" s="72" t="s">
         <v>226</v>
       </c>
@@ -20405,7 +20405,7 @@
       </c>
       <c r="I222" s="71"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="52"/>
       <c r="B223" s="96" t="s">
         <v>87</v>
@@ -21048,7 +21048,7 @@
       </c>
       <c r="I246" s="72"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="55" t="s">
         <v>278</v>
       </c>
@@ -21061,7 +21061,7 @@
       <c r="H248" s="64"/>
       <c r="I248" s="64"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A249" s="72" t="s">
         <v>279</v>
       </c>
@@ -21088,7 +21088,7 @@
       </c>
       <c r="I249" s="71"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="52"/>
       <c r="B250" s="96" t="s">
         <v>87</v>
@@ -21735,7 +21735,7 @@
       <c r="C274" s="78"/>
       <c r="D274" s="78"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="55" t="s">
         <v>271</v>
       </c>
@@ -21748,7 +21748,7 @@
       <c r="H275" s="64"/>
       <c r="I275" s="64"/>
     </row>
-    <row r="276" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="72" t="s">
         <v>121</v>
       </c>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="H276" s="71"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="52"/>
       <c r="B277" s="96" t="s">
         <v>101</v>
@@ -21918,7 +21918,7 @@
       <c r="C283" s="78"/>
       <c r="D283" s="78"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="55" t="s">
         <v>275</v>
       </c>
@@ -21931,7 +21931,7 @@
       <c r="H284" s="64"/>
       <c r="I284" s="64"/>
     </row>
-    <row r="285" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="72" t="s">
         <v>128</v>
       </c>
@@ -21958,7 +21958,7 @@
       </c>
       <c r="I285" s="71"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="76"/>
       <c r="B286" s="96" t="s">
         <v>78</v>
@@ -22886,7 +22886,7 @@
       </c>
       <c r="I321" s="72"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="55" t="s">
         <v>277</v>
       </c>
@@ -22899,7 +22899,7 @@
       <c r="H323" s="64"/>
       <c r="I323" s="64"/>
     </row>
-    <row r="324" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="72" t="s">
         <v>87</v>
       </c>
@@ -22926,7 +22926,7 @@
       </c>
       <c r="I324" s="71"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="52"/>
       <c r="C325" s="78" t="s">
         <v>129</v>
@@ -23045,25 +23045,25 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="96" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="96" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="96" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="96" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="96" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="96" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="96" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="96" customWidth="1"/>
     <col min="6" max="6" width="15" style="96" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="96" customWidth="1"/>
-    <col min="8" max="12" width="12.81640625" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="12.81640625" style="96"/>
+    <col min="7" max="7" width="13.6640625" style="96" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>7</v>
       </c>
@@ -23104,7 +23104,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="69" t="s">
         <v>281</v>
@@ -23125,7 +23125,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>282</v>
       </c>
@@ -23218,12 +23218,12 @@
       <c r="F10" s="69"/>
       <c r="G10" s="69"/>
     </row>
-    <row r="11" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="65" t="s">
         <v>184</v>
@@ -23244,16 +23244,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="65"/>
     </row>
-    <row r="14" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>279</v>
       </c>
@@ -23276,7 +23276,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="69" t="s">
         <v>287</v>
@@ -23297,7 +23297,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
         <v>121</v>
       </c>
@@ -23321,12 +23321,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>70</v>
       </c>
@@ -23357,12 +23357,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="88" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
         <v>233</v>
       </c>
@@ -23373,7 +23373,7 @@
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
         <v>7</v>
       </c>
@@ -23418,7 +23418,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
       <c r="B27" s="69" t="s">
         <v>290</v>
@@ -23444,7 +23444,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
         <v>291</v>
       </c>
@@ -23557,7 +23557,7 @@
       <c r="F33" s="69"/>
       <c r="G33" s="69"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="55" t="s">
         <v>295</v>
       </c>
@@ -23568,7 +23568,7 @@
       <c r="F34" s="64"/>
       <c r="G34" s="64"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="58"/>
       <c r="B35" s="65" t="s">
         <v>296</v>
@@ -23591,11 +23591,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="58"/>
       <c r="B36" s="65"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="55" t="s">
         <v>283</v>
       </c>
@@ -23606,7 +23606,7 @@
       <c r="F37" s="64"/>
       <c r="G37" s="64"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="76" t="s">
         <v>279</v>
       </c>
@@ -23634,7 +23634,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="52"/>
       <c r="B39" s="69" t="s">
         <v>298</v>
@@ -23660,7 +23660,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="76" t="s">
         <v>121</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="55" t="s">
         <v>300</v>
       </c>
@@ -23699,7 +23699,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="52" t="s">
@@ -23737,12 +23737,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="55" t="s">
         <v>233</v>
       </c>
@@ -23753,7 +23753,7 @@
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="76" t="s">
         <v>7</v>
       </c>
@@ -23798,7 +23798,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="52"/>
       <c r="B50" s="69" t="s">
         <v>303</v>
@@ -23824,7 +23824,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
         <v>304</v>
       </c>
@@ -23937,7 +23937,7 @@
       <c r="F56" s="69"/>
       <c r="G56" s="69"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
         <v>308</v>
       </c>
@@ -23948,7 +23948,7 @@
       <c r="F57" s="64"/>
       <c r="G57" s="64"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
       <c r="B58" s="65" t="s">
         <v>309</v>
@@ -23971,11 +23971,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="65"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
         <v>283</v>
       </c>
@@ -23986,7 +23986,7 @@
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="76" t="s">
         <v>279</v>
       </c>
@@ -24014,7 +24014,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="52"/>
       <c r="B62" s="69" t="s">
         <v>311</v>
@@ -24040,7 +24040,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="76" t="s">
         <v>121</v>
       </c>
@@ -24068,7 +24068,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>313</v>
       </c>
@@ -24079,7 +24079,7 @@
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="52" t="s">
@@ -24136,16 +24136,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="96" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="96" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="96" customWidth="1"/>
-    <col min="8" max="13" width="16.08984375" style="96" customWidth="1"/>
-    <col min="14" max="16384" width="16.08984375" style="96"/>
+    <col min="1" max="1" width="52.21875" style="96" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="96" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="96" customWidth="1"/>
+    <col min="8" max="13" width="16.109375" style="96" customWidth="1"/>
+    <col min="14" max="16384" width="16.109375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>160</v>
       </c>
@@ -24391,12 +24391,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>160</v>
       </c>
@@ -24690,12 +24690,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="70" t="s">
         <v>160</v>
       </c>
@@ -25007,16 +25007,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="96" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="96" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="96" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="96" customWidth="1"/>
-    <col min="16" max="20" width="12.81640625" style="96" customWidth="1"/>
-    <col min="21" max="16384" width="12.81640625" style="96"/>
+    <col min="16" max="20" width="12.77734375" style="96" customWidth="1"/>
+    <col min="21" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
       <c r="B1" s="52"/>
       <c r="C1" s="57" t="s">
@@ -25059,7 +25059,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>318</v>
       </c>
@@ -25504,7 +25504,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="65" t="s">
         <v>189</v>
       </c>
@@ -25636,7 +25636,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>319</v>
       </c>
@@ -25818,12 +25818,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="88" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="57" t="s">
@@ -25866,7 +25866,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>320</v>
       </c>
@@ -26612,7 +26612,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
         <v>322</v>
       </c>
@@ -26846,12 +26846,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="52"/>
       <c r="B47" s="52"/>
       <c r="C47" s="57" t="s">
@@ -26894,7 +26894,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>321</v>
       </c>
@@ -27640,7 +27640,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
         <v>323</v>
       </c>
@@ -27892,16 +27892,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="96" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="96" customWidth="1"/>
-    <col min="8" max="12" width="12.81640625" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="12.81640625" style="96"/>
+    <col min="1" max="1" width="21.33203125" style="96" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="96" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="96" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
       <c r="B1" s="70"/>
       <c r="C1" s="52" t="s">
@@ -27920,7 +27920,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>324</v>
       </c>
@@ -27945,7 +27945,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>325</v>
       </c>
@@ -27976,12 +27976,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="70"/>
       <c r="C8" s="52" t="s">
@@ -28000,7 +28000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>326</v>
       </c>
@@ -28030,7 +28030,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>327</v>
       </c>
@@ -28066,12 +28066,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="70"/>
       <c r="C15" s="52" t="s">
@@ -28090,7 +28090,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>328</v>
       </c>
@@ -28120,7 +28120,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>329</v>
       </c>
@@ -28170,25 +28170,25 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="69" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="69" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="69" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="69" customWidth="1"/>
     <col min="4" max="4" width="15" style="96" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="96" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="96" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="96" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="96" customWidth="1"/>
-    <col min="9" max="13" width="12.81640625" style="96" customWidth="1"/>
-    <col min="14" max="16384" width="12.81640625" style="96"/>
+    <col min="5" max="5" width="13.6640625" style="96" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="96" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="96" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="96" customWidth="1"/>
+    <col min="9" max="13" width="12.77734375" style="96" customWidth="1"/>
+    <col min="14" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>160</v>
       </c>
@@ -28231,13 +28231,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -28251,13 +28251,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="85">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="85">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="85">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -28271,13 +28271,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="85">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="G4" s="85">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="H4" s="85">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -28317,10 +28317,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G6" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H6" s="85">
         <v>0</v>
@@ -28360,10 +28360,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G8" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H8" s="85">
         <v>0</v>
@@ -28406,10 +28406,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G10" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H10" s="85">
         <v>0</v>
@@ -28449,10 +28449,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G12" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H12" s="85">
         <v>0</v>
@@ -28495,10 +28495,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G14" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H14" s="85">
         <v>0</v>
@@ -28538,10 +28538,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G16" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H16" s="85">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="85">
         <v>0.62</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="85">
         <v>0.62</v>
@@ -28647,13 +28647,13 @@
         <v>317</v>
       </c>
       <c r="D21" s="85">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="85">
         <v>0</v>
       </c>
       <c r="F21" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="85">
         <v>0</v>
@@ -28673,7 +28673,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="85">
         <v>0</v>
@@ -28693,13 +28693,13 @@
         <v>317</v>
       </c>
       <c r="D23" s="85">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="85">
         <v>0</v>
       </c>
       <c r="F23" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="85">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="85">
         <v>0</v>
@@ -28739,13 +28739,13 @@
         <v>317</v>
       </c>
       <c r="D25" s="85">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="85">
         <v>0</v>
       </c>
       <c r="F25" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="85">
         <v>0</v>
@@ -28765,7 +28765,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="85">
         <v>0</v>
@@ -28791,7 +28791,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="85">
         <v>1</v>
@@ -28811,7 +28811,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="85">
         <v>0</v>
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="85">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="85">
         <v>1</v>
@@ -28877,7 +28877,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="85">
         <v>0</v>
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="85">
         <v>0</v>
@@ -28923,7 +28923,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="85">
         <v>1</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="85">
         <v>0</v>
@@ -28963,7 +28963,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="85">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="85">
         <v>1</v>
@@ -29009,7 +29009,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="85">
         <v>0</v>
@@ -29029,7 +29029,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="85">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="85">
         <v>1</v>
@@ -29075,7 +29075,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="85">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="85">
         <v>0</v>
@@ -29121,7 +29121,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="85">
         <v>0.3</v>
@@ -29141,7 +29141,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="85">
         <v>0.5</v>
@@ -29161,7 +29161,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="85">
         <v>0.65</v>
@@ -29184,7 +29184,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="85">
         <v>0.3</v>
@@ -29204,7 +29204,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="85">
         <v>0.49</v>
@@ -29224,7 +29224,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="85">
         <v>0.52</v>
@@ -29250,7 +29250,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="85">
         <v>0.88</v>
@@ -29264,19 +29264,19 @@
         <v>333</v>
       </c>
       <c r="D49" s="85">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="85">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="85">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="85">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -29290,19 +29290,19 @@
         <v>317</v>
       </c>
       <c r="D50" s="85">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="85">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="85">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="85">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -29316,7 +29316,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="85">
         <v>0.86</v>
@@ -29342,7 +29342,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="85">
         <v>0</v>
@@ -29362,7 +29362,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="85">
         <v>0</v>
@@ -29371,14 +29371,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="92" t="s">
         <v>330</v>
       </c>
       <c r="B55" s="93"/>
       <c r="C55" s="93"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
         <v>160</v>
       </c>
@@ -29424,15 +29424,15 @@
       </c>
       <c r="F57" s="85">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="85">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="85">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -29449,15 +29449,15 @@
       </c>
       <c r="F58" s="85">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="85">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="85">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -29474,15 +29474,15 @@
       </c>
       <c r="F59" s="85">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
       <c r="G59" s="85">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
       <c r="H59" s="85">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -29530,11 +29530,11 @@
       </c>
       <c r="F61" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G61" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H61" s="85">
         <f t="shared" si="0"/>
@@ -29583,11 +29583,11 @@
       </c>
       <c r="F63" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G63" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H63" s="85">
         <f t="shared" si="0"/>
@@ -29639,11 +29639,11 @@
       </c>
       <c r="F65" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G65" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H65" s="85">
         <f t="shared" si="0"/>
@@ -29692,11 +29692,11 @@
       </c>
       <c r="F67" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G67" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H67" s="85">
         <f t="shared" si="1"/>
@@ -29748,11 +29748,11 @@
       </c>
       <c r="F69" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G69" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H69" s="85">
         <f t="shared" si="1"/>
@@ -29801,11 +29801,11 @@
       </c>
       <c r="F71" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G71" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H71" s="85">
         <f t="shared" si="1"/>
@@ -29857,7 +29857,7 @@
       </c>
       <c r="F73" s="85">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="85">
         <f t="shared" si="1"/>
@@ -29910,7 +29910,7 @@
       </c>
       <c r="F75" s="85">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="85">
         <f t="shared" si="1"/>
@@ -29933,7 +29933,7 @@
       </c>
       <c r="D76" s="85">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="85">
         <f t="shared" si="1"/>
@@ -29941,7 +29941,7 @@
       </c>
       <c r="F76" s="85">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="85">
         <f t="shared" si="1"/>
@@ -29966,7 +29966,7 @@
       </c>
       <c r="F77" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="85">
         <f t="shared" si="2"/>
@@ -29989,7 +29989,7 @@
       </c>
       <c r="D78" s="85">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="85">
         <f t="shared" si="2"/>
@@ -29997,7 +29997,7 @@
       </c>
       <c r="F78" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="85">
         <f t="shared" si="2"/>
@@ -30022,7 +30022,7 @@
       </c>
       <c r="F79" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="85">
         <f t="shared" si="2"/>
@@ -30045,7 +30045,7 @@
       </c>
       <c r="D80" s="85">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="85">
         <f t="shared" si="2"/>
@@ -30053,7 +30053,7 @@
       </c>
       <c r="F80" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="85">
         <f t="shared" si="2"/>
@@ -30078,7 +30078,7 @@
       </c>
       <c r="F81" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="85">
         <f t="shared" si="2"/>
@@ -30109,7 +30109,7 @@
       </c>
       <c r="F82" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="85">
         <f t="shared" si="2"/>
@@ -30134,7 +30134,7 @@
       </c>
       <c r="F83" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="85">
         <f t="shared" si="2"/>
@@ -30159,7 +30159,7 @@
       </c>
       <c r="F84" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="85">
         <f t="shared" si="2"/>
@@ -30190,7 +30190,7 @@
       </c>
       <c r="F85" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="85">
         <f t="shared" si="2"/>
@@ -30215,7 +30215,7 @@
       </c>
       <c r="F86" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="85">
         <f t="shared" si="2"/>
@@ -30240,7 +30240,7 @@
       </c>
       <c r="F87" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="85">
         <f t="shared" si="3"/>
@@ -30271,7 +30271,7 @@
       </c>
       <c r="F88" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="85">
         <f t="shared" si="3"/>
@@ -30296,7 +30296,7 @@
       </c>
       <c r="F89" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="85">
         <f t="shared" si="3"/>
@@ -30321,7 +30321,7 @@
       </c>
       <c r="F90" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="85">
         <f t="shared" si="3"/>
@@ -30352,7 +30352,7 @@
       </c>
       <c r="F91" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="85">
         <f t="shared" si="3"/>
@@ -30377,7 +30377,7 @@
       </c>
       <c r="F92" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="85">
         <f t="shared" si="3"/>
@@ -30402,7 +30402,7 @@
       </c>
       <c r="F93" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="85">
         <f t="shared" si="3"/>
@@ -30433,7 +30433,7 @@
       </c>
       <c r="F94" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="85">
         <f t="shared" si="3"/>
@@ -30458,7 +30458,7 @@
       </c>
       <c r="F95" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="85">
         <f t="shared" si="3"/>
@@ -30483,7 +30483,7 @@
       </c>
       <c r="F96" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="85">
         <f t="shared" si="3"/>
@@ -30514,7 +30514,7 @@
       </c>
       <c r="F97" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="85">
         <f t="shared" si="4"/>
@@ -30539,7 +30539,7 @@
       </c>
       <c r="F98" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="85">
         <f t="shared" si="4"/>
@@ -30564,7 +30564,7 @@
       </c>
       <c r="F99" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="85">
         <f t="shared" si="4"/>
@@ -30592,7 +30592,7 @@
       </c>
       <c r="F100" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="85">
         <f t="shared" si="4"/>
@@ -30617,7 +30617,7 @@
       </c>
       <c r="F101" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="85">
         <f t="shared" si="4"/>
@@ -30642,7 +30642,7 @@
       </c>
       <c r="F102" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="85">
         <f t="shared" si="4"/>
@@ -30673,7 +30673,7 @@
       </c>
       <c r="F103" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="85">
         <f t="shared" si="4"/>
@@ -30690,23 +30690,23 @@
       </c>
       <c r="D104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -30721,23 +30721,23 @@
       </c>
       <c r="D105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -30754,7 +30754,7 @@
       </c>
       <c r="F106" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="85">
         <f t="shared" si="4"/>
@@ -30785,7 +30785,7 @@
       </c>
       <c r="F107" s="85">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="85">
         <f t="shared" si="5"/>
@@ -30810,7 +30810,7 @@
       </c>
       <c r="F108" s="85">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="85">
         <f t="shared" si="5"/>
@@ -30821,14 +30821,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="92" t="s">
         <v>331</v>
       </c>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="52" t="s">
         <v>160</v>
       </c>
@@ -30874,15 +30874,15 @@
       </c>
       <c r="F112" s="85">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="85">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="85">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -30899,15 +30899,15 @@
       </c>
       <c r="F113" s="85">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="85">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="85">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -30924,15 +30924,15 @@
       </c>
       <c r="F114" s="85">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
       <c r="G114" s="85">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
       <c r="H114" s="85">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -30980,11 +30980,11 @@
       </c>
       <c r="F116" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G116" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H116" s="85">
         <f t="shared" si="6"/>
@@ -31033,11 +31033,11 @@
       </c>
       <c r="F118" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G118" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H118" s="85">
         <f t="shared" si="6"/>
@@ -31089,11 +31089,11 @@
       </c>
       <c r="F120" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G120" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H120" s="85">
         <f t="shared" si="6"/>
@@ -31142,11 +31142,11 @@
       </c>
       <c r="F122" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G122" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H122" s="85">
         <f t="shared" si="7"/>
@@ -31198,11 +31198,11 @@
       </c>
       <c r="F124" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G124" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H124" s="85">
         <f t="shared" si="7"/>
@@ -31251,11 +31251,11 @@
       </c>
       <c r="F126" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G126" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H126" s="85">
         <f t="shared" si="7"/>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="F128" s="85">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="85">
         <f t="shared" si="7"/>
@@ -31360,7 +31360,7 @@
       </c>
       <c r="F130" s="85">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="85">
         <f t="shared" si="7"/>
@@ -31383,7 +31383,7 @@
       </c>
       <c r="D131" s="85">
         <f t="shared" si="7"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="85">
         <f t="shared" si="7"/>
@@ -31391,7 +31391,7 @@
       </c>
       <c r="F131" s="85">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="85">
         <f t="shared" si="7"/>
@@ -31416,7 +31416,7 @@
       </c>
       <c r="F132" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="85">
         <f t="shared" si="8"/>
@@ -31439,7 +31439,7 @@
       </c>
       <c r="D133" s="85">
         <f t="shared" si="8"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="85">
         <f t="shared" si="8"/>
@@ -31447,7 +31447,7 @@
       </c>
       <c r="F133" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="85">
         <f t="shared" si="8"/>
@@ -31472,7 +31472,7 @@
       </c>
       <c r="F134" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="85">
         <f t="shared" si="8"/>
@@ -31495,7 +31495,7 @@
       </c>
       <c r="D135" s="85">
         <f t="shared" si="8"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="85">
         <f t="shared" si="8"/>
@@ -31503,7 +31503,7 @@
       </c>
       <c r="F135" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="85">
         <f t="shared" si="8"/>
@@ -31528,7 +31528,7 @@
       </c>
       <c r="F136" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="85">
         <f t="shared" si="8"/>
@@ -31559,7 +31559,7 @@
       </c>
       <c r="F137" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="85">
         <f t="shared" si="8"/>
@@ -31584,7 +31584,7 @@
       </c>
       <c r="F138" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="85">
         <f t="shared" si="8"/>
@@ -31609,7 +31609,7 @@
       </c>
       <c r="F139" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="85">
         <f t="shared" si="8"/>
@@ -31640,7 +31640,7 @@
       </c>
       <c r="F140" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="85">
         <f t="shared" si="8"/>
@@ -31665,7 +31665,7 @@
       </c>
       <c r="F141" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="85">
         <f t="shared" si="8"/>
@@ -31690,7 +31690,7 @@
       </c>
       <c r="F142" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="85">
         <f t="shared" si="9"/>
@@ -31721,7 +31721,7 @@
       </c>
       <c r="F143" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="85">
         <f t="shared" si="9"/>
@@ -31746,7 +31746,7 @@
       </c>
       <c r="F144" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="85">
         <f t="shared" si="9"/>
@@ -31771,7 +31771,7 @@
       </c>
       <c r="F145" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="85">
         <f t="shared" si="9"/>
@@ -31802,7 +31802,7 @@
       </c>
       <c r="F146" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="85">
         <f t="shared" si="9"/>
@@ -31827,7 +31827,7 @@
       </c>
       <c r="F147" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="85">
         <f t="shared" si="9"/>
@@ -31852,7 +31852,7 @@
       </c>
       <c r="F148" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="85">
         <f t="shared" si="9"/>
@@ -31883,7 +31883,7 @@
       </c>
       <c r="F149" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="85">
         <f t="shared" si="9"/>
@@ -31908,7 +31908,7 @@
       </c>
       <c r="F150" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="85">
         <f t="shared" si="9"/>
@@ -31933,7 +31933,7 @@
       </c>
       <c r="F151" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="85">
         <f t="shared" si="9"/>
@@ -31964,7 +31964,7 @@
       </c>
       <c r="F152" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="85">
         <f t="shared" si="10"/>
@@ -31989,7 +31989,7 @@
       </c>
       <c r="F153" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="85">
         <f t="shared" si="10"/>
@@ -32014,7 +32014,7 @@
       </c>
       <c r="F154" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="85">
         <f t="shared" si="10"/>
@@ -32042,7 +32042,7 @@
       </c>
       <c r="F155" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="85">
         <f t="shared" si="10"/>
@@ -32067,7 +32067,7 @@
       </c>
       <c r="F156" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="85">
         <f t="shared" si="10"/>
@@ -32092,7 +32092,7 @@
       </c>
       <c r="F157" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="85">
         <f t="shared" si="10"/>
@@ -32123,7 +32123,7 @@
       </c>
       <c r="F158" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="85">
         <f t="shared" si="10"/>
@@ -32140,23 +32140,23 @@
       </c>
       <c r="D159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -32171,23 +32171,23 @@
       </c>
       <c r="D160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -32204,7 +32204,7 @@
       </c>
       <c r="F161" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="85">
         <f t="shared" si="10"/>
@@ -32235,7 +32235,7 @@
       </c>
       <c r="F162" s="85">
         <f t="shared" si="11"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="85">
         <f t="shared" si="11"/>
@@ -32260,7 +32260,7 @@
       </c>
       <c r="F163" s="85">
         <f t="shared" si="11"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="85">
         <f t="shared" si="11"/>
@@ -32289,17 +32289,17 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="96" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="96" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="96" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="96" customWidth="1"/>
-    <col min="8" max="12" width="12.81640625" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="12.81640625" style="96"/>
+    <col min="2" max="2" width="27.44140625" style="96" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="96" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="96" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>160</v>
       </c>
@@ -32447,12 +32447,12 @@
       </c>
       <c r="H7" s="78"/>
     </row>
-    <row r="9" spans="1:8" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="88" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>160</v>
       </c>
@@ -32617,12 +32617,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="88" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>160</v>
       </c>
@@ -32804,14 +32804,14 @@
       <selection activeCell="C13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2021) imputable à chaque cause</v>
@@ -32822,7 +32822,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -32905,7 +32905,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
         <v>86</v>
       </c>
@@ -33039,7 +33039,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -33136,13 +33136,13 @@
       <selection activeCell="C15" activeCellId="2" sqref="C2:G3 C8:G9 C15:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2021)</v>
@@ -33493,13 +33493,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2021)</v>
@@ -33599,14 +33599,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="102" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="102" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="102"/>
+    <col min="2" max="2" width="29.44140625" style="102" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>133</v>
       </c>
@@ -33806,14 +33806,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" style="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="102" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="102"/>
+    <col min="1" max="1" width="36.44140625" style="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="102" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>4</v>
       </c>
@@ -33886,16 +33886,16 @@
       <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="96" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="96" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="96" customWidth="1"/>
-    <col min="4" max="8" width="11.453125" style="96" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="96"/>
+    <col min="2" max="2" width="19.109375" style="96" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="96" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="96" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>151</v>
       </c>
@@ -33912,7 +33912,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>157</v>
       </c>
@@ -33986,7 +33986,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="42"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>158</v>
       </c>
@@ -34060,7 +34060,7 @@
       <c r="D14" s="20"/>
       <c r="E14" s="42"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>159</v>
       </c>
@@ -34148,15 +34148,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
@@ -34170,7 +34170,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>160</v>
       </c>
@@ -34182,7 +34182,7 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>164</v>
       </c>

--- a/inputs/fr/Optima_template.xlsx
+++ b/inputs/fr/Optima_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAEBF6C-2CDF-4CCA-8696-CDD311A39EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF5ED2CD-BF1D-4717-A4A8-C8A4EB229C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données pop de l'année de ref" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
   <si>
     <t>Field</t>
   </si>
@@ -616,9 +616,6 @@
     <t>Insuffisance pondérale à la naissance</t>
   </si>
   <si>
-    <t>Année</t>
-  </si>
-  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
@@ -641,6 +638,9 @@
   </si>
   <si>
     <t>FAP non enceintes</t>
+  </si>
+  <si>
+    <t>année</t>
   </si>
   <si>
     <t>Néonatal</t>
@@ -1057,7 +1057,7 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
-    <t>efficacité</t>
+    <t>Efficacité</t>
   </si>
   <si>
     <t>Méthode</t>
@@ -1363,6 +1363,9 @@
     <t>Petite quantité de supplémentation en nutriments à base de lipids - supérieur</t>
   </si>
   <si>
+    <t>efficacité</t>
+  </si>
+  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1411,6 +1414,9 @@
     <t>Condition ciblée</t>
   </si>
   <si>
+    <t>Fraction touchée</t>
+  </si>
+  <si>
     <t>Efficacité à prévenir une mort</t>
   </si>
   <si>
@@ -1428,7 +1434,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1544,12 +1550,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1695,7 +1695,7 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1941,9 +1941,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2318,8 +2315,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2710,7 +2707,7 @@
       <c r="A63" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eQwhegixl60HMlJR8z6uoOe5Yle0I7tFCYzTTXTXuoTGXFwqFGVj7pB7MJpelYSpPLe0niBjlUwsiWzuRkvGKg==" saltValue="j0ihlDInsunWUibZhP+YJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ghjhUeOjSu54joBj/6evx4SDOum03F8iG0XenhK4Pa/EwlZsPGOFRJixryTp+uMxjrhg9XtQ76Ucb9iWhxMXFQ==" saltValue="6XF2re2LSlNjO/MuSAZoeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3488,7 +3485,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nMZB9ovAFO8B6IQhBGOAqg00zzy15zLrtl3PBbou6tAufSumMP0ikp4zdFCq9uqRdk6zzbDk0lPImj8QHfizfA==" saltValue="77WUXacvqusnBje/6AdDYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GBFqQ1iF93dEd59wJXA7pcbnXCVpV0RezbRViSZfi/bduF6KA5Dd9rCXSXyKq7O8MdVBMMat/LGYPQqJRLRvww==" saltValue="urH8ZbYbNH6KtG9hK5BoRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3502,7 +3499,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3638,7 +3635,7 @@
       <c r="C20" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Qyb5nuWFJHgXcyxWXRKwdgsoxA8ylaiP/78nsQ2BisB6jAeGqVR24k4nS5zAxp9cLx+fcxwhJYFQTPYl17BjXw==" saltValue="YaiEOdA/S7OEIsnB9aqBlw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TsMTEjhQfsDbwsiN2V+FBa4JMAXczw+QDtstVKRV4SDzGYsfvINP0HeeyWi6mulLny3Nl6q79FdNypIwLaBXjg==" saltValue="Yw40EVFeXNYoZBE+C5fnYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3739,7 +3736,7 @@
       <c r="A19" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yz4/ms8nwmcuHGbCXOJxw6LaoKSBXDutxKNbvnn/bkfwJzp6IRsgJnUHaLDDkV6FFCAJJ1AvER51s9WHa6PSCA==" saltValue="qi9HbfEB45btUXc3D/Ae/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t0CyKfEx1I874FzE9dsSxBS3LQMZrT9nU6A72sZRprGCfdri1/dbgM35oJr4+2q16z6w3OHbR3il2pah1Sl+Ew==" saltValue="j/CnLEAB8t4G00F9av2H6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3854,7 +3851,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0cbPhgles/35rIWmE2TMXQeZfi4gPcq1teBriYUgp9j4gdt/8+3SMAtl55q5Q9pct173YkhG+D7mZF5OsMM7Nw==" saltValue="/Lo83NDeBoTjXhBhNk4/Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2cFkuka0oEeAi9H2OF1nLhHVawyD85c93XXPAC1Bg80GTVoFZpnkIF/09//41z/qu0tGgbxRDPZDegQQRN10SA==" saltValue="tiLNytLFgmF4TnAeaeFqxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -3918,16 +3915,16 @@
         <v>125</v>
       </c>
       <c r="L1" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4874,7 +4871,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>172</v>
@@ -5615,7 +5612,7 @@
       <c r="B40" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LKDG1D/LvR440iDGcYsh4ZuAgJKIwzoxygG9ZFx6CkD4SUDY+r++IIuqNETmozCU7c9x0jip0x37dMO0Q/RlDw==" saltValue="H6yAZe4Zy5CCM7j+BbRdrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+bxYXci6bnWo8YDlvguRL8pZC+EpiXWiZQ2y+CXge31/fxdRmZk5MZBv9kTDF1r/wxJTgrtAblgD83BwZ2Du9A==" saltValue="MQwBi5TN/eRjxZV8o0LR8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5650,7 +5647,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2O4m0WXTD9DFJY09SNnRWEPLg4jSDsXp7FoZxv0/P3ZgGhgoj34PdxBH7j7EY9ne7ABuD1Etr8Riu2jbKz+rFw==" saltValue="R60W6Mnm0PJCZ/ugLecmnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0PlOxcUVy+LSsKkrUd4raCgz2ElKDw8Mg2k3z+RW5mN0mDxikfsk2jm13Fc7vve7UF4J9LkOVPdRxmgrWvsD5w==" saltValue="1mEBSNNlA2Wx29udY7yn8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5856,7 +5853,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tc5Dc+rj4+qS9sFTcLbHTZENeLnVT2mVZ0MaD2SdguumJeNH9GV4OgWUseVEl2C0cExpjwoLkBcK+bgQft9Gig==" saltValue="2yD9n5At1XXbLIAjeU4mCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="85OjQu6BmVrfigLSUaRCwVbeeKO+ykTOFQFhNLUTAEZ5VQlAU1fC3xuefVNrN4PLCvLOmUerIgXbmFK363INHg==" saltValue="4TFXvF/atEdhqT7iaUNb5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -5923,16 +5920,16 @@
         <v>125</v>
       </c>
       <c r="L1" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6988,7 +6985,7 @@
     </row>
     <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>172</v>
@@ -7671,7 +7668,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5PYa2zm1r4/9GPXtrUnRbiGk9BCIdyh+2UGQCce7EftubCRYq9PG1RPIWPh8uVt4XtELWK/OcCYIiMpzyhA17A==" saltValue="9vmNRAE3QlGabf+uPWwx3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZKnPAUJhScrHU7iPo6k0Cz35vWKfdcryfAs+YenLA2BFdVXrYwJjHbC2rsyP52hFe4Q4h+44PfkXM6Gmf2AFxw==" saltValue="gmECP+wBJoL3RLMgtX6LkA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7735,7 +7732,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8439,7 +8436,7 @@
       <c r="K39" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aCxXe5vwZOf0qXV1QGsIcBTMw9eephIdMh0qC0mrjM/pv/5mPW7txC23aFHpj4mM7E4EI2jZXTDAGRUhNgMMGA==" saltValue="tfnGRLgUku5FK2z4m2lA6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="naYqbKOAbqCxPMk9FgI9KL20NaArNwSlh9KTgQEhwto/TEM+JrApyqClQs0IRVGtE8MC6fBvS1ny5mjVoZUSUQ==" saltValue="lxKrZTvhhSzjOQIrYgeOZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8503,7 +8500,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8737,7 +8734,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="82"/>
       <c r="C11" s="82" t="s">
@@ -8758,7 +8755,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="82"/>
       <c r="C12" s="82" t="s">
@@ -8777,7 +8774,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="82"/>
       <c r="C13" s="82" t="s">
@@ -8796,7 +8793,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="82"/>
       <c r="C14" s="82" t="s">
@@ -8814,7 +8811,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5SNpA1/HPzCbzlrUBzj8whfKZ4t3vdXeuP0XoS0SDZNp17FFywDOg8Z3QrtO/JYepe2FsA0lrJj3zdueIm2Tog==" saltValue="+/OKp618tncFKoeAhRnYjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jOqS/UWFPAMlf9HNSKkYtelE9OwgtQwDhh47HVszWP5YFZab13jcOHr/gFk5YcTAGDlZOu2zUe+5yz4gPqt0zA==" saltValue="o9G99qbtQnn5dXhD5gzw1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8840,31 +8837,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9804,7 +9801,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="59tgFZL193x7msuBksR8VoBDDceM0ljMEU97eRfuYyaaiUCxssW+dtJwfXgClynl6jaJEQjPfJ6uYWkIrUbtHQ==" saltValue="X9Cx/KZG2BxTpXQ8IlmqUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F7XnqcsfMF36HsHPq5glo44UkWbfoChY8CwFGqcmwyYulQZVzGfYBO47ByB1ETUpxkm1MIzw6Pvmuy8g5Ppqog==" saltValue="XvwOVbIWjwyJYz+XnK/toQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -9865,7 +9862,7 @@
       <c r="A2" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="96" t="s">
@@ -9888,7 +9885,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="108"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="96" t="s">
         <v>154</v>
       </c>
@@ -9910,7 +9907,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="108"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="96" t="s">
         <v>155</v>
       </c>
@@ -9932,7 +9929,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="96" t="s">
@@ -9956,7 +9953,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="108"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="96" t="s">
         <v>154</v>
       </c>
@@ -9977,7 +9974,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="108"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="96" t="s">
         <v>155</v>
       </c>
@@ -9998,7 +9995,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="96" t="s">
@@ -10021,7 +10018,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="108"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="96" t="s">
         <v>154</v>
       </c>
@@ -10042,7 +10039,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="108"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="96" t="s">
         <v>155</v>
       </c>
@@ -10063,7 +10060,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -10086,7 +10083,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="108"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="96" t="s">
         <v>154</v>
       </c>
@@ -10107,7 +10104,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="108"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="96" t="s">
         <v>155</v>
       </c>
@@ -10128,7 +10125,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="96" t="s">
@@ -10151,7 +10148,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="108"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="96" t="s">
         <v>154</v>
       </c>
@@ -10172,7 +10169,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="108"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="96" t="s">
         <v>155</v>
       </c>
@@ -10226,7 +10223,7 @@
       <c r="A19" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="96" t="s">
@@ -10249,7 +10246,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="108"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="96" t="s">
         <v>154</v>
       </c>
@@ -10270,7 +10267,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="108"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="96" t="s">
         <v>155</v>
       </c>
@@ -10291,7 +10288,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="96" t="s">
@@ -10314,7 +10311,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="108"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="96" t="s">
         <v>154</v>
       </c>
@@ -10335,7 +10332,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="108"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="96" t="s">
         <v>155</v>
       </c>
@@ -10356,7 +10353,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="96" t="s">
@@ -10379,7 +10376,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="108"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="96" t="s">
         <v>154</v>
       </c>
@@ -10400,7 +10397,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="108"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="96" t="s">
         <v>155</v>
       </c>
@@ -10421,7 +10418,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -10444,7 +10441,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="108"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="96" t="s">
         <v>154</v>
       </c>
@@ -10465,7 +10462,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="108"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="96" t="s">
         <v>155</v>
       </c>
@@ -10486,7 +10483,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="96" t="s">
@@ -10509,7 +10506,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="108"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="96" t="s">
         <v>154</v>
       </c>
@@ -10530,7 +10527,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="108"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="96" t="s">
         <v>155</v>
       </c>
@@ -10584,7 +10581,7 @@
       <c r="A36" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="96" t="s">
@@ -10607,7 +10604,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="108"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="96" t="s">
         <v>154</v>
       </c>
@@ -10628,7 +10625,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="108"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="96" t="s">
         <v>155</v>
       </c>
@@ -10649,7 +10646,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="96" t="s">
@@ -10672,7 +10669,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="108"/>
+      <c r="B40" s="107"/>
       <c r="C40" s="96" t="s">
         <v>154</v>
       </c>
@@ -10693,7 +10690,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="108"/>
+      <c r="B41" s="107"/>
       <c r="C41" s="96" t="s">
         <v>155</v>
       </c>
@@ -10714,7 +10711,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="96" t="s">
@@ -10737,7 +10734,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="108"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="96" t="s">
         <v>154</v>
       </c>
@@ -10758,7 +10755,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="108"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="96" t="s">
         <v>155</v>
       </c>
@@ -10779,7 +10776,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="96" t="s">
@@ -10802,7 +10799,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="108"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="96" t="s">
         <v>154</v>
       </c>
@@ -10823,7 +10820,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="108"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="96" t="s">
         <v>155</v>
       </c>
@@ -10844,7 +10841,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="96" t="s">
@@ -10867,7 +10864,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="108"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="96" t="s">
         <v>154</v>
       </c>
@@ -10888,7 +10885,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="108"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="96" t="s">
         <v>155</v>
       </c>
@@ -10973,7 +10970,7 @@
       <c r="A55" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="96" t="s">
@@ -11001,7 +10998,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="108"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="96" t="s">
         <v>154</v>
       </c>
@@ -11027,7 +11024,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="108"/>
+      <c r="B57" s="107"/>
       <c r="C57" s="96" t="s">
         <v>155</v>
       </c>
@@ -11053,7 +11050,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="96" t="s">
@@ -11081,7 +11078,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="108"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="96" t="s">
         <v>154</v>
       </c>
@@ -11107,7 +11104,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="108"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="96" t="s">
         <v>155</v>
       </c>
@@ -11133,7 +11130,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="96" t="s">
@@ -11161,7 +11158,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="108"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="96" t="s">
         <v>154</v>
       </c>
@@ -11187,7 +11184,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="108"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="96" t="s">
         <v>155</v>
       </c>
@@ -11213,7 +11210,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="96" t="s">
@@ -11241,7 +11238,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="108"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="96" t="s">
         <v>154</v>
       </c>
@@ -11267,7 +11264,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="108"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="96" t="s">
         <v>155</v>
       </c>
@@ -11293,7 +11290,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="96" t="s">
@@ -11321,7 +11318,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="108"/>
+      <c r="B68" s="107"/>
       <c r="C68" s="96" t="s">
         <v>154</v>
       </c>
@@ -11347,7 +11344,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="108"/>
+      <c r="B69" s="107"/>
       <c r="C69" s="96" t="s">
         <v>155</v>
       </c>
@@ -11411,7 +11408,7 @@
       <c r="A72" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="107" t="s">
+      <c r="B72" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="96" t="s">
@@ -11439,7 +11436,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="108"/>
+      <c r="B73" s="107"/>
       <c r="C73" s="96" t="s">
         <v>154</v>
       </c>
@@ -11465,7 +11462,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="108"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="96" t="s">
         <v>155</v>
       </c>
@@ -11491,7 +11488,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="107" t="s">
+      <c r="B75" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="96" t="s">
@@ -11519,7 +11516,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="108"/>
+      <c r="B76" s="107"/>
       <c r="C76" s="96" t="s">
         <v>154</v>
       </c>
@@ -11545,7 +11542,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="108"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="96" t="s">
         <v>155</v>
       </c>
@@ -11571,7 +11568,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="107" t="s">
+      <c r="B78" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="96" t="s">
@@ -11599,7 +11596,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="108"/>
+      <c r="B79" s="107"/>
       <c r="C79" s="96" t="s">
         <v>154</v>
       </c>
@@ -11625,7 +11622,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="108"/>
+      <c r="B80" s="107"/>
       <c r="C80" s="96" t="s">
         <v>155</v>
       </c>
@@ -11651,7 +11648,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="107" t="s">
+      <c r="B81" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="96" t="s">
@@ -11679,7 +11676,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="108"/>
+      <c r="B82" s="107"/>
       <c r="C82" s="96" t="s">
         <v>154</v>
       </c>
@@ -11705,7 +11702,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="108"/>
+      <c r="B83" s="107"/>
       <c r="C83" s="96" t="s">
         <v>155</v>
       </c>
@@ -11731,7 +11728,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="107" t="s">
+      <c r="B84" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="96" t="s">
@@ -11759,7 +11756,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="108"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="96" t="s">
         <v>154</v>
       </c>
@@ -11785,7 +11782,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="108"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="96" t="s">
         <v>155</v>
       </c>
@@ -11849,7 +11846,7 @@
       <c r="A89" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="107" t="s">
+      <c r="B89" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="96" t="s">
@@ -11877,7 +11874,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="108"/>
+      <c r="B90" s="107"/>
       <c r="C90" s="96" t="s">
         <v>154</v>
       </c>
@@ -11903,7 +11900,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="108"/>
+      <c r="B91" s="107"/>
       <c r="C91" s="96" t="s">
         <v>155</v>
       </c>
@@ -11929,7 +11926,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="107" t="s">
+      <c r="B92" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="96" t="s">
@@ -11957,7 +11954,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="108"/>
+      <c r="B93" s="107"/>
       <c r="C93" s="96" t="s">
         <v>154</v>
       </c>
@@ -11983,7 +11980,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="108"/>
+      <c r="B94" s="107"/>
       <c r="C94" s="96" t="s">
         <v>155</v>
       </c>
@@ -12009,7 +12006,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="107" t="s">
+      <c r="B95" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="96" t="s">
@@ -12037,7 +12034,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="108"/>
+      <c r="B96" s="107"/>
       <c r="C96" s="96" t="s">
         <v>154</v>
       </c>
@@ -12063,7 +12060,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="108"/>
+      <c r="B97" s="107"/>
       <c r="C97" s="96" t="s">
         <v>155</v>
       </c>
@@ -12089,7 +12086,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="107" t="s">
+      <c r="B98" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="96" t="s">
@@ -12117,7 +12114,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="108"/>
+      <c r="B99" s="107"/>
       <c r="C99" s="96" t="s">
         <v>154</v>
       </c>
@@ -12143,7 +12140,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="108"/>
+      <c r="B100" s="107"/>
       <c r="C100" s="96" t="s">
         <v>155</v>
       </c>
@@ -12169,7 +12166,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="107" t="s">
+      <c r="B101" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="96" t="s">
@@ -12197,7 +12194,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="108"/>
+      <c r="B102" s="107"/>
       <c r="C102" s="96" t="s">
         <v>154</v>
       </c>
@@ -12223,7 +12220,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="108"/>
+      <c r="B103" s="107"/>
       <c r="C103" s="96" t="s">
         <v>155</v>
       </c>
@@ -12318,7 +12315,7 @@
       <c r="A108" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="107" t="s">
+      <c r="B108" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="96" t="s">
@@ -12346,7 +12343,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="108"/>
+      <c r="B109" s="107"/>
       <c r="C109" s="96" t="s">
         <v>154</v>
       </c>
@@ -12372,7 +12369,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="108"/>
+      <c r="B110" s="107"/>
       <c r="C110" s="96" t="s">
         <v>155</v>
       </c>
@@ -12398,7 +12395,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="107" t="s">
+      <c r="B111" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="96" t="s">
@@ -12426,7 +12423,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="108"/>
+      <c r="B112" s="107"/>
       <c r="C112" s="96" t="s">
         <v>154</v>
       </c>
@@ -12452,7 +12449,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="108"/>
+      <c r="B113" s="107"/>
       <c r="C113" s="96" t="s">
         <v>155</v>
       </c>
@@ -12478,7 +12475,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="107" t="s">
+      <c r="B114" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="96" t="s">
@@ -12506,7 +12503,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="108"/>
+      <c r="B115" s="107"/>
       <c r="C115" s="96" t="s">
         <v>154</v>
       </c>
@@ -12532,7 +12529,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="108"/>
+      <c r="B116" s="107"/>
       <c r="C116" s="96" t="s">
         <v>155</v>
       </c>
@@ -12558,7 +12555,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="107" t="s">
+      <c r="B117" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="96" t="s">
@@ -12586,7 +12583,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="108"/>
+      <c r="B118" s="107"/>
       <c r="C118" s="96" t="s">
         <v>154</v>
       </c>
@@ -12612,7 +12609,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="108"/>
+      <c r="B119" s="107"/>
       <c r="C119" s="96" t="s">
         <v>155</v>
       </c>
@@ -12638,7 +12635,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="107" t="s">
+      <c r="B120" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="96" t="s">
@@ -12666,7 +12663,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="108"/>
+      <c r="B121" s="107"/>
       <c r="C121" s="96" t="s">
         <v>154</v>
       </c>
@@ -12692,7 +12689,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="108"/>
+      <c r="B122" s="107"/>
       <c r="C122" s="96" t="s">
         <v>155</v>
       </c>
@@ -12756,7 +12753,7 @@
       <c r="A125" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="107" t="s">
+      <c r="B125" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="96" t="s">
@@ -12784,7 +12781,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="108"/>
+      <c r="B126" s="107"/>
       <c r="C126" s="96" t="s">
         <v>154</v>
       </c>
@@ -12810,7 +12807,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="108"/>
+      <c r="B127" s="107"/>
       <c r="C127" s="96" t="s">
         <v>155</v>
       </c>
@@ -12836,7 +12833,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="107" t="s">
+      <c r="B128" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="96" t="s">
@@ -12864,7 +12861,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="108"/>
+      <c r="B129" s="107"/>
       <c r="C129" s="96" t="s">
         <v>154</v>
       </c>
@@ -12890,7 +12887,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="108"/>
+      <c r="B130" s="107"/>
       <c r="C130" s="96" t="s">
         <v>155</v>
       </c>
@@ -12916,7 +12913,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="107" t="s">
+      <c r="B131" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="96" t="s">
@@ -12944,7 +12941,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="108"/>
+      <c r="B132" s="107"/>
       <c r="C132" s="96" t="s">
         <v>154</v>
       </c>
@@ -12970,7 +12967,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="108"/>
+      <c r="B133" s="107"/>
       <c r="C133" s="96" t="s">
         <v>155</v>
       </c>
@@ -12996,7 +12993,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="107" t="s">
+      <c r="B134" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="96" t="s">
@@ -13024,7 +13021,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="108"/>
+      <c r="B135" s="107"/>
       <c r="C135" s="96" t="s">
         <v>154</v>
       </c>
@@ -13050,7 +13047,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="108"/>
+      <c r="B136" s="107"/>
       <c r="C136" s="96" t="s">
         <v>155</v>
       </c>
@@ -13076,7 +13073,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="107" t="s">
+      <c r="B137" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="96" t="s">
@@ -13104,7 +13101,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="108"/>
+      <c r="B138" s="107"/>
       <c r="C138" s="96" t="s">
         <v>154</v>
       </c>
@@ -13130,7 +13127,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="108"/>
+      <c r="B139" s="107"/>
       <c r="C139" s="96" t="s">
         <v>155</v>
       </c>
@@ -13194,7 +13191,7 @@
       <c r="A142" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="107" t="s">
+      <c r="B142" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="96" t="s">
@@ -13222,7 +13219,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="108"/>
+      <c r="B143" s="107"/>
       <c r="C143" s="96" t="s">
         <v>154</v>
       </c>
@@ -13248,7 +13245,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="108"/>
+      <c r="B144" s="107"/>
       <c r="C144" s="96" t="s">
         <v>155</v>
       </c>
@@ -13274,7 +13271,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="107" t="s">
+      <c r="B145" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="96" t="s">
@@ -13302,7 +13299,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="108"/>
+      <c r="B146" s="107"/>
       <c r="C146" s="96" t="s">
         <v>154</v>
       </c>
@@ -13328,7 +13325,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="108"/>
+      <c r="B147" s="107"/>
       <c r="C147" s="96" t="s">
         <v>155</v>
       </c>
@@ -13354,7 +13351,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="107" t="s">
+      <c r="B148" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="96" t="s">
@@ -13382,7 +13379,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="108"/>
+      <c r="B149" s="107"/>
       <c r="C149" s="96" t="s">
         <v>154</v>
       </c>
@@ -13408,7 +13405,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="108"/>
+      <c r="B150" s="107"/>
       <c r="C150" s="96" t="s">
         <v>155</v>
       </c>
@@ -13434,7 +13431,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="107" t="s">
+      <c r="B151" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="96" t="s">
@@ -13462,7 +13459,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="108"/>
+      <c r="B152" s="107"/>
       <c r="C152" s="96" t="s">
         <v>154</v>
       </c>
@@ -13488,7 +13485,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="108"/>
+      <c r="B153" s="107"/>
       <c r="C153" s="96" t="s">
         <v>155</v>
       </c>
@@ -13514,7 +13511,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="107" t="s">
+      <c r="B154" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="96" t="s">
@@ -13542,7 +13539,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="108"/>
+      <c r="B155" s="107"/>
       <c r="C155" s="96" t="s">
         <v>154</v>
       </c>
@@ -13568,7 +13565,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="108"/>
+      <c r="B156" s="107"/>
       <c r="C156" s="96" t="s">
         <v>155</v>
       </c>
@@ -13622,8 +13619,44 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RTr4YZRu8YgEhwPv+AHrSbFfDBSY4RyMZjpGsfANknFZnbqk8IoT2YkbMvh96sgywM/9htRw6ycs96Ng0+qUwg==" saltValue="wGHiKLNQ4tNRiisLHkSyaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="b8R9t8jeSI0sLoPGI/Stvvwq+qu6i3DHlmM5/Ej74qWHz397U05KGTaYXTnTsHAAodjArEgW8nmZLfDu5BHyaw==" saltValue="lbdnZHrOUuVjzEfEpwwUXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -13633,42 +13666,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14889,7 +14886,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="73L0fVO8LMo+kDtmJhCju+UvrRENvcMghbtG2DIDoYoUueGHh3fnDbQJi93zW/L+JF+NeqcCLX2VRrj6zAPLZQ==" saltValue="D65V9WpNDEG+yFkenC+9xg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="okPXMSK+zlzR33u1iDfkRTXBjfA0319xRk+HKYZpJ6xC1oPPPbcYu7isDbzkQI8md6wm4Hn7HLrAjnPaXs+J9Q==" saltValue="ZiQyxpEzGZWnqXlMVX8PdA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -14923,7 +14920,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>226</v>
       </c>
@@ -15653,7 +15650,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
         <v>279</v>
       </c>
@@ -17806,7 +17803,7 @@
       <c r="G111" s="64"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="72" t="s">
         <v>226</v>
       </c>
@@ -18463,7 +18460,7 @@
       <c r="G138" s="64"/>
       <c r="H138" s="64"/>
     </row>
-    <row r="139" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="72" t="s">
         <v>279</v>
       </c>
@@ -20378,7 +20375,7 @@
       <c r="H221" s="64"/>
       <c r="I221" s="64"/>
     </row>
-    <row r="222" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="72" t="s">
         <v>226</v>
       </c>
@@ -23028,7 +23025,7 @@
       <c r="I328" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dGG8XXi7a+jL4CoFf/FukHStbtAQ5tz+hS1o5HZEed6GAwWJuE/GjC3rEDInTRD3DQe3jqnF+oAnKPtKDhSv5w==" saltValue="SK0Xtc8MCMxxAk6I1mdbVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6KMYBLEwhLpw1MNfoY9xPW6nyoX/kpzjx3oBSg8yPbMIymYWY2dBmFqMR0PGgJGoaeaSq0tjy7o1T7ivGwJE6A==" saltValue="HxNFxBG7fh/WVQu+PM0Eyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23328,16 +23325,16 @@
     </row>
     <row r="20" spans="1:7" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="E20" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="F20" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -23703,16 +23700,16 @@
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="E43" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="F43" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>73</v>
       </c>
       <c r="G43" s="58"/>
     </row>
@@ -24083,16 +24080,16 @@
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="E66" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="F66" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>73</v>
       </c>
       <c r="G66" s="58"/>
     </row>
@@ -24118,7 +24115,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="94d3F9twXAARU74Ouuuh8fEcC6eZgpkUZp687NJ38x2YVhL2dE2zBZdCmodoJstZgJwIBrOe9DMBftEtpjmIQQ==" saltValue="c/a7gIaGENrGAw+CEemeYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LSs9ao/O/kpw/pnOZIJ7VH5m9KdpYNLoF9+NnYezk183ILPgjCM286MeKyC3VdP/5OcrXZ9AP/fzyJymdOWp/Q==" saltValue="GFrcYtlgB0yqzW5kumkoVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -24168,7 +24165,7 @@
         <v>168</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C2" s="85">
         <v>0.21</v>
@@ -24186,7 +24183,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C3" s="85">
         <v>1</v>
@@ -24206,7 +24203,7 @@
         <v>180</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C4" s="85">
         <v>0.15</v>
@@ -24224,7 +24221,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69"/>
       <c r="B5" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C5" s="85">
         <v>1</v>
@@ -24244,7 +24241,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C6" s="85">
         <v>0.15</v>
@@ -24262,7 +24259,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69"/>
       <c r="B7" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C7" s="85">
         <v>1</v>
@@ -24282,7 +24279,7 @@
         <v>182</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C8" s="85">
         <v>0.35</v>
@@ -24300,7 +24297,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69"/>
       <c r="B9" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C9" s="85">
         <v>1</v>
@@ -24320,7 +24317,7 @@
         <v>186</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C10" s="85">
         <v>0.35</v>
@@ -24338,7 +24335,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69"/>
       <c r="B11" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C11" s="85">
         <v>1</v>
@@ -24358,7 +24355,7 @@
         <v>190</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C12" s="85">
         <v>0.23</v>
@@ -24376,7 +24373,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="69"/>
       <c r="B13" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C13" s="85">
         <v>1</v>
@@ -24419,7 +24416,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C17" s="85">
         <f t="shared" ref="C17:F28" si="0">C2*0.9</f>
@@ -24441,7 +24438,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
       <c r="B18" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C18" s="85">
         <f t="shared" si="0"/>
@@ -24465,7 +24462,7 @@
         <v>180</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C19" s="85">
         <f t="shared" si="0"/>
@@ -24487,7 +24484,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69"/>
       <c r="B20" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C20" s="85">
         <f t="shared" si="0"/>
@@ -24511,7 +24508,7 @@
         <v>181</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C21" s="85">
         <f t="shared" si="0"/>
@@ -24533,7 +24530,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
       <c r="B22" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C22" s="85">
         <f t="shared" si="0"/>
@@ -24557,7 +24554,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C23" s="85">
         <f t="shared" si="0"/>
@@ -24579,7 +24576,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="69"/>
       <c r="B24" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C24" s="85">
         <f t="shared" si="0"/>
@@ -24603,7 +24600,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C25" s="85">
         <f t="shared" si="0"/>
@@ -24625,7 +24622,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69"/>
       <c r="B26" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C26" s="85">
         <f t="shared" si="0"/>
@@ -24649,7 +24646,7 @@
         <v>190</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C27" s="85">
         <f t="shared" si="0"/>
@@ -24671,7 +24668,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="69"/>
       <c r="B28" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C28" s="85">
         <f t="shared" si="0"/>
@@ -24718,7 +24715,7 @@
         <v>168</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C32" s="85">
         <f t="shared" ref="C32:F43" si="1">C2*1.05</f>
@@ -24740,7 +24737,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="69"/>
       <c r="B33" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C33" s="85">
         <f t="shared" si="1"/>
@@ -24764,7 +24761,7 @@
         <v>180</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C34" s="85">
         <f t="shared" si="1"/>
@@ -24786,7 +24783,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="69"/>
       <c r="B35" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C35" s="85">
         <f t="shared" si="1"/>
@@ -24810,7 +24807,7 @@
         <v>181</v>
       </c>
       <c r="B36" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C36" s="85">
         <f t="shared" si="1"/>
@@ -24832,7 +24829,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C37" s="85">
         <f t="shared" si="1"/>
@@ -24856,7 +24853,7 @@
         <v>182</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C38" s="85">
         <f t="shared" si="1"/>
@@ -24878,7 +24875,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="69"/>
       <c r="B39" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C39" s="85">
         <f t="shared" si="1"/>
@@ -24902,7 +24899,7 @@
         <v>186</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C40" s="85">
         <f t="shared" si="1"/>
@@ -24924,7 +24921,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="69"/>
       <c r="B41" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C41" s="85">
         <f t="shared" si="1"/>
@@ -24948,7 +24945,7 @@
         <v>190</v>
       </c>
       <c r="B42" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C42" s="85">
         <f t="shared" si="1"/>
@@ -24970,7 +24967,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="69"/>
       <c r="B43" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C43" s="85">
         <f t="shared" si="1"/>
@@ -24990,7 +24987,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q8XKjg5CQxyChNG9SjU60kVeTRx2UYBbhiLJlXZtfHq+DNvg+6dM4y6161arbLjO1ms61KPKYxq/P1dNI5kYPA==" saltValue="9IdfLMP8UyssZTYZWsiJyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HRccPywEXAaxAU11UUv1rDec76QbQMXW2s0qOqmX0dPJUQoIjF9ojnOoOgczPSHgeiC4i8UzZFwetZnn7YzIlg==" saltValue="T3yumRyXKwxPx3xmfS91cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -25035,16 +25032,16 @@
         <v>99</v>
       </c>
       <c r="H1" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>72</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>73</v>
       </c>
       <c r="L1" s="57" t="s">
         <v>122</v>
@@ -25061,7 +25058,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -25638,7 +25635,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B17" s="65"/>
     </row>
@@ -25842,16 +25839,16 @@
         <v>99</v>
       </c>
       <c r="H24" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="J24" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="K24" s="57" t="s">
         <v>72</v>
-      </c>
-      <c r="K24" s="57" t="s">
-        <v>73</v>
       </c>
       <c r="L24" s="57" t="s">
         <v>122</v>
@@ -25868,7 +25865,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -26614,7 +26611,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B40" s="65"/>
     </row>
@@ -26870,16 +26867,16 @@
         <v>99</v>
       </c>
       <c r="H47" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="I47" s="57" t="s">
+      <c r="J47" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="57" t="s">
+      <c r="K47" s="57" t="s">
         <v>72</v>
-      </c>
-      <c r="K47" s="57" t="s">
-        <v>73</v>
       </c>
       <c r="L47" s="57" t="s">
         <v>122</v>
@@ -26896,7 +26893,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -27642,7 +27639,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B63" s="65"/>
     </row>
@@ -27875,7 +27872,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0ZkIG0xXH27VS56XXDI7tKEqXHOUT4KGKqx85Syc8w7Kgfsi7Xl2kpCXOqylV2yUF9V9Q/WY4UMm/95NitvrDQ==" saltValue="rejMo134z258eD+42WlarA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+rjILp76Fk2RvgFGbcRzZ8chd0M7gSq+lbYG+AWwLZFYFTWLHnGS+DBYpngbVqHSRvMvzukkv1YKyW+8XQLpuw==" saltValue="5UeIxArmn83B60Rtq6fk/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -27922,7 +27919,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -27947,7 +27944,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B4" s="65"/>
       <c r="C4" s="77"/>
@@ -27978,7 +27975,7 @@
     </row>
     <row r="7" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -28002,7 +27999,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -28032,7 +28029,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B11" s="65"/>
       <c r="C11" s="77"/>
@@ -28068,7 +28065,7 @@
     </row>
     <row r="14" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -28092,7 +28089,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -28122,7 +28119,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="77"/>
@@ -28157,7 +28154,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="79hDzam5WrL+oEjr5RoCdypb/zTML8BczRMNPRyYMX0yM2Ea7KKOGGuZHRW9CtkihZvBEMo5zmsY9K/kEpcgRA==" saltValue="03OiLDi5JhJXmtLK47QmoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GZv9r3KZTV1tDDqz5c5/WiuiuQRej7S6Zu3TFYmMkykc65vD/OaYElSvt9ymKfu22H/u+Y0ngJvryyWFjFUV2Q==" saltValue="sZsUoPUH3wEBYKNfKhOVBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -28170,8 +28167,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H53"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28193,7 +28190,7 @@
         <v>160</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C1" s="76" t="s">
         <v>12</v>
@@ -28222,7 +28219,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D2" s="85">
         <v>0</v>
@@ -28242,7 +28239,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D3" s="85">
         <v>0</v>
@@ -28262,7 +28259,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D4" s="85">
         <v>0</v>
@@ -28288,7 +28285,7 @@
         <v>208</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D5" s="85">
         <v>0</v>
@@ -28308,7 +28305,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D6" s="85">
         <v>0</v>
@@ -28331,7 +28328,7 @@
         <v>209</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D7" s="85">
         <v>0</v>
@@ -28351,7 +28348,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D8" s="85">
         <v>0</v>
@@ -28377,7 +28374,7 @@
         <v>208</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D9" s="85">
         <v>0</v>
@@ -28397,7 +28394,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D10" s="85">
         <v>0</v>
@@ -28420,7 +28417,7 @@
         <v>209</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D11" s="85">
         <v>0</v>
@@ -28440,7 +28437,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D12" s="85">
         <v>0</v>
@@ -28466,7 +28463,7 @@
         <v>208</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D13" s="85">
         <v>0</v>
@@ -28486,7 +28483,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D14" s="85">
         <v>0</v>
@@ -28509,7 +28506,7 @@
         <v>209</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D15" s="85">
         <v>0</v>
@@ -28529,7 +28526,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D16" s="85">
         <v>0</v>
@@ -28555,7 +28552,7 @@
         <v>208</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D17" s="85">
         <v>0</v>
@@ -28575,7 +28572,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
@@ -28598,7 +28595,7 @@
         <v>209</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D19" s="85">
         <v>0</v>
@@ -28618,7 +28615,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D20" s="85">
         <v>0</v>
@@ -28644,7 +28641,7 @@
         <v>84</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D21" s="85">
         <v>0.28260869565217389</v>
@@ -28664,7 +28661,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D22" s="85">
         <v>0.46</v>
@@ -28690,7 +28687,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D23" s="85">
         <v>0.28260869565217389</v>
@@ -28710,7 +28707,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D24" s="85">
         <v>0.46</v>
@@ -28736,7 +28733,7 @@
         <v>84</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D25" s="85">
         <v>0.28260869565217389</v>
@@ -28756,7 +28753,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D26" s="85">
         <v>0.46</v>
@@ -28782,7 +28779,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D27" s="85">
         <v>1</v>
@@ -28802,7 +28799,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D28" s="85">
         <v>0</v>
@@ -28822,7 +28819,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D29" s="85">
         <v>0</v>
@@ -28848,7 +28845,7 @@
         <v>87</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D30" s="85">
         <v>1</v>
@@ -28868,7 +28865,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D31" s="85">
         <v>0</v>
@@ -28888,7 +28885,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D32" s="85">
         <v>0</v>
@@ -28914,7 +28911,7 @@
         <v>87</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D33" s="85">
         <v>1</v>
@@ -28934,7 +28931,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D34" s="85">
         <v>0</v>
@@ -28954,7 +28951,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D35" s="85">
         <v>0</v>
@@ -28980,7 +28977,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D36" s="85">
         <v>1</v>
@@ -29000,7 +28997,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D37" s="85">
         <v>0</v>
@@ -29020,7 +29017,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D38" s="85">
         <v>0</v>
@@ -29046,7 +29043,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D39" s="85">
         <v>1</v>
@@ -29066,7 +29063,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D40" s="85">
         <v>0</v>
@@ -29086,7 +29083,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D41" s="85">
         <v>0</v>
@@ -29112,7 +29109,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D42" s="85">
         <v>0.3</v>
@@ -29132,7 +29129,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D43" s="85">
         <v>0.5</v>
@@ -29152,7 +29149,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D44" s="85">
         <v>0.65</v>
@@ -29175,7 +29172,7 @@
         <v>88</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D45" s="85">
         <v>0.3</v>
@@ -29195,7 +29192,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D46" s="85">
         <v>0.49</v>
@@ -29215,7 +29212,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D47" s="85">
         <v>0.52</v>
@@ -29241,7 +29238,7 @@
         <v>87</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D48" s="85">
         <v>0.88</v>
@@ -29261,7 +29258,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D49" s="85">
         <v>0.78409090909090906</v>
@@ -29287,7 +29284,7 @@
         <v>87</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D50" s="85">
         <v>0.88372093023255816</v>
@@ -29307,7 +29304,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D51" s="85">
         <v>0.86</v>
@@ -29333,7 +29330,7 @@
         <v>82</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D52" s="85">
         <v>0.57999999999999996</v>
@@ -29353,7 +29350,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D53" s="85">
         <v>0.51</v>
@@ -29373,7 +29370,7 @@
     </row>
     <row r="55" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="92" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B55" s="93"/>
       <c r="C55" s="93"/>
@@ -29383,7 +29380,7 @@
         <v>160</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C56" s="76" t="s">
         <v>12</v>
@@ -29412,7 +29409,7 @@
         <v>87</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D57" s="85">
         <f t="shared" ref="D57:H66" si="0">D2*0.9</f>
@@ -29437,7 +29434,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D58" s="85">
         <f t="shared" si="0"/>
@@ -29462,7 +29459,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D59" s="85">
         <f t="shared" si="0"/>
@@ -29493,7 +29490,7 @@
         <v>208</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D60" s="85">
         <f t="shared" si="0"/>
@@ -29518,7 +29515,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D61" s="85">
         <f t="shared" si="0"/>
@@ -29546,7 +29543,7 @@
         <v>209</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D62" s="85">
         <f t="shared" si="0"/>
@@ -29571,7 +29568,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D63" s="85">
         <f t="shared" si="0"/>
@@ -29602,7 +29599,7 @@
         <v>208</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D64" s="85">
         <f t="shared" si="0"/>
@@ -29627,7 +29624,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D65" s="85">
         <f t="shared" si="0"/>
@@ -29655,7 +29652,7 @@
         <v>209</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D66" s="85">
         <f t="shared" si="0"/>
@@ -29680,7 +29677,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D67" s="85">
         <f t="shared" ref="D67:H76" si="1">D12*0.9</f>
@@ -29711,7 +29708,7 @@
         <v>208</v>
       </c>
       <c r="C68" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D68" s="85">
         <f t="shared" si="1"/>
@@ -29736,7 +29733,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D69" s="85">
         <f t="shared" si="1"/>
@@ -29764,7 +29761,7 @@
         <v>209</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D70" s="85">
         <f t="shared" si="1"/>
@@ -29789,7 +29786,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D71" s="85">
         <f t="shared" si="1"/>
@@ -29820,7 +29817,7 @@
         <v>208</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D72" s="85">
         <f t="shared" si="1"/>
@@ -29845,7 +29842,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D73" s="85">
         <f t="shared" si="1"/>
@@ -29873,7 +29870,7 @@
         <v>209</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D74" s="85">
         <f t="shared" si="1"/>
@@ -29898,7 +29895,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D75" s="85">
         <f t="shared" si="1"/>
@@ -29929,7 +29926,7 @@
         <v>84</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D76" s="85">
         <f t="shared" si="1"/>
@@ -29954,7 +29951,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D77" s="85">
         <f t="shared" ref="D77:H86" si="2">D22*0.9</f>
@@ -29985,7 +29982,7 @@
         <v>84</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D78" s="85">
         <f t="shared" si="2"/>
@@ -30010,7 +30007,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D79" s="85">
         <f t="shared" si="2"/>
@@ -30041,7 +30038,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D80" s="85">
         <f t="shared" si="2"/>
@@ -30066,7 +30063,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C81" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D81" s="85">
         <f t="shared" si="2"/>
@@ -30097,7 +30094,7 @@
         <v>87</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D82" s="85">
         <f t="shared" si="2"/>
@@ -30122,7 +30119,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C83" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D83" s="85">
         <f t="shared" si="2"/>
@@ -30147,7 +30144,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D84" s="85">
         <f t="shared" si="2"/>
@@ -30178,7 +30175,7 @@
         <v>87</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D85" s="85">
         <f t="shared" si="2"/>
@@ -30203,7 +30200,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D86" s="85">
         <f t="shared" si="2"/>
@@ -30228,7 +30225,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D87" s="85">
         <f t="shared" ref="D87:H96" si="3">D32*0.9</f>
@@ -30259,7 +30256,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D88" s="85">
         <f t="shared" si="3"/>
@@ -30284,7 +30281,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D89" s="85">
         <f t="shared" si="3"/>
@@ -30309,7 +30306,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C90" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D90" s="85">
         <f t="shared" si="3"/>
@@ -30340,7 +30337,7 @@
         <v>87</v>
       </c>
       <c r="C91" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D91" s="85">
         <f t="shared" si="3"/>
@@ -30365,7 +30362,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D92" s="85">
         <f t="shared" si="3"/>
@@ -30390,7 +30387,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C93" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D93" s="85">
         <f t="shared" si="3"/>
@@ -30421,7 +30418,7 @@
         <v>87</v>
       </c>
       <c r="C94" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D94" s="85">
         <f t="shared" si="3"/>
@@ -30446,7 +30443,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C95" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D95" s="85">
         <f t="shared" si="3"/>
@@ -30471,7 +30468,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D96" s="85">
         <f t="shared" si="3"/>
@@ -30502,7 +30499,7 @@
         <v>87</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D97" s="85">
         <f t="shared" ref="D97:H106" si="4">D42*0.9</f>
@@ -30527,7 +30524,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D98" s="85">
         <f t="shared" si="4"/>
@@ -30552,7 +30549,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D99" s="85">
         <f t="shared" si="4"/>
@@ -30580,7 +30577,7 @@
         <v>88</v>
       </c>
       <c r="C100" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D100" s="85">
         <f t="shared" si="4"/>
@@ -30605,7 +30602,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D101" s="85">
         <f t="shared" si="4"/>
@@ -30630,7 +30627,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D102" s="85">
         <f t="shared" si="4"/>
@@ -30661,7 +30658,7 @@
         <v>87</v>
       </c>
       <c r="C103" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D103" s="85">
         <f t="shared" si="4"/>
@@ -30686,7 +30683,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D104" s="85">
         <f t="shared" si="4"/>
@@ -30717,7 +30714,7 @@
         <v>87</v>
       </c>
       <c r="C105" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D105" s="85">
         <f t="shared" si="4"/>
@@ -30742,7 +30739,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D106" s="85">
         <f t="shared" si="4"/>
@@ -30773,7 +30770,7 @@
         <v>82</v>
       </c>
       <c r="C107" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D107" s="85">
         <f t="shared" ref="D107:H108" si="5">D52*0.9</f>
@@ -30798,7 +30795,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D108" s="85">
         <f t="shared" si="5"/>
@@ -30823,7 +30820,7 @@
     </row>
     <row r="110" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="92" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
@@ -30833,7 +30830,7 @@
         <v>160</v>
       </c>
       <c r="B111" s="52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C111" s="76" t="s">
         <v>12</v>
@@ -30862,7 +30859,7 @@
         <v>87</v>
       </c>
       <c r="C112" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D112" s="85">
         <f t="shared" ref="D112:H121" si="6">D2*1.05</f>
@@ -30887,7 +30884,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C113" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D113" s="85">
         <f t="shared" si="6"/>
@@ -30912,7 +30909,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C114" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D114" s="85">
         <f t="shared" si="6"/>
@@ -30943,7 +30940,7 @@
         <v>208</v>
       </c>
       <c r="C115" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D115" s="85">
         <f t="shared" si="6"/>
@@ -30968,7 +30965,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D116" s="85">
         <f t="shared" si="6"/>
@@ -30996,7 +30993,7 @@
         <v>209</v>
       </c>
       <c r="C117" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D117" s="85">
         <f t="shared" si="6"/>
@@ -31021,7 +31018,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D118" s="85">
         <f t="shared" si="6"/>
@@ -31052,7 +31049,7 @@
         <v>208</v>
       </c>
       <c r="C119" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D119" s="85">
         <f t="shared" si="6"/>
@@ -31077,7 +31074,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C120" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D120" s="85">
         <f t="shared" si="6"/>
@@ -31105,7 +31102,7 @@
         <v>209</v>
       </c>
       <c r="C121" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D121" s="85">
         <f t="shared" si="6"/>
@@ -31130,7 +31127,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D122" s="85">
         <f t="shared" ref="D122:H131" si="7">D12*1.05</f>
@@ -31161,7 +31158,7 @@
         <v>208</v>
       </c>
       <c r="C123" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D123" s="85">
         <f t="shared" si="7"/>
@@ -31186,7 +31183,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="85">
         <f t="shared" si="7"/>
@@ -31214,7 +31211,7 @@
         <v>209</v>
       </c>
       <c r="C125" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D125" s="85">
         <f t="shared" si="7"/>
@@ -31239,7 +31236,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D126" s="85">
         <f t="shared" si="7"/>
@@ -31270,7 +31267,7 @@
         <v>208</v>
       </c>
       <c r="C127" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D127" s="85">
         <f t="shared" si="7"/>
@@ -31295,7 +31292,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D128" s="85">
         <f t="shared" si="7"/>
@@ -31323,7 +31320,7 @@
         <v>209</v>
       </c>
       <c r="C129" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D129" s="85">
         <f t="shared" si="7"/>
@@ -31348,7 +31345,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C130" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D130" s="85">
         <f t="shared" si="7"/>
@@ -31379,7 +31376,7 @@
         <v>84</v>
       </c>
       <c r="C131" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D131" s="85">
         <f t="shared" si="7"/>
@@ -31404,7 +31401,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C132" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D132" s="85">
         <f t="shared" ref="D132:H141" si="8">D22*1.05</f>
@@ -31435,7 +31432,7 @@
         <v>84</v>
       </c>
       <c r="C133" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D133" s="85">
         <f t="shared" si="8"/>
@@ -31460,7 +31457,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D134" s="85">
         <f t="shared" si="8"/>
@@ -31491,7 +31488,7 @@
         <v>84</v>
       </c>
       <c r="C135" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D135" s="85">
         <f t="shared" si="8"/>
@@ -31516,7 +31513,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D136" s="85">
         <f t="shared" si="8"/>
@@ -31547,7 +31544,7 @@
         <v>87</v>
       </c>
       <c r="C137" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D137" s="85">
         <f t="shared" si="8"/>
@@ -31572,7 +31569,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C138" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D138" s="85">
         <f t="shared" si="8"/>
@@ -31597,7 +31594,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C139" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D139" s="85">
         <f t="shared" si="8"/>
@@ -31628,7 +31625,7 @@
         <v>87</v>
       </c>
       <c r="C140" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D140" s="85">
         <f t="shared" si="8"/>
@@ -31653,7 +31650,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C141" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D141" s="85">
         <f t="shared" si="8"/>
@@ -31678,7 +31675,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D142" s="85">
         <f t="shared" ref="D142:H151" si="9">D32*1.05</f>
@@ -31709,7 +31706,7 @@
         <v>87</v>
       </c>
       <c r="C143" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D143" s="85">
         <f t="shared" si="9"/>
@@ -31734,7 +31731,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C144" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D144" s="85">
         <f t="shared" si="9"/>
@@ -31759,7 +31756,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C145" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D145" s="85">
         <f t="shared" si="9"/>
@@ -31790,7 +31787,7 @@
         <v>87</v>
       </c>
       <c r="C146" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D146" s="85">
         <f t="shared" si="9"/>
@@ -31815,7 +31812,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C147" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D147" s="85">
         <f t="shared" si="9"/>
@@ -31840,7 +31837,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C148" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D148" s="85">
         <f t="shared" si="9"/>
@@ -31871,7 +31868,7 @@
         <v>87</v>
       </c>
       <c r="C149" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D149" s="85">
         <f t="shared" si="9"/>
@@ -31896,7 +31893,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C150" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D150" s="85">
         <f t="shared" si="9"/>
@@ -31921,7 +31918,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C151" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D151" s="85">
         <f t="shared" si="9"/>
@@ -31952,7 +31949,7 @@
         <v>87</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D152" s="85">
         <f t="shared" ref="D152:H161" si="10">D42*1.05</f>
@@ -31977,7 +31974,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C153" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D153" s="85">
         <f t="shared" si="10"/>
@@ -32002,7 +31999,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C154" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D154" s="85">
         <f t="shared" si="10"/>
@@ -32030,7 +32027,7 @@
         <v>88</v>
       </c>
       <c r="C155" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D155" s="85">
         <f t="shared" si="10"/>
@@ -32055,7 +32052,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C156" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D156" s="85">
         <f t="shared" si="10"/>
@@ -32080,7 +32077,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C157" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D157" s="85">
         <f t="shared" si="10"/>
@@ -32111,7 +32108,7 @@
         <v>87</v>
       </c>
       <c r="C158" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D158" s="85">
         <f t="shared" si="10"/>
@@ -32136,7 +32133,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C159" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D159" s="85">
         <f t="shared" si="10"/>
@@ -32167,7 +32164,7 @@
         <v>87</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D160" s="85">
         <f t="shared" si="10"/>
@@ -32192,7 +32189,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C161" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D161" s="85">
         <f t="shared" si="10"/>
@@ -32223,7 +32220,7 @@
         <v>82</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D162" s="85">
         <f t="shared" ref="D162:H163" si="11">D52*1.05</f>
@@ -32248,7 +32245,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D163" s="85">
         <f t="shared" si="11"/>
@@ -32272,7 +32269,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vc3h5nfsJK7iKj49GvDqPkcO6snZ2y/0hmiXrz/+9w3374wL+zU3/rVLwkzcpJ60HMtYAkmmBNM7lBXhlqJ/eA==" saltValue="pb1HI+/ZQEE9+vi6WEG+vw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UIpK/0EAR92GfzxR6Dg8WmQkf1Ww91D/dV39Wx6GjZEye+SIEfqRKzwpwFNRz8QTSiCS9AJikBul8LUTfeqUIQ==" saltValue="QuxvPQBHDzI3jEpCxTxzyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -32304,7 +32301,7 @@
         <v>160</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="52" t="s">
@@ -32329,7 +32326,7 @@
         <v>104</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D2" s="85">
         <v>1</v>
@@ -32347,7 +32344,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D3" s="85">
         <v>0.2</v>
@@ -32371,7 +32368,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D4" s="85">
         <v>1</v>
@@ -32389,7 +32386,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D5" s="85">
         <v>0.59</v>
@@ -32413,7 +32410,7 @@
         <v>104</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D6" s="85">
         <v>1</v>
@@ -32431,7 +32428,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D7" s="85">
         <v>0.6</v>
@@ -32449,7 +32446,7 @@
     </row>
     <row r="9" spans="1:8" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="88" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -32457,7 +32454,7 @@
         <v>160</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="52" t="s">
@@ -32481,7 +32478,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" ref="D11:G16" si="0">D2*0.9</f>
@@ -32502,7 +32499,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="0"/>
@@ -32529,7 +32526,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="0"/>
@@ -32550,7 +32547,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D14" s="85">
         <f t="shared" si="0"/>
@@ -32577,7 +32574,7 @@
         <v>104</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D15" s="85">
         <f t="shared" si="0"/>
@@ -32598,7 +32595,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D16" s="85">
         <f t="shared" si="0"/>
@@ -32619,7 +32616,7 @@
     </row>
     <row r="18" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="88" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -32627,7 +32624,7 @@
         <v>160</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="52" t="s">
@@ -32651,7 +32648,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D20" s="85">
         <f t="shared" ref="D20:G25" si="1">D2*1.05</f>
@@ -32672,7 +32669,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D21" s="85">
         <f t="shared" si="1"/>
@@ -32699,7 +32696,7 @@
         <v>104</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D22" s="85">
         <f t="shared" si="1"/>
@@ -32720,7 +32717,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D23" s="85">
         <f t="shared" si="1"/>
@@ -32747,7 +32744,7 @@
         <v>104</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D24" s="85">
         <f t="shared" si="1"/>
@@ -32768,7 +32765,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D25" s="85">
         <f t="shared" si="1"/>
@@ -32788,7 +32785,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C81VN1Mc5RLvIRGWFGIm1pzzxDAMBVfb7WYh+/stGexEzTwMsu/gsOFGKIboSEX4YpLXnfvLcARoIns1yxXt1A==" saltValue="elbTiNfSG9apWmhzoT5lzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lYMDmlT0x9r8DoVYcPzojUiH6/qvzyR3ekqbtIF33CloEtvBWawfBzAVmt4Hj/5ZiM3OYzd2mD+3gVOQqm6gNA==" saltValue="l+hS+N/Z8ccIphk8roYmEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32801,7 +32798,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F13"/>
+      <selection activeCell="C11" activeCellId="2" sqref="C35 C23:F23 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32912,16 +32909,16 @@
       <c r="B13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="11"/>
@@ -33119,9 +33116,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="td87MFi//N0oYbQW4FJqL8KHKjtLjyXOQv2Fnj8k3s/V3M5Tjmv2Lswe/OUvHQaRFO7OxnToTfhNe1utLJth+w==" saltValue="PLNJ2vzx4pBzTE1EXYs3lA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="an1e5ZuNxdAjpqp+GPpiMKRl+dgZd2ee1+nk+6Gq7gMYS652N3DNsXbOSU6to2AV2jOYd98V1MSDv9rlTk+nDA==" saltValue="Dq+Lw09k5RjsLoeVINiZKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -33374,16 +33371,16 @@
         <v>125</v>
       </c>
       <c r="L13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33476,7 +33473,7 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="w6cq8WBQPG4V3O3oEQK8MovICXrKeuZiAJ5DbXmpf48olf+bDVv24KPVPAdLJnawceWP08xvLTNg4Y+pvQKJSw==" saltValue="CiQcIJtsPjF4LibalgYv9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2HRKReaaZU/JmppBIByWs50FCSCvXB9dUJ13tle8a8X9CKD4hz3SOp6+eVfmSPZNHc0SEhMjvBd553Y4jBcyWA==" saltValue="J4X0Of4f+wcEJ9bFrd5d0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33582,7 +33579,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U/eS5v7EXSmAn00lfyjl9tBmHxRjgMnb8NecugK1krTq5/YkdxYj/DYAILZvXsoYcLRWrFQles/NKKedqqZ2PQ==" saltValue="XQM2gTttGm0dcEf0MOxgGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="E0lFu8DnBZfXSupDZMMeEpjm25ywkIOpuWEbJe0bOU+2awyZCHbPpfDTgIPGQjqMY+74x1qdpxEK8TgUr4KX3A==" saltValue="6SE4uOdLt9RP273PpDBfWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -33789,7 +33786,7 @@
       <c r="K14" s="104"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eEaq4hwW/7e1l0vgbDNS3fajfYElkaGLTQrhaGPWzfbsDZQA6uUfkYbekVlUjlGgels2B0wd9wD+0wcAuUqrEw==" saltValue="tMrFjEneTaTJqXNQIQdQtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vCyV+1biBiVAbQ3Ly4HdRr2jGgdhKR0n6CsavF0/OwEHaMIRfzq05WEh64Rsu08xFnWX9mSVklfWweZ3FA/yiw==" saltValue="2Vbdf1Pg/gRfPA6Tj2Zejg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -33806,7 +33803,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.44140625" style="102" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="102" customWidth="1"/>
@@ -33870,7 +33867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2LOBj/YpdhPHKw+5sgkLSzz2VLKrC3x/aNw1L8Ryv1vsmfbhBw9S3GiII73SlR0WhBuo5PwFCWEkyaHS0i9FUA==" saltValue="nzThz533uEgQeDoJWgS2qA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7D0mBN8J9e4iOlHphCDvkLocGWCi+qMvstyXAiJ/TwuWTqCSncZBfYhcBPTYq/mpS7HXmEpT/Fg6lg1pmHgsKg==" saltValue="P6PgXvkBYHqU82Ry0wxaSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34131,7 +34128,7 @@
       <c r="E21" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="poui83KaCBAoKYyXFS/EBJrduA72lo3izQaITvLoutcBuutY6Xaf0EMEYDdZP5CtZYUtsOsa4m4nsQ56ifyN1A==" saltValue="RHpP1NO8c7Y3zlqmzK+AMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ENgGoaoeZZFZhfYusApS/h17v9ZhtUROsuHdep3EFDoyFEh8+eEsqmd075PiuQ12mVWFSmvTEMdN/TFEoiymBA==" saltValue="xLj3nJngA7mrEL7Su51p7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -34195,7 +34192,7 @@
       <c r="D3" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XHIUVwXG2IIwH1pYQNEOoouQVVv5UB2RghLIfz0GSfVSCAgUf0tXcaQIjxcFSK7CzBrJxKfLku1n2lMB2Itehg==" saltValue="VwWo/otmT96NRdsZ1OFKeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jFR9wEPtCWRgN0352G0jz9RDbxlUwZA/YIHZ+8Bn0o0/TOyu+WovStW8qj66o94I126RU0rVLTROQraln3SePQ==" saltValue="AaFln+yxs5EPklVaRDmTuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/Optima_template.xlsx
+++ b/inputs/fr/Optima_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF5ED2CD-BF1D-4717-A4A8-C8A4EB229C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ECE51E1-90B3-4610-BE73-B48708B589F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données pop de l'année de ref" sheetId="1" r:id="rId1"/>
@@ -1434,7 +1434,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1550,6 +1550,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1695,7 +1701,7 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1941,6 +1947,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2707,7 +2716,7 @@
       <c r="A63" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ghjhUeOjSu54joBj/6evx4SDOum03F8iG0XenhK4Pa/EwlZsPGOFRJixryTp+uMxjrhg9XtQ76Ucb9iWhxMXFQ==" saltValue="6XF2re2LSlNjO/MuSAZoeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+IEGaV2caiGfb5SmbcObz0yJCt4xlEnw7vZThEN7hJuAPecovyMN9UeoyDuQDdMlcMKxNllJ9A94HXnttzs7xA==" saltValue="cEpx7e3ghIA3iGELhbn74g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3485,7 +3494,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GBFqQ1iF93dEd59wJXA7pcbnXCVpV0RezbRViSZfi/bduF6KA5Dd9rCXSXyKq7O8MdVBMMat/LGYPQqJRLRvww==" saltValue="urH8ZbYbNH6KtG9hK5BoRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0npTeXLIq7GGMLHaFw2lTCrleYEKPJuXwmbRJ93N+FsrzvcDylN+qg5MelbXkGUPjL/CjF8a3UnozTjYkwXz6w==" saltValue="II+8cjWkWXd1fap2uA6Quw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3635,7 +3644,7 @@
       <c r="C20" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TsMTEjhQfsDbwsiN2V+FBa4JMAXczw+QDtstVKRV4SDzGYsfvINP0HeeyWi6mulLny3Nl6q79FdNypIwLaBXjg==" saltValue="Yw40EVFeXNYoZBE+C5fnYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F5iiWVCPXTctLOwL8V//E2NOpkpMc3Eob2o+o5FNUpQ7KtI5qOOdFe8rxffouC2+qylvPiGKU/o5ruYsrXj/UQ==" saltValue="gOjGz0Nx5OSx2UuUy403Ww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3736,7 +3745,7 @@
       <c r="A19" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t0CyKfEx1I874FzE9dsSxBS3LQMZrT9nU6A72sZRprGCfdri1/dbgM35oJr4+2q16z6w3OHbR3il2pah1Sl+Ew==" saltValue="j/CnLEAB8t4G00F9av2H6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SILewYvMApt4Cvc/pmQPgG0S13aj/SJmiUQ4NL/uDcr+7x+wZGEeIjJt0bSDFRnFo7+6kGz/utCB/r0/FlNCIg==" saltValue="sPMMqGBpY1zUu1vJtnb41Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3851,7 +3860,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2cFkuka0oEeAi9H2OF1nLhHVawyD85c93XXPAC1Bg80GTVoFZpnkIF/09//41z/qu0tGgbxRDPZDegQQRN10SA==" saltValue="tiLNytLFgmF4TnAeaeFqxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6NUTMxYJ83xaQ/VEzm+RE2MbfT+FChDjgmeO76F0rtaRsW1IoMeoUfUyJrG//Lc0eVYH/9iSGBjp/CVFt1Cnlg==" saltValue="B9nG3fMT9BvkNk5GiE8Siw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5612,7 +5621,7 @@
       <c r="B40" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+bxYXci6bnWo8YDlvguRL8pZC+EpiXWiZQ2y+CXge31/fxdRmZk5MZBv9kTDF1r/wxJTgrtAblgD83BwZ2Du9A==" saltValue="MQwBi5TN/eRjxZV8o0LR8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QOelA5BWM/PXJcFkxhyFj3N4hbHvG+eZjHzpLywY0sYrbF8HOnPhkuQTzzU0X5Kw5SIcxkCPxNpaxf86VR0MQQ==" saltValue="u8lXcte+SpEsrY0eSWM8cg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5647,7 +5656,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0PlOxcUVy+LSsKkrUd4raCgz2ElKDw8Mg2k3z+RW5mN0mDxikfsk2jm13Fc7vve7UF4J9LkOVPdRxmgrWvsD5w==" saltValue="1mEBSNNlA2Wx29udY7yn8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YSbELESYHGtPZNMtYrCuGVRnmhVxg0Uw7Kh206BvKWP+FPvy5gxh5uDIELN5JYrYTPkWCt1YwSVcNndSt5KnkA==" saltValue="yJdyq7bcpY6lE0aZ72DM7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5853,7 +5862,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="85OjQu6BmVrfigLSUaRCwVbeeKO+ykTOFQFhNLUTAEZ5VQlAU1fC3xuefVNrN4PLCvLOmUerIgXbmFK363INHg==" saltValue="4TFXvF/atEdhqT7iaUNb5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dPOoatMWv2wLc2tNkz2i4izWpOr6po6siNnDrPZc2xs4Z9O1lcE+Z5ISIKsHUneI7PdqXpx2m7HyONkbEuqpYg==" saltValue="0so6r//NAvJ5V68AgtrhdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7668,7 +7677,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZKnPAUJhScrHU7iPo6k0Cz35vWKfdcryfAs+YenLA2BFdVXrYwJjHbC2rsyP52hFe4Q4h+44PfkXM6Gmf2AFxw==" saltValue="gmECP+wBJoL3RLMgtX6LkA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t+hxj+KpXZwkLd6EKs4i+oOqayThGvJy0fWjfkVlNo4aUXa0ih62vZ5ctwXe0VJ55gYC+cKccoPZ+y/5qsvJGw==" saltValue="eCpivUJUkCeXRs+O100FyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8436,7 +8445,7 @@
       <c r="K39" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="naYqbKOAbqCxPMk9FgI9KL20NaArNwSlh9KTgQEhwto/TEM+JrApyqClQs0IRVGtE8MC6fBvS1ny5mjVoZUSUQ==" saltValue="lxKrZTvhhSzjOQIrYgeOZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qzN1lfCZ2GS9N2qbpOxSOHK13zMF1GAuy7OH7jgtgsirSY6NrFZy+plCE0K5RzljkENceU/Zrqbg74rZNZMqng==" saltValue="yBFrajDxH5RGkOiBKCxnbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8811,7 +8820,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jOqS/UWFPAMlf9HNSKkYtelE9OwgtQwDhh47HVszWP5YFZab13jcOHr/gFk5YcTAGDlZOu2zUe+5yz4gPqt0zA==" saltValue="o9G99qbtQnn5dXhD5gzw1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u97/9/lbMPKo4oeXD5CnONYXPQtEgn/F6eB8kEmWbe94J9EVDgpDtXsBuwPTvNsLPcQfhkqOLs3wuTGQlRVkYg==" saltValue="Dgiz09BdE0FzztXAvUZGLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9801,7 +9810,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F7XnqcsfMF36HsHPq5glo44UkWbfoChY8CwFGqcmwyYulQZVzGfYBO47ByB1ETUpxkm1MIzw6Pvmuy8g5Ppqog==" saltValue="XvwOVbIWjwyJYz+XnK/toQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XK4NSTt0Wl6i+MDbWMOvPnz5WF+h1dNPG4s7zUKD2I6Yiqwp0r8vVxqgoiYCGeReWo3gBvwYUbFl3AT4ujE/AQ==" saltValue="f+mxH3KgjjySvbGHyzJ11g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -9862,7 +9871,7 @@
       <c r="A2" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="96" t="s">
@@ -9885,7 +9894,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="107"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="96" t="s">
         <v>154</v>
       </c>
@@ -9907,7 +9916,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="107"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="96" t="s">
         <v>155</v>
       </c>
@@ -9929,7 +9938,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="96" t="s">
@@ -9953,7 +9962,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="107"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="96" t="s">
         <v>154</v>
       </c>
@@ -9974,7 +9983,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="107"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="96" t="s">
         <v>155</v>
       </c>
@@ -9995,7 +10004,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="96" t="s">
@@ -10018,7 +10027,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="107"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="96" t="s">
         <v>154</v>
       </c>
@@ -10039,7 +10048,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="107"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="96" t="s">
         <v>155</v>
       </c>
@@ -10060,7 +10069,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -10083,7 +10092,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="107"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="96" t="s">
         <v>154</v>
       </c>
@@ -10104,7 +10113,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="107"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="96" t="s">
         <v>155</v>
       </c>
@@ -10125,7 +10134,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="96" t="s">
@@ -10148,7 +10157,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="107"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="96" t="s">
         <v>154</v>
       </c>
@@ -10169,7 +10178,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="107"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="96" t="s">
         <v>155</v>
       </c>
@@ -10223,7 +10232,7 @@
       <c r="A19" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="96" t="s">
@@ -10246,7 +10255,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="107"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="96" t="s">
         <v>154</v>
       </c>
@@ -10267,7 +10276,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="107"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="96" t="s">
         <v>155</v>
       </c>
@@ -10288,7 +10297,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="96" t="s">
@@ -10311,7 +10320,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="107"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="96" t="s">
         <v>154</v>
       </c>
@@ -10332,7 +10341,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="107"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="96" t="s">
         <v>155</v>
       </c>
@@ -10353,7 +10362,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="96" t="s">
@@ -10376,7 +10385,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="107"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="96" t="s">
         <v>154</v>
       </c>
@@ -10397,7 +10406,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="107"/>
+      <c r="B27" s="108"/>
       <c r="C27" s="96" t="s">
         <v>155</v>
       </c>
@@ -10418,7 +10427,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -10441,7 +10450,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="107"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="96" t="s">
         <v>154</v>
       </c>
@@ -10462,7 +10471,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="107"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="96" t="s">
         <v>155</v>
       </c>
@@ -10483,7 +10492,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="96" t="s">
@@ -10506,7 +10515,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="107"/>
+      <c r="B32" s="108"/>
       <c r="C32" s="96" t="s">
         <v>154</v>
       </c>
@@ -10527,7 +10536,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="107"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="96" t="s">
         <v>155</v>
       </c>
@@ -10581,7 +10590,7 @@
       <c r="A36" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="96" t="s">
@@ -10604,7 +10613,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="107"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="96" t="s">
         <v>154</v>
       </c>
@@ -10625,7 +10634,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="107"/>
+      <c r="B38" s="108"/>
       <c r="C38" s="96" t="s">
         <v>155</v>
       </c>
@@ -10646,7 +10655,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="96" t="s">
@@ -10669,7 +10678,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="107"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="96" t="s">
         <v>154</v>
       </c>
@@ -10690,7 +10699,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="107"/>
+      <c r="B41" s="108"/>
       <c r="C41" s="96" t="s">
         <v>155</v>
       </c>
@@ -10711,7 +10720,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="96" t="s">
@@ -10734,7 +10743,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="107"/>
+      <c r="B43" s="108"/>
       <c r="C43" s="96" t="s">
         <v>154</v>
       </c>
@@ -10755,7 +10764,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="107"/>
+      <c r="B44" s="108"/>
       <c r="C44" s="96" t="s">
         <v>155</v>
       </c>
@@ -10776,7 +10785,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="96" t="s">
@@ -10799,7 +10808,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="107"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="96" t="s">
         <v>154</v>
       </c>
@@ -10820,7 +10829,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="107"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="96" t="s">
         <v>155</v>
       </c>
@@ -10841,7 +10850,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="106" t="s">
+      <c r="B48" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="96" t="s">
@@ -10864,7 +10873,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="107"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="96" t="s">
         <v>154</v>
       </c>
@@ -10885,7 +10894,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="107"/>
+      <c r="B50" s="108"/>
       <c r="C50" s="96" t="s">
         <v>155</v>
       </c>
@@ -10970,7 +10979,7 @@
       <c r="A55" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="96" t="s">
@@ -10998,7 +11007,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="107"/>
+      <c r="B56" s="108"/>
       <c r="C56" s="96" t="s">
         <v>154</v>
       </c>
@@ -11024,7 +11033,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="107"/>
+      <c r="B57" s="108"/>
       <c r="C57" s="96" t="s">
         <v>155</v>
       </c>
@@ -11050,7 +11059,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="106" t="s">
+      <c r="B58" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="96" t="s">
@@ -11078,7 +11087,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="107"/>
+      <c r="B59" s="108"/>
       <c r="C59" s="96" t="s">
         <v>154</v>
       </c>
@@ -11104,7 +11113,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="107"/>
+      <c r="B60" s="108"/>
       <c r="C60" s="96" t="s">
         <v>155</v>
       </c>
@@ -11130,7 +11139,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="106" t="s">
+      <c r="B61" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="96" t="s">
@@ -11158,7 +11167,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="107"/>
+      <c r="B62" s="108"/>
       <c r="C62" s="96" t="s">
         <v>154</v>
       </c>
@@ -11184,7 +11193,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="107"/>
+      <c r="B63" s="108"/>
       <c r="C63" s="96" t="s">
         <v>155</v>
       </c>
@@ -11210,7 +11219,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="106" t="s">
+      <c r="B64" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="96" t="s">
@@ -11238,7 +11247,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="107"/>
+      <c r="B65" s="108"/>
       <c r="C65" s="96" t="s">
         <v>154</v>
       </c>
@@ -11264,7 +11273,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="107"/>
+      <c r="B66" s="108"/>
       <c r="C66" s="96" t="s">
         <v>155</v>
       </c>
@@ -11290,7 +11299,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="106" t="s">
+      <c r="B67" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="96" t="s">
@@ -11318,7 +11327,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="107"/>
+      <c r="B68" s="108"/>
       <c r="C68" s="96" t="s">
         <v>154</v>
       </c>
@@ -11344,7 +11353,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="107"/>
+      <c r="B69" s="108"/>
       <c r="C69" s="96" t="s">
         <v>155</v>
       </c>
@@ -11408,7 +11417,7 @@
       <c r="A72" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="106" t="s">
+      <c r="B72" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="96" t="s">
@@ -11436,7 +11445,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="107"/>
+      <c r="B73" s="108"/>
       <c r="C73" s="96" t="s">
         <v>154</v>
       </c>
@@ -11462,7 +11471,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="107"/>
+      <c r="B74" s="108"/>
       <c r="C74" s="96" t="s">
         <v>155</v>
       </c>
@@ -11488,7 +11497,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="106" t="s">
+      <c r="B75" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="96" t="s">
@@ -11516,7 +11525,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="107"/>
+      <c r="B76" s="108"/>
       <c r="C76" s="96" t="s">
         <v>154</v>
       </c>
@@ -11542,7 +11551,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="107"/>
+      <c r="B77" s="108"/>
       <c r="C77" s="96" t="s">
         <v>155</v>
       </c>
@@ -11568,7 +11577,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="106" t="s">
+      <c r="B78" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="96" t="s">
@@ -11596,7 +11605,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="107"/>
+      <c r="B79" s="108"/>
       <c r="C79" s="96" t="s">
         <v>154</v>
       </c>
@@ -11622,7 +11631,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="107"/>
+      <c r="B80" s="108"/>
       <c r="C80" s="96" t="s">
         <v>155</v>
       </c>
@@ -11648,7 +11657,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="106" t="s">
+      <c r="B81" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="96" t="s">
@@ -11676,7 +11685,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="107"/>
+      <c r="B82" s="108"/>
       <c r="C82" s="96" t="s">
         <v>154</v>
       </c>
@@ -11702,7 +11711,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="107"/>
+      <c r="B83" s="108"/>
       <c r="C83" s="96" t="s">
         <v>155</v>
       </c>
@@ -11728,7 +11737,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="106" t="s">
+      <c r="B84" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="96" t="s">
@@ -11756,7 +11765,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="107"/>
+      <c r="B85" s="108"/>
       <c r="C85" s="96" t="s">
         <v>154</v>
       </c>
@@ -11782,7 +11791,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="107"/>
+      <c r="B86" s="108"/>
       <c r="C86" s="96" t="s">
         <v>155</v>
       </c>
@@ -11846,7 +11855,7 @@
       <c r="A89" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="106" t="s">
+      <c r="B89" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="96" t="s">
@@ -11874,7 +11883,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="107"/>
+      <c r="B90" s="108"/>
       <c r="C90" s="96" t="s">
         <v>154</v>
       </c>
@@ -11900,7 +11909,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="107"/>
+      <c r="B91" s="108"/>
       <c r="C91" s="96" t="s">
         <v>155</v>
       </c>
@@ -11926,7 +11935,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="106" t="s">
+      <c r="B92" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="96" t="s">
@@ -11954,7 +11963,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="107"/>
+      <c r="B93" s="108"/>
       <c r="C93" s="96" t="s">
         <v>154</v>
       </c>
@@ -11980,7 +11989,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="107"/>
+      <c r="B94" s="108"/>
       <c r="C94" s="96" t="s">
         <v>155</v>
       </c>
@@ -12006,7 +12015,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="106" t="s">
+      <c r="B95" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="96" t="s">
@@ -12034,7 +12043,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="107"/>
+      <c r="B96" s="108"/>
       <c r="C96" s="96" t="s">
         <v>154</v>
       </c>
@@ -12060,7 +12069,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="107"/>
+      <c r="B97" s="108"/>
       <c r="C97" s="96" t="s">
         <v>155</v>
       </c>
@@ -12086,7 +12095,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="106" t="s">
+      <c r="B98" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="96" t="s">
@@ -12114,7 +12123,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="107"/>
+      <c r="B99" s="108"/>
       <c r="C99" s="96" t="s">
         <v>154</v>
       </c>
@@ -12140,7 +12149,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="107"/>
+      <c r="B100" s="108"/>
       <c r="C100" s="96" t="s">
         <v>155</v>
       </c>
@@ -12166,7 +12175,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="106" t="s">
+      <c r="B101" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="96" t="s">
@@ -12194,7 +12203,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="107"/>
+      <c r="B102" s="108"/>
       <c r="C102" s="96" t="s">
         <v>154</v>
       </c>
@@ -12220,7 +12229,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="107"/>
+      <c r="B103" s="108"/>
       <c r="C103" s="96" t="s">
         <v>155</v>
       </c>
@@ -12315,7 +12324,7 @@
       <c r="A108" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="106" t="s">
+      <c r="B108" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="96" t="s">
@@ -12343,7 +12352,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="107"/>
+      <c r="B109" s="108"/>
       <c r="C109" s="96" t="s">
         <v>154</v>
       </c>
@@ -12369,7 +12378,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="107"/>
+      <c r="B110" s="108"/>
       <c r="C110" s="96" t="s">
         <v>155</v>
       </c>
@@ -12395,7 +12404,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="106" t="s">
+      <c r="B111" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="96" t="s">
@@ -12423,7 +12432,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="107"/>
+      <c r="B112" s="108"/>
       <c r="C112" s="96" t="s">
         <v>154</v>
       </c>
@@ -12449,7 +12458,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="107"/>
+      <c r="B113" s="108"/>
       <c r="C113" s="96" t="s">
         <v>155</v>
       </c>
@@ -12475,7 +12484,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="106" t="s">
+      <c r="B114" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="96" t="s">
@@ -12503,7 +12512,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="107"/>
+      <c r="B115" s="108"/>
       <c r="C115" s="96" t="s">
         <v>154</v>
       </c>
@@ -12529,7 +12538,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="107"/>
+      <c r="B116" s="108"/>
       <c r="C116" s="96" t="s">
         <v>155</v>
       </c>
@@ -12555,7 +12564,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="106" t="s">
+      <c r="B117" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="96" t="s">
@@ -12583,7 +12592,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="107"/>
+      <c r="B118" s="108"/>
       <c r="C118" s="96" t="s">
         <v>154</v>
       </c>
@@ -12609,7 +12618,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="107"/>
+      <c r="B119" s="108"/>
       <c r="C119" s="96" t="s">
         <v>155</v>
       </c>
@@ -12635,7 +12644,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="106" t="s">
+      <c r="B120" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="96" t="s">
@@ -12663,7 +12672,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="107"/>
+      <c r="B121" s="108"/>
       <c r="C121" s="96" t="s">
         <v>154</v>
       </c>
@@ -12689,7 +12698,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="107"/>
+      <c r="B122" s="108"/>
       <c r="C122" s="96" t="s">
         <v>155</v>
       </c>
@@ -12753,7 +12762,7 @@
       <c r="A125" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="106" t="s">
+      <c r="B125" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="96" t="s">
@@ -12781,7 +12790,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="107"/>
+      <c r="B126" s="108"/>
       <c r="C126" s="96" t="s">
         <v>154</v>
       </c>
@@ -12807,7 +12816,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="107"/>
+      <c r="B127" s="108"/>
       <c r="C127" s="96" t="s">
         <v>155</v>
       </c>
@@ -12833,7 +12842,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="106" t="s">
+      <c r="B128" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="96" t="s">
@@ -12861,7 +12870,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="107"/>
+      <c r="B129" s="108"/>
       <c r="C129" s="96" t="s">
         <v>154</v>
       </c>
@@ -12887,7 +12896,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="107"/>
+      <c r="B130" s="108"/>
       <c r="C130" s="96" t="s">
         <v>155</v>
       </c>
@@ -12913,7 +12922,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="106" t="s">
+      <c r="B131" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="96" t="s">
@@ -12941,7 +12950,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="107"/>
+      <c r="B132" s="108"/>
       <c r="C132" s="96" t="s">
         <v>154</v>
       </c>
@@ -12967,7 +12976,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="107"/>
+      <c r="B133" s="108"/>
       <c r="C133" s="96" t="s">
         <v>155</v>
       </c>
@@ -12993,7 +13002,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="106" t="s">
+      <c r="B134" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="96" t="s">
@@ -13021,7 +13030,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="107"/>
+      <c r="B135" s="108"/>
       <c r="C135" s="96" t="s">
         <v>154</v>
       </c>
@@ -13047,7 +13056,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="107"/>
+      <c r="B136" s="108"/>
       <c r="C136" s="96" t="s">
         <v>155</v>
       </c>
@@ -13073,7 +13082,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="106" t="s">
+      <c r="B137" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="96" t="s">
@@ -13101,7 +13110,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="107"/>
+      <c r="B138" s="108"/>
       <c r="C138" s="96" t="s">
         <v>154</v>
       </c>
@@ -13127,7 +13136,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="107"/>
+      <c r="B139" s="108"/>
       <c r="C139" s="96" t="s">
         <v>155</v>
       </c>
@@ -13191,7 +13200,7 @@
       <c r="A142" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="106" t="s">
+      <c r="B142" s="107" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="96" t="s">
@@ -13219,7 +13228,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="107"/>
+      <c r="B143" s="108"/>
       <c r="C143" s="96" t="s">
         <v>154</v>
       </c>
@@ -13245,7 +13254,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="107"/>
+      <c r="B144" s="108"/>
       <c r="C144" s="96" t="s">
         <v>155</v>
       </c>
@@ -13271,7 +13280,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="106" t="s">
+      <c r="B145" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="96" t="s">
@@ -13299,7 +13308,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="107"/>
+      <c r="B146" s="108"/>
       <c r="C146" s="96" t="s">
         <v>154</v>
       </c>
@@ -13325,7 +13334,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="107"/>
+      <c r="B147" s="108"/>
       <c r="C147" s="96" t="s">
         <v>155</v>
       </c>
@@ -13351,7 +13360,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="106" t="s">
+      <c r="B148" s="107" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="96" t="s">
@@ -13379,7 +13388,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="107"/>
+      <c r="B149" s="108"/>
       <c r="C149" s="96" t="s">
         <v>154</v>
       </c>
@@ -13405,7 +13414,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="107"/>
+      <c r="B150" s="108"/>
       <c r="C150" s="96" t="s">
         <v>155</v>
       </c>
@@ -13431,7 +13440,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="106" t="s">
+      <c r="B151" s="107" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="96" t="s">
@@ -13459,7 +13468,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="107"/>
+      <c r="B152" s="108"/>
       <c r="C152" s="96" t="s">
         <v>154</v>
       </c>
@@ -13485,7 +13494,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="107"/>
+      <c r="B153" s="108"/>
       <c r="C153" s="96" t="s">
         <v>155</v>
       </c>
@@ -13511,7 +13520,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="106" t="s">
+      <c r="B154" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="96" t="s">
@@ -13539,7 +13548,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="107"/>
+      <c r="B155" s="108"/>
       <c r="C155" s="96" t="s">
         <v>154</v>
       </c>
@@ -13565,7 +13574,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="107"/>
+      <c r="B156" s="108"/>
       <c r="C156" s="96" t="s">
         <v>155</v>
       </c>
@@ -13619,14 +13628,38 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b8R9t8jeSI0sLoPGI/Stvvwq+qu6i3DHlmM5/Ej74qWHz397U05KGTaYXTnTsHAAodjArEgW8nmZLfDu5BHyaw==" saltValue="lbdnZHrOUuVjzEfEpwwUXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GBNyWqjHi6JBDD0sDRohG0+zKSwBQRmq3tK2UQu0npecie6G9t7+kbG8/6G9QJL99Ca+3uDxXD6+/n7c7AjMFg==" saltValue="ci+CLgFxbtvgVsFuzL8hDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -13636,36 +13669,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14886,7 +14895,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="okPXMSK+zlzR33u1iDfkRTXBjfA0319xRk+HKYZpJ6xC1oPPPbcYu7isDbzkQI8md6wm4Hn7HLrAjnPaXs+J9Q==" saltValue="ZiQyxpEzGZWnqXlMVX8PdA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s4tc42XHaAX0YOSD/5/JGY0CLlb00G4FxX/2/sNSxt6LFsyERsRty82wp2hn5pYgEA5gCnXqNvjYJSu7Y8izIA==" saltValue="tmZyC2FzuUpzhBzEx61kOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23025,7 +23034,7 @@
       <c r="I328" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6KMYBLEwhLpw1MNfoY9xPW6nyoX/kpzjx3oBSg8yPbMIymYWY2dBmFqMR0PGgJGoaeaSq0tjy7o1T7ivGwJE6A==" saltValue="HxNFxBG7fh/WVQu+PM0Eyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V0thJYSK3O7Dm1FCBmb7llf1x8sZP3OPuhFklHlVob9m7yn2poVjQiZigIJtTWim7orJSp/Qfon86tWXdcEqJg==" saltValue="RkqUeWEM8Rh61CQuMx5ueg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -24115,7 +24124,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LSs9ao/O/kpw/pnOZIJ7VH5m9KdpYNLoF9+NnYezk183ILPgjCM286MeKyC3VdP/5OcrXZ9AP/fzyJymdOWp/Q==" saltValue="GFrcYtlgB0yqzW5kumkoVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gr/CvCmIBRcRnLPH5JV6GhIMK9C+uCyo/lB2DvT2WEUieOzRO6YIqD5De4D4+IsQUGNZJY+ochzIc0a1SGtvxQ==" saltValue="1Iuq/gNZIucAVRgduUzgGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -24987,7 +24996,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HRccPywEXAaxAU11UUv1rDec76QbQMXW2s0qOqmX0dPJUQoIjF9ojnOoOgczPSHgeiC4i8UzZFwetZnn7YzIlg==" saltValue="T3yumRyXKwxPx3xmfS91cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1sdLZc6O8ARUHbXpxzxyja3xGZxk36QJZJdXMYj3JX81vGa4bxoVQTNzjw6p5dWHJqJRpchUccYNhYe6P8eiAg==" saltValue="Rb7F04OaH493y+0wqzw+WA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -27872,7 +27881,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+rjILp76Fk2RvgFGbcRzZ8chd0M7gSq+lbYG+AWwLZFYFTWLHnGS+DBYpngbVqHSRvMvzukkv1YKyW+8XQLpuw==" saltValue="5UeIxArmn83B60Rtq6fk/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ckiuuXbWt0qRwwrHZZ23FxXni9P5FxGt0aAtLNWyapKiJ9dRUbnVEEbNB6uw2ehGYXz+rg77qFj7s5ju5DJiRw==" saltValue="tDyMjl/Alq+QIuN9Nu4EOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -28154,7 +28163,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GZv9r3KZTV1tDDqz5c5/WiuiuQRej7S6Zu3TFYmMkykc65vD/OaYElSvt9ymKfu22H/u+Y0ngJvryyWFjFUV2Q==" saltValue="sZsUoPUH3wEBYKNfKhOVBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CeoU06bgpqsSpfihonTaJhoe0CwHdLTYYZL8ljLtwFPw/ApaFofNz6p89DeQ0AVf246L9yVzduMDh/qZh/O6Kw==" saltValue="CPZB8Twrd+ZcQqDk11itXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -32269,7 +32278,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UIpK/0EAR92GfzxR6Dg8WmQkf1Ww91D/dV39Wx6GjZEye+SIEfqRKzwpwFNRz8QTSiCS9AJikBul8LUTfeqUIQ==" saltValue="QuxvPQBHDzI3jEpCxTxzyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cqni4WX0yxQEFzzJuNxq0g9zrhcJ3Ns8iHldI7OxT3e/Uwy3xgbTkiCjHOxXW0x7QSFX991//QDWTw77rUTUtw==" saltValue="pD0Rzz7DGxc65+tQw0d2sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -32785,7 +32794,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lYMDmlT0x9r8DoVYcPzojUiH6/qvzyR3ekqbtIF33CloEtvBWawfBzAVmt4Hj/5ZiM3OYzd2mD+3gVOQqm6gNA==" saltValue="l+hS+N/Z8ccIphk8roYmEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tLUc+ZZeMcTNK+j/fiz3x4226JVDS06HRqbTiqwXg/BcmAzxLrOa2lx3JWFFWTqNyy4i+UOqpxXwNTUh5tUfPw==" saltValue="Ql6ekJ5+Ip5iB3SC8ZlEWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32797,8 +32806,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" activeCellId="2" sqref="C35 C23:F23 C11"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32909,16 +32918,16 @@
       <c r="B13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="106" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="11"/>
@@ -33116,7 +33125,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="an1e5ZuNxdAjpqp+GPpiMKRl+dgZd2ee1+nk+6Gq7gMYS652N3DNsXbOSU6to2AV2jOYd98V1MSDv9rlTk+nDA==" saltValue="Dq+Lw09k5RjsLoeVINiZKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GIfsMdymiuuf5Mpf4pjItHm3dYm+FI65a/t/8vDumaqK+GPEiOBIwNVA346Co9TA4FTfaHqhCsLK1ktRRkA8Qg==" saltValue="O5u8zDXD9kzCSeuLHEgaJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33473,7 +33482,7 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2HRKReaaZU/JmppBIByWs50FCSCvXB9dUJ13tle8a8X9CKD4hz3SOp6+eVfmSPZNHc0SEhMjvBd553Y4jBcyWA==" saltValue="J4X0Of4f+wcEJ9bFrd5d0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v8nFNLDBl1kRnciwb+AJbPrN0RpSs0rFj8sDdg9Qen6d0/A/XiCWXZUe1gS1R3I24V1jgg+n2GD8ty3fsC0uuw==" saltValue="uB1jhCtgkD5DhkOvQyolJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33579,7 +33588,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E0lFu8DnBZfXSupDZMMeEpjm25ywkIOpuWEbJe0bOU+2awyZCHbPpfDTgIPGQjqMY+74x1qdpxEK8TgUr4KX3A==" saltValue="6SE4uOdLt9RP273PpDBfWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hYznjohbaRuipMWQopDeH7mt2DFCFdSfO8V6UeUC6VnlNSLgLYj6ZTOc7bPlOLjjBWyExBNaTJXoHuyr9GU4pQ==" saltValue="eft+UP++28bPUJCKOoaO6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -33786,7 +33795,7 @@
       <c r="K14" s="104"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vCyV+1biBiVAbQ3Ly4HdRr2jGgdhKR0n6CsavF0/OwEHaMIRfzq05WEh64Rsu08xFnWX9mSVklfWweZ3FA/yiw==" saltValue="2Vbdf1Pg/gRfPA6Tj2Zejg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ve1V0tm9DFo4ZYP+XJ93/B/1myTbBsGbSktGNffMZi2jS330JSqW2uFvPMnQsGrZiMdcIBFYfUbG3FtY7BG0DA==" saltValue="bOfS6MM4TTEQ/cKvOO6+Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -33867,7 +33876,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7D0mBN8J9e4iOlHphCDvkLocGWCi+qMvstyXAiJ/TwuWTqCSncZBfYhcBPTYq/mpS7HXmEpT/Fg6lg1pmHgsKg==" saltValue="P6PgXvkBYHqU82Ry0wxaSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8KBfYVrJu2bX23fZSJy4azv6fX/4bvWCWNnTzmYXPPEOh2cpi1anVn3MY6qmxrLKjVOlkLXkAhrMcbhqpd+3Gg==" saltValue="2Sa+Pnsf4Af+uDrt8ezHkA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34128,7 +34137,7 @@
       <c r="E21" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ENgGoaoeZZFZhfYusApS/h17v9ZhtUROsuHdep3EFDoyFEh8+eEsqmd075PiuQ12mVWFSmvTEMdN/TFEoiymBA==" saltValue="xLj3nJngA7mrEL7Su51p7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1BwFnvMZzuBtKeWvasOBpriHvXz2Ll0NSxwJJcnHHeOKjuKL3Vq3eSg53tp9n9Njts73tYfa+Hxce6Y59XPsvA==" saltValue="JhUxRJm5s84UWo9KfuEqzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -34192,7 +34201,7 @@
       <c r="D3" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jFR9wEPtCWRgN0352G0jz9RDbxlUwZA/YIHZ+8Bn0o0/TOyu+WovStW8qj66o94I126RU0rVLTROQraln3SePQ==" saltValue="AaFln+yxs5EPklVaRDmTuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+lP4nyOnBsQolSsRKB4P6tURzbKz+joDwRLQ8oE+84dBLdk0xx9rZMAXP2xtouFd1veQzPmn8/wlDtMQP9V80g==" saltValue="gAEmi+RrLDPzzjqqvxkQBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/Optima_template.xlsx
+++ b/inputs/fr/Optima_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ECE51E1-90B3-4610-BE73-B48708B589F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ACB0EF3-3F2F-4624-92B0-FC676AA3C376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données pop de l'année de ref" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="335">
   <si>
     <t>Field</t>
   </si>
@@ -616,6 +616,9 @@
     <t>Insuffisance pondérale à la naissance</t>
   </si>
   <si>
+    <t>Année</t>
+  </si>
+  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
@@ -638,9 +641,6 @@
   </si>
   <si>
     <t>FAP non enceintes</t>
-  </si>
-  <si>
-    <t>année</t>
   </si>
   <si>
     <t>Néonatal</t>
@@ -1057,7 +1057,7 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
-    <t>Efficacité</t>
+    <t>efficacité</t>
   </si>
   <si>
     <t>Méthode</t>
@@ -1363,9 +1363,6 @@
     <t>Petite quantité de supplémentation en nutriments à base de lipids - supérieur</t>
   </si>
   <si>
-    <t>efficacité</t>
-  </si>
-  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1412,9 +1409,6 @@
   </si>
   <si>
     <t>Condition ciblée</t>
-  </si>
-  <si>
-    <t>Fraction touchée</t>
   </si>
   <si>
     <t>Efficacité à prévenir une mort</t>
@@ -2716,7 +2710,7 @@
       <c r="A63" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+IEGaV2caiGfb5SmbcObz0yJCt4xlEnw7vZThEN7hJuAPecovyMN9UeoyDuQDdMlcMKxNllJ9A94HXnttzs7xA==" saltValue="cEpx7e3ghIA3iGELhbn74g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X54r7HTt4ysKFALPBd7zMeqqh6TeQhA29UGmNuAd07UnxF2btcH4JVlo57col7ZAaOCHxk6UbbsP7D9aKht5zg==" saltValue="OFZp+vrrzrdX6VE5H956qw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3494,7 +3488,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0npTeXLIq7GGMLHaFw2lTCrleYEKPJuXwmbRJ93N+FsrzvcDylN+qg5MelbXkGUPjL/CjF8a3UnozTjYkwXz6w==" saltValue="II+8cjWkWXd1fap2uA6Quw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OS3zxm6F8FH01KAt81rU9ki5RmB8Ox/mrWI8/iUS795CFUZ/g9gKUfS97DgEsFQ5cdcmGBQ8X3Av3nK/IqNl5Q==" saltValue="77wnyGl8loCnUmYixCRTNA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3644,7 +3638,7 @@
       <c r="C20" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F5iiWVCPXTctLOwL8V//E2NOpkpMc3Eob2o+o5FNUpQ7KtI5qOOdFe8rxffouC2+qylvPiGKU/o5ruYsrXj/UQ==" saltValue="gOjGz0Nx5OSx2UuUy403Ww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="A5xZnaTcer3+Nr7Q1DsetnmKaL50NkGult2NUcod8solpKvFrQmZaV8nbnIPer70EbS8R8AQPBvBta37uT6XtQ==" saltValue="tuAkGplC3PnvHfwPACz7Ww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3745,7 +3739,7 @@
       <c r="A19" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SILewYvMApt4Cvc/pmQPgG0S13aj/SJmiUQ4NL/uDcr+7x+wZGEeIjJt0bSDFRnFo7+6kGz/utCB/r0/FlNCIg==" saltValue="sPMMqGBpY1zUu1vJtnb41Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H2GOQlUwQeVwf1jv9k/57yuwoPWuII9lTOXSqxkYu9pfi7a87JpKrQPXJxokc/sKQUQyay+rNceYdFiIn7rOxw==" saltValue="IlzHqalr1pxOnkeFnvnsnA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3860,7 +3854,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6NUTMxYJ83xaQ/VEzm+RE2MbfT+FChDjgmeO76F0rtaRsW1IoMeoUfUyJrG//Lc0eVYH/9iSGBjp/CVFt1Cnlg==" saltValue="B9nG3fMT9BvkNk5GiE8Siw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xiJZaV7hvjRm8W3zRUWJjU/v2gZzhgIifpUzB2jH1BvqaUNrkxolWW5J8FUnNDytyue/8nV2J5dG3TvezrF5fQ==" saltValue="mf+UIcPemmF5diCvru+Pxw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -3924,16 +3918,16 @@
         <v>125</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4880,7 +4874,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>172</v>
@@ -5621,7 +5615,7 @@
       <c r="B40" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QOelA5BWM/PXJcFkxhyFj3N4hbHvG+eZjHzpLywY0sYrbF8HOnPhkuQTzzU0X5Kw5SIcxkCPxNpaxf86VR0MQQ==" saltValue="u8lXcte+SpEsrY0eSWM8cg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sR4nUKkipcQaB1g/K0Ws3BL2VhRGeIlW5ApnQn2Gv9iBhmppvtWnEmch7bz5uxEFnblR7c/VTfvUBgMuYHNkRw==" saltValue="KMU1Fzbzqj1sETDzHrGSeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5656,7 +5650,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YSbELESYHGtPZNMtYrCuGVRnmhVxg0Uw7Kh206BvKWP+FPvy5gxh5uDIELN5JYrYTPkWCt1YwSVcNndSt5KnkA==" saltValue="yJdyq7bcpY6lE0aZ72DM7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i39sBBxJ9gEPNlAqJIDX4WVmceY9A2PxbZrzfRtmL7492Tkv6r12g7ZHuyNA+k1ub4uutbPOBsyQxuKuoFjcoQ==" saltValue="uEKTHlJWfAdysR+hd7xVoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5862,7 +5856,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dPOoatMWv2wLc2tNkz2i4izWpOr6po6siNnDrPZc2xs4Z9O1lcE+Z5ISIKsHUneI7PdqXpx2m7HyONkbEuqpYg==" saltValue="0so6r//NAvJ5V68AgtrhdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ji2nmb5hQB2qrHvO0IBqRiVpr88EI0Sx6HNHMCoBpLW6Nq726C0TFo8cPzQpLBS4OV7wkxoDuaHfH64IHnspsQ==" saltValue="pPLrdiqEcDYXNtHZ+aeWnA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -5929,16 +5923,16 @@
         <v>125</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6994,7 +6988,7 @@
     </row>
     <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>172</v>
@@ -7677,7 +7671,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t+hxj+KpXZwkLd6EKs4i+oOqayThGvJy0fWjfkVlNo4aUXa0ih62vZ5ctwXe0VJ55gYC+cKccoPZ+y/5qsvJGw==" saltValue="eCpivUJUkCeXRs+O100FyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="riy+YmLBlnYYA8X+sDgjlxBZI9ZItu+L7UiNjzXstUy7n30CTar7tAJqh2UJpiU9S5B5QaYk5MNC8dWRq8sXyA==" saltValue="R1/s2C52Wi1KBmXuhEJg8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7741,7 +7735,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8445,7 +8439,7 @@
       <c r="K39" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qzN1lfCZ2GS9N2qbpOxSOHK13zMF1GAuy7OH7jgtgsirSY6NrFZy+plCE0K5RzljkENceU/Zrqbg74rZNZMqng==" saltValue="yBFrajDxH5RGkOiBKCxnbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SKPDACkui2wPfs//tBGGWBBhxOrl1jO3abWt4hnfLvri5+FT8kZ431sxj+30jPzn7SXnGpE9cKxAiirdTIGoRQ==" saltValue="xy8617f1OZja0kFsvZB+Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8509,7 +8503,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8743,7 +8737,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="96" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="82"/>
       <c r="C11" s="82" t="s">
@@ -8764,7 +8758,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="82"/>
       <c r="C12" s="82" t="s">
@@ -8783,7 +8777,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="82"/>
       <c r="C13" s="82" t="s">
@@ -8802,7 +8796,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="82"/>
       <c r="C14" s="82" t="s">
@@ -8820,7 +8814,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u97/9/lbMPKo4oeXD5CnONYXPQtEgn/F6eB8kEmWbe94J9EVDgpDtXsBuwPTvNsLPcQfhkqOLs3wuTGQlRVkYg==" saltValue="Dgiz09BdE0FzztXAvUZGLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ph3DmnYLLNme2LATuKqoI5RMx5uCL+2DRYphT+x9DsfrKZIFun1SmVa4DMyMjy7f6daQMrFn83+1n8WCWXNL/w==" saltValue="7JIbqzeMzjKv1+BDhQLVJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8846,31 +8840,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9810,7 +9804,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XK4NSTt0Wl6i+MDbWMOvPnz5WF+h1dNPG4s7zUKD2I6Yiqwp0r8vVxqgoiYCGeReWo3gBvwYUbFl3AT4ujE/AQ==" saltValue="f+mxH3KgjjySvbGHyzJ11g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3S/AMHxhX+xtcVdchLiNgPMYVPy48WzfeF9J5CMqV8P3tOJaRqPw5X88v9wmhgZnn5ISDpmUkJC/5E9B2nBp6g==" saltValue="KPUMHkbCdccebE03h6e4Gw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13628,7 +13622,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GBNyWqjHi6JBDD0sDRohG0+zKSwBQRmq3tK2UQu0npecie6G9t7+kbG8/6G9QJL99Ca+3uDxXD6+/n7c7AjMFg==" saltValue="ci+CLgFxbtvgVsFuzL8hDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Uyg+LXa8nX0SivuSw9bAFs8F1NM/7V0eCIW0xBtMlpmWx9xxLR6G52WhJFGPvGHVQe7cYrjr8aO301Mg4RWriw==" saltValue="pkiqs42kTA7nnGkdUjIYCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -14895,7 +14889,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s4tc42XHaAX0YOSD/5/JGY0CLlb00G4FxX/2/sNSxt6LFsyERsRty82wp2hn5pYgEA5gCnXqNvjYJSu7Y8izIA==" saltValue="tmZyC2FzuUpzhBzEx61kOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mV5VVbEEXisZW9/z8rOjwtUodMtWVnORp9wajU1IkBrjzRjfX9AqbYYun8dCtZ+nq7ZfuVrnkJqairlwAgM1mw==" saltValue="0/GyEjVXFQEkjemjP2GhVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23034,7 +23028,7 @@
       <c r="I328" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V0thJYSK3O7Dm1FCBmb7llf1x8sZP3OPuhFklHlVob9m7yn2poVjQiZigIJtTWim7orJSp/Qfon86tWXdcEqJg==" saltValue="RkqUeWEM8Rh61CQuMx5ueg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d/VQlT3hy+lBAjZDJJqfIkVGxrwJN9+ZwgRsyQtcRRy2dv0KVMmLOgv4AjC3g5qNv363J+90a1IDLD2Nofas2A==" saltValue="Dcw+rE/XrgiRYElcvKV9gw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23334,16 +23328,16 @@
     </row>
     <row r="20" spans="1:7" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -23709,16 +23703,16 @@
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G43" s="58"/>
     </row>
@@ -24089,16 +24083,16 @@
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E66" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F66" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G66" s="58"/>
     </row>
@@ -24124,7 +24118,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gr/CvCmIBRcRnLPH5JV6GhIMK9C+uCyo/lB2DvT2WEUieOzRO6YIqD5De4D4+IsQUGNZJY+ochzIc0a1SGtvxQ==" saltValue="1Iuq/gNZIucAVRgduUzgGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7mg9TqJcOyLgkamMt6+VYKBZzDyXWGynFsyQm+biUpLVESTPHvWsZe1kf1CP3YxcVSoUsfjnlpDWT45czokudg==" saltValue="wPVoDUiBNydmoh++L7aprw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -24174,7 +24168,7 @@
         <v>168</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C2" s="85">
         <v>0.21</v>
@@ -24192,7 +24186,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3" s="85">
         <v>1</v>
@@ -24212,7 +24206,7 @@
         <v>180</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C4" s="85">
         <v>0.15</v>
@@ -24230,7 +24224,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69"/>
       <c r="B5" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="85">
         <v>1</v>
@@ -24250,7 +24244,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C6" s="85">
         <v>0.15</v>
@@ -24268,7 +24262,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69"/>
       <c r="B7" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="85">
         <v>1</v>
@@ -24288,7 +24282,7 @@
         <v>182</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C8" s="85">
         <v>0.35</v>
@@ -24306,7 +24300,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69"/>
       <c r="B9" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" s="85">
         <v>1</v>
@@ -24326,7 +24320,7 @@
         <v>186</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C10" s="85">
         <v>0.35</v>
@@ -24344,7 +24338,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69"/>
       <c r="B11" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C11" s="85">
         <v>1</v>
@@ -24364,7 +24358,7 @@
         <v>190</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C12" s="85">
         <v>0.23</v>
@@ -24382,7 +24376,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="69"/>
       <c r="B13" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C13" s="85">
         <v>1</v>
@@ -24425,7 +24419,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C17" s="85">
         <f t="shared" ref="C17:F28" si="0">C2*0.9</f>
@@ -24447,7 +24441,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
       <c r="B18" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" s="85">
         <f t="shared" si="0"/>
@@ -24471,7 +24465,7 @@
         <v>180</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C19" s="85">
         <f t="shared" si="0"/>
@@ -24493,7 +24487,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69"/>
       <c r="B20" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" s="85">
         <f t="shared" si="0"/>
@@ -24517,7 +24511,7 @@
         <v>181</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C21" s="85">
         <f t="shared" si="0"/>
@@ -24539,7 +24533,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
       <c r="B22" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C22" s="85">
         <f t="shared" si="0"/>
@@ -24563,7 +24557,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C23" s="85">
         <f t="shared" si="0"/>
@@ -24585,7 +24579,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="69"/>
       <c r="B24" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C24" s="85">
         <f t="shared" si="0"/>
@@ -24609,7 +24603,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C25" s="85">
         <f t="shared" si="0"/>
@@ -24631,7 +24625,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69"/>
       <c r="B26" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C26" s="85">
         <f t="shared" si="0"/>
@@ -24655,7 +24649,7 @@
         <v>190</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C27" s="85">
         <f t="shared" si="0"/>
@@ -24677,7 +24671,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="69"/>
       <c r="B28" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C28" s="85">
         <f t="shared" si="0"/>
@@ -24724,7 +24718,7 @@
         <v>168</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C32" s="85">
         <f t="shared" ref="C32:F43" si="1">C2*1.05</f>
@@ -24746,7 +24740,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="69"/>
       <c r="B33" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C33" s="85">
         <f t="shared" si="1"/>
@@ -24770,7 +24764,7 @@
         <v>180</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C34" s="85">
         <f t="shared" si="1"/>
@@ -24792,7 +24786,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="69"/>
       <c r="B35" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C35" s="85">
         <f t="shared" si="1"/>
@@ -24816,7 +24810,7 @@
         <v>181</v>
       </c>
       <c r="B36" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C36" s="85">
         <f t="shared" si="1"/>
@@ -24838,7 +24832,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C37" s="85">
         <f t="shared" si="1"/>
@@ -24862,7 +24856,7 @@
         <v>182</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C38" s="85">
         <f t="shared" si="1"/>
@@ -24884,7 +24878,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="69"/>
       <c r="B39" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" s="85">
         <f t="shared" si="1"/>
@@ -24908,7 +24902,7 @@
         <v>186</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C40" s="85">
         <f t="shared" si="1"/>
@@ -24930,7 +24924,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="69"/>
       <c r="B41" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C41" s="85">
         <f t="shared" si="1"/>
@@ -24954,7 +24948,7 @@
         <v>190</v>
       </c>
       <c r="B42" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C42" s="85">
         <f t="shared" si="1"/>
@@ -24976,7 +24970,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="69"/>
       <c r="B43" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43" s="85">
         <f t="shared" si="1"/>
@@ -24996,7 +24990,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1sdLZc6O8ARUHbXpxzxyja3xGZxk36QJZJdXMYj3JX81vGa4bxoVQTNzjw6p5dWHJqJRpchUccYNhYe6P8eiAg==" saltValue="Rb7F04OaH493y+0wqzw+WA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="orpshpFiWXIxFVDgWn50pgny4OceXxQHMdQ0c853jhy+0B5Y6XnolbKuW0KVmHE3k7PB1ll4f5sghf2m/Kl46g==" saltValue="UmdMKC9Y84+Gc4gZf2jI3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -25041,16 +25035,16 @@
         <v>99</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="57" t="s">
         <v>122</v>
@@ -25067,7 +25061,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -25644,7 +25638,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B17" s="65"/>
     </row>
@@ -25848,16 +25842,16 @@
         <v>99</v>
       </c>
       <c r="H24" s="57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I24" s="57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J24" s="57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K24" s="57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L24" s="57" t="s">
         <v>122</v>
@@ -25874,7 +25868,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -26620,7 +26614,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B40" s="65"/>
     </row>
@@ -26876,16 +26870,16 @@
         <v>99</v>
       </c>
       <c r="H47" s="57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I47" s="57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J47" s="57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K47" s="57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L47" s="57" t="s">
         <v>122</v>
@@ -26902,7 +26896,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -27648,7 +27642,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B63" s="65"/>
     </row>
@@ -27881,7 +27875,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ckiuuXbWt0qRwwrHZZ23FxXni9P5FxGt0aAtLNWyapKiJ9dRUbnVEEbNB6uw2ehGYXz+rg77qFj7s5ju5DJiRw==" saltValue="tDyMjl/Alq+QIuN9Nu4EOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xNmRUx8c08YTfxHTDcOX6zZlzAUCEmb8NAJztjrf2eSP9AWhDFfYMSoqlZPOhK3++1mXs0GPqE3PupnqmM8L2A==" saltValue="/q2M47x7FOvYTVz8bhxV1g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -27928,7 +27922,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -27953,7 +27947,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" s="65"/>
       <c r="C4" s="77"/>
@@ -27984,7 +27978,7 @@
     </row>
     <row r="7" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -28008,7 +28002,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -28038,7 +28032,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" s="65"/>
       <c r="C11" s="77"/>
@@ -28074,7 +28068,7 @@
     </row>
     <row r="14" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -28098,7 +28092,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -28128,7 +28122,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="77"/>
@@ -28163,7 +28157,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CeoU06bgpqsSpfihonTaJhoe0CwHdLTYYZL8ljLtwFPw/ApaFofNz6p89DeQ0AVf246L9yVzduMDh/qZh/O6Kw==" saltValue="CPZB8Twrd+ZcQqDk11itXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aZq/L0LJ5fnIrgP60/MsHPznackcaksvZdVQhLNhro4ZD1rc1GCt62eGQi8ZCNbPjfsHEJhm+kqIRcJEooXN5A==" saltValue="Acl0wpMKAnTR1reRFROc/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -28199,7 +28193,7 @@
         <v>160</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1" s="76" t="s">
         <v>12</v>
@@ -28228,7 +28222,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D2" s="85">
         <v>0</v>
@@ -28248,7 +28242,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D3" s="85">
         <v>0</v>
@@ -28268,7 +28262,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D4" s="85">
         <v>0</v>
@@ -28294,7 +28288,7 @@
         <v>208</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D5" s="85">
         <v>0</v>
@@ -28314,7 +28308,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D6" s="85">
         <v>0</v>
@@ -28337,7 +28331,7 @@
         <v>209</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D7" s="85">
         <v>0</v>
@@ -28357,7 +28351,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D8" s="85">
         <v>0</v>
@@ -28383,7 +28377,7 @@
         <v>208</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D9" s="85">
         <v>0</v>
@@ -28403,7 +28397,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D10" s="85">
         <v>0</v>
@@ -28426,7 +28420,7 @@
         <v>209</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D11" s="85">
         <v>0</v>
@@ -28446,7 +28440,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D12" s="85">
         <v>0</v>
@@ -28472,7 +28466,7 @@
         <v>208</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D13" s="85">
         <v>0</v>
@@ -28492,7 +28486,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D14" s="85">
         <v>0</v>
@@ -28515,7 +28509,7 @@
         <v>209</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D15" s="85">
         <v>0</v>
@@ -28535,7 +28529,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D16" s="85">
         <v>0</v>
@@ -28561,7 +28555,7 @@
         <v>208</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D17" s="85">
         <v>0</v>
@@ -28581,7 +28575,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
@@ -28604,7 +28598,7 @@
         <v>209</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D19" s="85">
         <v>0</v>
@@ -28624,7 +28618,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D20" s="85">
         <v>0</v>
@@ -28650,7 +28644,7 @@
         <v>84</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D21" s="85">
         <v>0.28260869565217389</v>
@@ -28670,7 +28664,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D22" s="85">
         <v>0.46</v>
@@ -28696,7 +28690,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D23" s="85">
         <v>0.28260869565217389</v>
@@ -28716,7 +28710,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D24" s="85">
         <v>0.46</v>
@@ -28742,7 +28736,7 @@
         <v>84</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D25" s="85">
         <v>0.28260869565217389</v>
@@ -28762,7 +28756,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D26" s="85">
         <v>0.46</v>
@@ -28788,7 +28782,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D27" s="85">
         <v>1</v>
@@ -28808,7 +28802,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D28" s="85">
         <v>0</v>
@@ -28828,7 +28822,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D29" s="85">
         <v>0</v>
@@ -28854,7 +28848,7 @@
         <v>87</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D30" s="85">
         <v>1</v>
@@ -28874,7 +28868,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D31" s="85">
         <v>0</v>
@@ -28894,7 +28888,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D32" s="85">
         <v>0</v>
@@ -28920,7 +28914,7 @@
         <v>87</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D33" s="85">
         <v>1</v>
@@ -28940,7 +28934,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D34" s="85">
         <v>0</v>
@@ -28960,7 +28954,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D35" s="85">
         <v>0</v>
@@ -28986,7 +28980,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D36" s="85">
         <v>1</v>
@@ -29006,7 +29000,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D37" s="85">
         <v>0</v>
@@ -29026,7 +29020,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D38" s="85">
         <v>0</v>
@@ -29052,7 +29046,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D39" s="85">
         <v>1</v>
@@ -29072,7 +29066,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D40" s="85">
         <v>0</v>
@@ -29092,7 +29086,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D41" s="85">
         <v>0</v>
@@ -29118,7 +29112,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D42" s="85">
         <v>0.3</v>
@@ -29138,7 +29132,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D43" s="85">
         <v>0.5</v>
@@ -29158,7 +29152,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D44" s="85">
         <v>0.65</v>
@@ -29181,7 +29175,7 @@
         <v>88</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D45" s="85">
         <v>0.3</v>
@@ -29201,7 +29195,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D46" s="85">
         <v>0.49</v>
@@ -29221,7 +29215,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D47" s="85">
         <v>0.52</v>
@@ -29247,7 +29241,7 @@
         <v>87</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D48" s="85">
         <v>0.88</v>
@@ -29267,7 +29261,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D49" s="85">
         <v>0.78409090909090906</v>
@@ -29293,7 +29287,7 @@
         <v>87</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D50" s="85">
         <v>0.88372093023255816</v>
@@ -29313,7 +29307,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D51" s="85">
         <v>0.86</v>
@@ -29339,7 +29333,7 @@
         <v>82</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D52" s="85">
         <v>0.57999999999999996</v>
@@ -29359,7 +29353,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D53" s="85">
         <v>0.51</v>
@@ -29379,7 +29373,7 @@
     </row>
     <row r="55" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B55" s="93"/>
       <c r="C55" s="93"/>
@@ -29389,7 +29383,7 @@
         <v>160</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C56" s="76" t="s">
         <v>12</v>
@@ -29418,7 +29412,7 @@
         <v>87</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D57" s="85">
         <f t="shared" ref="D57:H66" si="0">D2*0.9</f>
@@ -29443,7 +29437,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D58" s="85">
         <f t="shared" si="0"/>
@@ -29468,7 +29462,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D59" s="85">
         <f t="shared" si="0"/>
@@ -29499,7 +29493,7 @@
         <v>208</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D60" s="85">
         <f t="shared" si="0"/>
@@ -29524,7 +29518,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D61" s="85">
         <f t="shared" si="0"/>
@@ -29552,7 +29546,7 @@
         <v>209</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D62" s="85">
         <f t="shared" si="0"/>
@@ -29577,7 +29571,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D63" s="85">
         <f t="shared" si="0"/>
@@ -29608,7 +29602,7 @@
         <v>208</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D64" s="85">
         <f t="shared" si="0"/>
@@ -29633,7 +29627,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D65" s="85">
         <f t="shared" si="0"/>
@@ -29661,7 +29655,7 @@
         <v>209</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D66" s="85">
         <f t="shared" si="0"/>
@@ -29686,7 +29680,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D67" s="85">
         <f t="shared" ref="D67:H76" si="1">D12*0.9</f>
@@ -29717,7 +29711,7 @@
         <v>208</v>
       </c>
       <c r="C68" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D68" s="85">
         <f t="shared" si="1"/>
@@ -29742,7 +29736,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D69" s="85">
         <f t="shared" si="1"/>
@@ -29770,7 +29764,7 @@
         <v>209</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D70" s="85">
         <f t="shared" si="1"/>
@@ -29795,7 +29789,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D71" s="85">
         <f t="shared" si="1"/>
@@ -29826,7 +29820,7 @@
         <v>208</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D72" s="85">
         <f t="shared" si="1"/>
@@ -29851,7 +29845,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D73" s="85">
         <f t="shared" si="1"/>
@@ -29879,7 +29873,7 @@
         <v>209</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D74" s="85">
         <f t="shared" si="1"/>
@@ -29904,7 +29898,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D75" s="85">
         <f t="shared" si="1"/>
@@ -29935,7 +29929,7 @@
         <v>84</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D76" s="85">
         <f t="shared" si="1"/>
@@ -29960,7 +29954,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D77" s="85">
         <f t="shared" ref="D77:H86" si="2">D22*0.9</f>
@@ -29991,7 +29985,7 @@
         <v>84</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D78" s="85">
         <f t="shared" si="2"/>
@@ -30016,7 +30010,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D79" s="85">
         <f t="shared" si="2"/>
@@ -30047,7 +30041,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D80" s="85">
         <f t="shared" si="2"/>
@@ -30072,7 +30066,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C81" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D81" s="85">
         <f t="shared" si="2"/>
@@ -30103,7 +30097,7 @@
         <v>87</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D82" s="85">
         <f t="shared" si="2"/>
@@ -30128,7 +30122,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C83" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D83" s="85">
         <f t="shared" si="2"/>
@@ -30153,7 +30147,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D84" s="85">
         <f t="shared" si="2"/>
@@ -30184,7 +30178,7 @@
         <v>87</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D85" s="85">
         <f t="shared" si="2"/>
@@ -30209,7 +30203,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D86" s="85">
         <f t="shared" si="2"/>
@@ -30234,7 +30228,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D87" s="85">
         <f t="shared" ref="D87:H96" si="3">D32*0.9</f>
@@ -30265,7 +30259,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D88" s="85">
         <f t="shared" si="3"/>
@@ -30290,7 +30284,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D89" s="85">
         <f t="shared" si="3"/>
@@ -30315,7 +30309,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C90" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D90" s="85">
         <f t="shared" si="3"/>
@@ -30346,7 +30340,7 @@
         <v>87</v>
       </c>
       <c r="C91" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D91" s="85">
         <f t="shared" si="3"/>
@@ -30371,7 +30365,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D92" s="85">
         <f t="shared" si="3"/>
@@ -30396,7 +30390,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C93" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D93" s="85">
         <f t="shared" si="3"/>
@@ -30427,7 +30421,7 @@
         <v>87</v>
       </c>
       <c r="C94" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D94" s="85">
         <f t="shared" si="3"/>
@@ -30452,7 +30446,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C95" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D95" s="85">
         <f t="shared" si="3"/>
@@ -30477,7 +30471,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D96" s="85">
         <f t="shared" si="3"/>
@@ -30508,7 +30502,7 @@
         <v>87</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D97" s="85">
         <f t="shared" ref="D97:H106" si="4">D42*0.9</f>
@@ -30533,7 +30527,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D98" s="85">
         <f t="shared" si="4"/>
@@ -30558,7 +30552,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D99" s="85">
         <f t="shared" si="4"/>
@@ -30586,7 +30580,7 @@
         <v>88</v>
       </c>
       <c r="C100" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D100" s="85">
         <f t="shared" si="4"/>
@@ -30611,7 +30605,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D101" s="85">
         <f t="shared" si="4"/>
@@ -30636,7 +30630,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D102" s="85">
         <f t="shared" si="4"/>
@@ -30667,7 +30661,7 @@
         <v>87</v>
       </c>
       <c r="C103" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D103" s="85">
         <f t="shared" si="4"/>
@@ -30692,7 +30686,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D104" s="85">
         <f t="shared" si="4"/>
@@ -30723,7 +30717,7 @@
         <v>87</v>
       </c>
       <c r="C105" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D105" s="85">
         <f t="shared" si="4"/>
@@ -30748,7 +30742,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D106" s="85">
         <f t="shared" si="4"/>
@@ -30779,7 +30773,7 @@
         <v>82</v>
       </c>
       <c r="C107" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D107" s="85">
         <f t="shared" ref="D107:H108" si="5">D52*0.9</f>
@@ -30804,7 +30798,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D108" s="85">
         <f t="shared" si="5"/>
@@ -30829,7 +30823,7 @@
     </row>
     <row r="110" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
@@ -30839,7 +30833,7 @@
         <v>160</v>
       </c>
       <c r="B111" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C111" s="76" t="s">
         <v>12</v>
@@ -30868,7 +30862,7 @@
         <v>87</v>
       </c>
       <c r="C112" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D112" s="85">
         <f t="shared" ref="D112:H121" si="6">D2*1.05</f>
@@ -30893,7 +30887,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C113" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D113" s="85">
         <f t="shared" si="6"/>
@@ -30918,7 +30912,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C114" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D114" s="85">
         <f t="shared" si="6"/>
@@ -30949,7 +30943,7 @@
         <v>208</v>
       </c>
       <c r="C115" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D115" s="85">
         <f t="shared" si="6"/>
@@ -30974,7 +30968,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D116" s="85">
         <f t="shared" si="6"/>
@@ -31002,7 +30996,7 @@
         <v>209</v>
       </c>
       <c r="C117" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D117" s="85">
         <f t="shared" si="6"/>
@@ -31027,7 +31021,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D118" s="85">
         <f t="shared" si="6"/>
@@ -31058,7 +31052,7 @@
         <v>208</v>
       </c>
       <c r="C119" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D119" s="85">
         <f t="shared" si="6"/>
@@ -31083,7 +31077,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C120" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D120" s="85">
         <f t="shared" si="6"/>
@@ -31111,7 +31105,7 @@
         <v>209</v>
       </c>
       <c r="C121" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D121" s="85">
         <f t="shared" si="6"/>
@@ -31136,7 +31130,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D122" s="85">
         <f t="shared" ref="D122:H131" si="7">D12*1.05</f>
@@ -31167,7 +31161,7 @@
         <v>208</v>
       </c>
       <c r="C123" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D123" s="85">
         <f t="shared" si="7"/>
@@ -31192,7 +31186,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D124" s="85">
         <f t="shared" si="7"/>
@@ -31220,7 +31214,7 @@
         <v>209</v>
       </c>
       <c r="C125" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D125" s="85">
         <f t="shared" si="7"/>
@@ -31245,7 +31239,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D126" s="85">
         <f t="shared" si="7"/>
@@ -31276,7 +31270,7 @@
         <v>208</v>
       </c>
       <c r="C127" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D127" s="85">
         <f t="shared" si="7"/>
@@ -31301,7 +31295,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D128" s="85">
         <f t="shared" si="7"/>
@@ -31329,7 +31323,7 @@
         <v>209</v>
       </c>
       <c r="C129" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D129" s="85">
         <f t="shared" si="7"/>
@@ -31354,7 +31348,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C130" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D130" s="85">
         <f t="shared" si="7"/>
@@ -31385,7 +31379,7 @@
         <v>84</v>
       </c>
       <c r="C131" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D131" s="85">
         <f t="shared" si="7"/>
@@ -31410,7 +31404,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C132" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D132" s="85">
         <f t="shared" ref="D132:H141" si="8">D22*1.05</f>
@@ -31441,7 +31435,7 @@
         <v>84</v>
       </c>
       <c r="C133" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D133" s="85">
         <f t="shared" si="8"/>
@@ -31466,7 +31460,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D134" s="85">
         <f t="shared" si="8"/>
@@ -31497,7 +31491,7 @@
         <v>84</v>
       </c>
       <c r="C135" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D135" s="85">
         <f t="shared" si="8"/>
@@ -31522,7 +31516,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D136" s="85">
         <f t="shared" si="8"/>
@@ -31553,7 +31547,7 @@
         <v>87</v>
       </c>
       <c r="C137" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D137" s="85">
         <f t="shared" si="8"/>
@@ -31578,7 +31572,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C138" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D138" s="85">
         <f t="shared" si="8"/>
@@ -31603,7 +31597,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C139" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D139" s="85">
         <f t="shared" si="8"/>
@@ -31634,7 +31628,7 @@
         <v>87</v>
       </c>
       <c r="C140" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D140" s="85">
         <f t="shared" si="8"/>
@@ -31659,7 +31653,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C141" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D141" s="85">
         <f t="shared" si="8"/>
@@ -31684,7 +31678,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D142" s="85">
         <f t="shared" ref="D142:H151" si="9">D32*1.05</f>
@@ -31715,7 +31709,7 @@
         <v>87</v>
       </c>
       <c r="C143" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D143" s="85">
         <f t="shared" si="9"/>
@@ -31740,7 +31734,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C144" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D144" s="85">
         <f t="shared" si="9"/>
@@ -31765,7 +31759,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C145" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D145" s="85">
         <f t="shared" si="9"/>
@@ -31796,7 +31790,7 @@
         <v>87</v>
       </c>
       <c r="C146" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D146" s="85">
         <f t="shared" si="9"/>
@@ -31821,7 +31815,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C147" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D147" s="85">
         <f t="shared" si="9"/>
@@ -31846,7 +31840,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C148" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D148" s="85">
         <f t="shared" si="9"/>
@@ -31877,7 +31871,7 @@
         <v>87</v>
       </c>
       <c r="C149" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D149" s="85">
         <f t="shared" si="9"/>
@@ -31902,7 +31896,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C150" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D150" s="85">
         <f t="shared" si="9"/>
@@ -31927,7 +31921,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C151" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D151" s="85">
         <f t="shared" si="9"/>
@@ -31958,7 +31952,7 @@
         <v>87</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D152" s="85">
         <f t="shared" ref="D152:H161" si="10">D42*1.05</f>
@@ -31983,7 +31977,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C153" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D153" s="85">
         <f t="shared" si="10"/>
@@ -32008,7 +32002,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C154" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D154" s="85">
         <f t="shared" si="10"/>
@@ -32036,7 +32030,7 @@
         <v>88</v>
       </c>
       <c r="C155" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D155" s="85">
         <f t="shared" si="10"/>
@@ -32061,7 +32055,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C156" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D156" s="85">
         <f t="shared" si="10"/>
@@ -32086,7 +32080,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C157" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D157" s="85">
         <f t="shared" si="10"/>
@@ -32117,7 +32111,7 @@
         <v>87</v>
       </c>
       <c r="C158" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D158" s="85">
         <f t="shared" si="10"/>
@@ -32142,7 +32136,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C159" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D159" s="85">
         <f t="shared" si="10"/>
@@ -32173,7 +32167,7 @@
         <v>87</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D160" s="85">
         <f t="shared" si="10"/>
@@ -32198,7 +32192,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C161" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D161" s="85">
         <f t="shared" si="10"/>
@@ -32229,7 +32223,7 @@
         <v>82</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D162" s="85">
         <f t="shared" ref="D162:H163" si="11">D52*1.05</f>
@@ -32254,7 +32248,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D163" s="85">
         <f t="shared" si="11"/>
@@ -32278,7 +32272,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cqni4WX0yxQEFzzJuNxq0g9zrhcJ3Ns8iHldI7OxT3e/Uwy3xgbTkiCjHOxXW0x7QSFX991//QDWTw77rUTUtw==" saltValue="pD0Rzz7DGxc65+tQw0d2sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NE8VwGT+wmQz75XyN40XScXxGRsqM097A1Ppckq259jxWaIRphVYI+rkkX/1KuucZGQk7jsf0CaNHw+09iwXMg==" saltValue="Y8N3+F7kFbYpqKtYdpCivw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -32310,7 +32304,7 @@
         <v>160</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="52" t="s">
@@ -32335,7 +32329,7 @@
         <v>104</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D2" s="85">
         <v>1</v>
@@ -32353,7 +32347,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D3" s="85">
         <v>0.2</v>
@@ -32377,7 +32371,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D4" s="85">
         <v>1</v>
@@ -32395,7 +32389,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D5" s="85">
         <v>0.59</v>
@@ -32419,7 +32413,7 @@
         <v>104</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D6" s="85">
         <v>1</v>
@@ -32437,7 +32431,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D7" s="85">
         <v>0.6</v>
@@ -32455,7 +32449,7 @@
     </row>
     <row r="9" spans="1:8" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="88" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -32463,7 +32457,7 @@
         <v>160</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="52" t="s">
@@ -32487,7 +32481,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" ref="D11:G16" si="0">D2*0.9</f>
@@ -32508,7 +32502,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="0"/>
@@ -32535,7 +32529,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="0"/>
@@ -32556,7 +32550,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D14" s="85">
         <f t="shared" si="0"/>
@@ -32583,7 +32577,7 @@
         <v>104</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D15" s="85">
         <f t="shared" si="0"/>
@@ -32604,7 +32598,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D16" s="85">
         <f t="shared" si="0"/>
@@ -32625,7 +32619,7 @@
     </row>
     <row r="18" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="88" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -32633,7 +32627,7 @@
         <v>160</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="52" t="s">
@@ -32657,7 +32651,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D20" s="85">
         <f t="shared" ref="D20:G25" si="1">D2*1.05</f>
@@ -32678,7 +32672,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D21" s="85">
         <f t="shared" si="1"/>
@@ -32705,7 +32699,7 @@
         <v>104</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D22" s="85">
         <f t="shared" si="1"/>
@@ -32726,7 +32720,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D23" s="85">
         <f t="shared" si="1"/>
@@ -32753,7 +32747,7 @@
         <v>104</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D24" s="85">
         <f t="shared" si="1"/>
@@ -32774,7 +32768,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D25" s="85">
         <f t="shared" si="1"/>
@@ -32794,7 +32788,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tLUc+ZZeMcTNK+j/fiz3x4226JVDS06HRqbTiqwXg/BcmAzxLrOa2lx3JWFFWTqNyy4i+UOqpxXwNTUh5tUfPw==" saltValue="Ql6ekJ5+Ip5iB3SC8ZlEWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HePTv3SbiQPMDeMxaVltVztqZ+zeZ1yYnUrIvSKY25BiHyTd6j6mUPO69NKfGIJ11ZFzQqMnzUO/Y0X1IhIHbA==" saltValue="CkP58S+hxITQxnOzASH8+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33125,7 +33119,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GIfsMdymiuuf5Mpf4pjItHm3dYm+FI65a/t/8vDumaqK+GPEiOBIwNVA346Co9TA4FTfaHqhCsLK1ktRRkA8Qg==" saltValue="O5u8zDXD9kzCSeuLHEgaJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="odvZoAADIe1fgkEoa7VpyjMu/MP8MJPh9DLxngRWc1Xs3tKqvBV9AKX/p2FeGMUtayuRwa0hqTK1iQaDTPjS1Q==" saltValue="6BpxHdfMQivRJ+4G13v89Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33380,16 +33374,16 @@
         <v>125</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33482,7 +33476,7 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v8nFNLDBl1kRnciwb+AJbPrN0RpSs0rFj8sDdg9Qen6d0/A/XiCWXZUe1gS1R3I24V1jgg+n2GD8ty3fsC0uuw==" saltValue="uB1jhCtgkD5DhkOvQyolJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ejvruOfTrBNqybIZLYjCxP1HPAbUfJdZtLOlQavVrFmo44//Vi3kr9PUF9j5We9xoH6/RUFB66ec00zyzvfpcA==" saltValue="TwFUcOhCK6HKB3S0mKkRsw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33588,7 +33582,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hYznjohbaRuipMWQopDeH7mt2DFCFdSfO8V6UeUC6VnlNSLgLYj6ZTOc7bPlOLjjBWyExBNaTJXoHuyr9GU4pQ==" saltValue="eft+UP++28bPUJCKOoaO6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yLGeIQTCoF/Fl3CIkHLJUgxZt1X6/1r2juZeQCMjefe7cVCf+Be7yMvOM4sQNGGz+M+065meMBNiC3hiA2BPuA==" saltValue="Zjl/OsXqHhPjoUHDWFCvSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -33795,7 +33789,7 @@
       <c r="K14" s="104"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ve1V0tm9DFo4ZYP+XJ93/B/1myTbBsGbSktGNffMZi2jS330JSqW2uFvPMnQsGrZiMdcIBFYfUbG3FtY7BG0DA==" saltValue="bOfS6MM4TTEQ/cKvOO6+Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2a1xFmuwdeOEGMw2aQ0vqjSv7qPAsSdhqLUfcLjlT74wX98ZfzRwQkQ8Hdg3iVU/S6xx/H5Y6+WxDG3JaOzusg==" saltValue="OSqp6U5Qwu9dJTkTd2N08w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -33876,7 +33870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8KBfYVrJu2bX23fZSJy4azv6fX/4bvWCWNnTzmYXPPEOh2cpi1anVn3MY6qmxrLKjVOlkLXkAhrMcbhqpd+3Gg==" saltValue="2Sa+Pnsf4Af+uDrt8ezHkA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f640jkbHVjKzkt9EljTLs1ffyRLz5v6LutuBY8yWaZvunCSVNg9ouQUONHNkdLA4bBBK+HvjUPKRVH7RYoeOTg==" saltValue="j0h3DW2Pxn4gFd0N7fbmWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34137,7 +34131,7 @@
       <c r="E21" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1BwFnvMZzuBtKeWvasOBpriHvXz2Ll0NSxwJJcnHHeOKjuKL3Vq3eSg53tp9n9Njts73tYfa+Hxce6Y59XPsvA==" saltValue="JhUxRJm5s84UWo9KfuEqzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fR04VQbBNJCHWu27lZUlbT45AC4aqElz4f+haqhI0MZfvFIEeXtqPGlIIJ6/PWeyYA6v6jTFrx406UJf5JnMeQ==" saltValue="6opkfe7Wj2d2N75MtSSQaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -34201,7 +34195,7 @@
       <c r="D3" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+lP4nyOnBsQolSsRKB4P6tURzbKz+joDwRLQ8oE+84dBLdk0xx9rZMAXP2xtouFd1veQzPmn8/wlDtMQP9V80g==" saltValue="gAEmi+RrLDPzzjqqvxkQBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9yveFQ6MQzQW6DzYvI3S9U27T0adtwwAl1LMez2wgY+unfBAkDYLVw5TsRIBtg1zPO0LHeEPAoJWLM0aEN0LDw==" saltValue="7mc2xq9xgfpn6KjnP3a2jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/Optima_template.xlsx
+++ b/inputs/fr/Optima_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCFD3FC3-4421-45FD-93F2-6751DFCCED24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFDA34C0-CBCC-4760-B6B0-594646E7DAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="6840" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données pop de l'année de ref" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
   <si>
     <t>Field</t>
   </si>
@@ -616,9 +616,6 @@
     <t>Insuffisance pondérale à la naissance</t>
   </si>
   <si>
-    <t>Année</t>
-  </si>
-  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
@@ -641,6 +638,9 @@
   </si>
   <si>
     <t>FAP non enceintes</t>
+  </si>
+  <si>
+    <t>année</t>
   </si>
   <si>
     <t>Néonatal</t>
@@ -1057,7 +1057,7 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
-    <t>efficacité</t>
+    <t>Efficacité</t>
   </si>
   <si>
     <t>Méthode</t>
@@ -1363,6 +1363,9 @@
     <t>Petite quantité de supplémentation en nutriments à base de lipids - supérieur</t>
   </si>
   <si>
+    <t>efficacité</t>
+  </si>
+  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1411,6 +1414,9 @@
     <t>Condition ciblée</t>
   </si>
   <si>
+    <t>Fraction touchée</t>
+  </si>
+  <si>
     <t>Efficacité à prévenir une mort</t>
   </si>
   <si>
@@ -1428,7 +1434,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1544,12 +1550,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1695,7 +1695,7 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1941,9 +1941,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2710,7 +2707,7 @@
       <c r="A63" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Rvs3Xj7W5cSSMz673r+7+IsHFYyQ6gDcQAUEoCIrfzSkGBM93dwwaK+Sm0A3dDkHFxiE0DSQgRGKUst/R7DSMw==" saltValue="jolCXBSO+vLftebgowQBcw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+ZSqzfzK6B7JL74+aSKq0+ZbXN/xaSxvvLJCYtAl8hyeACEKg7Bz8v5s2eSirjfG/uuG/tVfSDAcFaST2YXJ/g==" saltValue="+ra48uFnx2CvcQ/LVCa0pQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3488,7 +3485,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HrJORgfSlocbXoJeRb/3i0QFDfDkZlHiCD04OBTg9ITDfiW/M2o+LaTsyRBKRbyuaOi+OB8bGN3w5wtDZgQVLQ==" saltValue="78ZobE1RRToFm5tlce0IzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vKUoypYNW8+9WUVb/3ngrS3IRBvIfr+mS0wfI+/pPmkjrt061HBmv4jtVRPqe94vr4YRHegYyGV6mEq5sDwTbg==" saltValue="oIlrHyfdK4Sud/zYRXNTVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3638,7 +3635,7 @@
       <c r="C20" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rvUB+mG7nanaP/8rlHcs5xa0xQVAtyi9PSccVqJoOhgX93IoBGcqgZ70LmnCiTLiBH1yA9m4cWD1R6ukrrxQSw==" saltValue="CYlw+Iv4mS7gkvHxChv5uQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fRmIXhL1H1d87yhqaGVlLSUnfmFpC867WdErH/a82CEPfMIyK+xo7IUM+fwdueXbV9JP2esJnaudbh6Hcsd6cg==" saltValue="iSMdOEZf4nZolNHFGmTEvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3739,7 +3736,7 @@
       <c r="A19" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i1HLlcAw6tpJjzUKrz1LCe0VaVwTV5Ej42TKb9UQBtUS3TXKQkfQL7Fi5Y7HL4LzGcz9sxSKMBHASpNq0shzgg==" saltValue="bqQ1Z31AL3DPd8nxry5nug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="E7NNf6a6BPxU8FqLeguS9VRl+9vF4dox4j9d2DOLzXEA+8ymCyWHhbO0b+KoFn2PsI0s5YUiacspYTx7JP8Y3w==" saltValue="cRyE6sCq3pf5IejoskwBFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3854,7 +3851,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P3ga6uGgyzWLSTAFFbesCjQU+UCZRsOnFV79iFkTcckRJNaHVK0ZRcki1bw4Mxb3dC0ry2Llh0Qm9jUf5SyNwg==" saltValue="lLt19OLzfh/TNEVW2We+SA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mGfNm/YpzEaZKLE4bwrZRnffptUEkzpgHBXIR+I42mMdADJNepOAhUOXHFXXrN8NeMhLgzHCBas5a71O9CvBzQ==" saltValue="pKrmle6SHQ21tc00igc3Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -3918,16 +3915,16 @@
         <v>125</v>
       </c>
       <c r="L1" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4874,7 +4871,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>172</v>
@@ -5615,7 +5612,7 @@
       <c r="B40" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e2WKKnloKyzCf162L1fZxncn0s5HuIC/eEx3/uHpR1seaDq++Y49WoLszkcozEPW2BFWG1IqkAgUIROvhYvHtg==" saltValue="yGbSqtn4zIp2gETZATVjGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qisl10VUBebpCiv8MkRpcrLtMwUa0kUtmp8Lineh3LjgrSqjAVrd88IWN//N2Bp+KPvJ37EptPB+lt9xy5dzIw==" saltValue="xZssUTCDmzzPa4mojNhsng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5650,7 +5647,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IuuaX4okD1Hq7Ixnq/lztwYllN4LRFGJJp+/5A9YGlKLXCmfS+RPkoOFFNHIAChKoPZahO51F7uGJUlUp6bpuA==" saltValue="QGDfkw4DayaGBucH+tgM3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nKmdsAXkRn0+Zhb4XjO9uKuA8R8AdsDgzG9nWUEMIC+Ryq9OLM2gvdJrHwwo0Kr6NnkFAjW76wOanfEfKehZxw==" saltValue="+B/4/YHS5QXVUcyybCeSKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5856,7 +5853,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uoQeN59GjYfO1dN7SsezqMm64eE5vbSKvlrpUGIpYYI5fz4B6gdJgF2iQepdF9M+DaA2fQMnmYlVeKFtLAPI+A==" saltValue="Zfyo0xtSsSWseR5AHJ847g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q975wXiK+P2PbugbLUHyQfPAy2ySYPGvCL6d30PdlCTcz/K5oK4Qr17axaM7ZqEIO80q1PSilJ5nbLEJPirxPA==" saltValue="IZaNI5S6dlILcqSucmB6/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -5923,16 +5920,16 @@
         <v>125</v>
       </c>
       <c r="L1" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6988,7 +6985,7 @@
     </row>
     <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>172</v>
@@ -7671,7 +7668,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CzDmDYmiNTFJGA6GQNEWPSlXqXjv3/UndViAC3THgMDtAYzjyAlHhLTHNJm+DTwNpVLkFKH5hyLXlOpTxaBNsg==" saltValue="mIwlXfIcFOn8UAoZaob9bA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J3+2FSDz0+jixnuJGaV7kFSbLbWaEZ4p/T9eflU+unqhU5rNLXEjQpHzvBB+b4Qls1s6NuIIKXs0/xMnoExKlA==" saltValue="xJ1ykw1SWcXyE0HlBYhLbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7735,7 +7732,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -8439,7 +8436,7 @@
       <c r="K39" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jaKHjV1cF7oXeLdAxDPLGUH9RGAzXGZdzfIrlq8Qb7aQ79yI1RWbwKe8QLJWQhDv/LOGCuxafG/+jukALMUHxQ==" saltValue="54qztp3Evrj2fkvBC2usCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DmQckkAQcyK/x+/kwWwogQBuzX3C1Kzbxk37KaG4kIaAfIY0sfH3S6luacDIO1HNlgfDPTQ29I6qknNjTKP7NA==" saltValue="4epw4C0N/hFs/CR6LgyccQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8503,7 +8500,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -8737,7 +8734,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="82"/>
       <c r="C11" s="82" t="s">
@@ -8758,7 +8755,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="82"/>
       <c r="C12" s="82" t="s">
@@ -8777,7 +8774,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="82"/>
       <c r="C13" s="82" t="s">
@@ -8796,7 +8793,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="82"/>
       <c r="C14" s="82" t="s">
@@ -8814,7 +8811,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="opHwrTlJhtOuzZJI4IJIEdAfJhZhbIM3FYlFDYfbgRLG3Xq1Nxm8ohBoI6PUi6LV0yIs2mAVV1M1L833vesvTQ==" saltValue="fpkDjkxkpKhvImr3rpdJCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="O1OUtw4sFp4H7RzG06vgam2NpBBLTMs5V1u0jP4fEqu6Ln/+fzn44QFvf60aXjp3F2ImFrQ8EMa0NT5POfMNWA==" saltValue="e2l+WZQ1EMHhsOcsIvEgMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8840,31 +8837,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9804,7 +9801,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rlB6WA8sAoJcyYXdsbcOv3EOhLaWIuwjP4+3kj+uVUBXWreKIoaGJh+h5OJvieJyDiBFzjrtLtY3efWXPF1fTQ==" saltValue="HhsqiIwCQm81V64GXff/XA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KwQSo0K74u19xlQIvZ7zmTHcuZ6dAcyTLIk+O4sJsTZg8HUZqIKMS/4ZjPWJQ5SmMcnPVs9TMt+j7GvqWVOUJw==" saltValue="+CFHIAo3qor9qch3lwVkag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -9865,7 +9862,7 @@
       <c r="A2" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="96" t="s">
@@ -9888,7 +9885,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="108"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="96" t="s">
         <v>154</v>
       </c>
@@ -9910,7 +9907,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="108"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="96" t="s">
         <v>155</v>
       </c>
@@ -9932,7 +9929,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="96" t="s">
@@ -9956,7 +9953,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="108"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="96" t="s">
         <v>154</v>
       </c>
@@ -9977,7 +9974,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="108"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="96" t="s">
         <v>155</v>
       </c>
@@ -9998,7 +9995,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="96" t="s">
@@ -10021,7 +10018,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="108"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="96" t="s">
         <v>154</v>
       </c>
@@ -10042,7 +10039,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="108"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="96" t="s">
         <v>155</v>
       </c>
@@ -10063,7 +10060,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -10086,7 +10083,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="108"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="96" t="s">
         <v>154</v>
       </c>
@@ -10107,7 +10104,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="108"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="96" t="s">
         <v>155</v>
       </c>
@@ -10128,7 +10125,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="96" t="s">
@@ -10151,7 +10148,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="108"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="96" t="s">
         <v>154</v>
       </c>
@@ -10172,7 +10169,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="108"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="96" t="s">
         <v>155</v>
       </c>
@@ -10226,7 +10223,7 @@
       <c r="A19" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="96" t="s">
@@ -10249,7 +10246,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="108"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="96" t="s">
         <v>154</v>
       </c>
@@ -10270,7 +10267,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="108"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="96" t="s">
         <v>155</v>
       </c>
@@ -10291,7 +10288,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="96" t="s">
@@ -10314,7 +10311,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="108"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="96" t="s">
         <v>154</v>
       </c>
@@ -10335,7 +10332,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="108"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="96" t="s">
         <v>155</v>
       </c>
@@ -10356,7 +10353,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="96" t="s">
@@ -10379,7 +10376,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="108"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="96" t="s">
         <v>154</v>
       </c>
@@ -10400,7 +10397,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="108"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="96" t="s">
         <v>155</v>
       </c>
@@ -10421,7 +10418,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -10444,7 +10441,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="108"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="96" t="s">
         <v>154</v>
       </c>
@@ -10465,7 +10462,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="108"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="96" t="s">
         <v>155</v>
       </c>
@@ -10486,7 +10483,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="96" t="s">
@@ -10509,7 +10506,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="108"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="96" t="s">
         <v>154</v>
       </c>
@@ -10530,7 +10527,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="108"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="96" t="s">
         <v>155</v>
       </c>
@@ -10584,7 +10581,7 @@
       <c r="A36" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="96" t="s">
@@ -10607,7 +10604,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="108"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="96" t="s">
         <v>154</v>
       </c>
@@ -10628,7 +10625,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="108"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="96" t="s">
         <v>155</v>
       </c>
@@ -10649,7 +10646,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="96" t="s">
@@ -10672,7 +10669,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="108"/>
+      <c r="B40" s="107"/>
       <c r="C40" s="96" t="s">
         <v>154</v>
       </c>
@@ -10693,7 +10690,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="108"/>
+      <c r="B41" s="107"/>
       <c r="C41" s="96" t="s">
         <v>155</v>
       </c>
@@ -10714,7 +10711,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="96" t="s">
@@ -10737,7 +10734,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="108"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="96" t="s">
         <v>154</v>
       </c>
@@ -10758,7 +10755,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="108"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="96" t="s">
         <v>155</v>
       </c>
@@ -10779,7 +10776,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="96" t="s">
@@ -10802,7 +10799,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="108"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="96" t="s">
         <v>154</v>
       </c>
@@ -10823,7 +10820,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="108"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="96" t="s">
         <v>155</v>
       </c>
@@ -10844,7 +10841,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="96" t="s">
@@ -10867,7 +10864,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="108"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="96" t="s">
         <v>154</v>
       </c>
@@ -10888,7 +10885,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="108"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="96" t="s">
         <v>155</v>
       </c>
@@ -10973,7 +10970,7 @@
       <c r="A55" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="96" t="s">
@@ -11001,7 +10998,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="108"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="96" t="s">
         <v>154</v>
       </c>
@@ -11027,7 +11024,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="108"/>
+      <c r="B57" s="107"/>
       <c r="C57" s="96" t="s">
         <v>155</v>
       </c>
@@ -11053,7 +11050,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="96" t="s">
@@ -11081,7 +11078,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="108"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="96" t="s">
         <v>154</v>
       </c>
@@ -11107,7 +11104,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="108"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="96" t="s">
         <v>155</v>
       </c>
@@ -11133,7 +11130,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="96" t="s">
@@ -11161,7 +11158,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="108"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="96" t="s">
         <v>154</v>
       </c>
@@ -11187,7 +11184,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="108"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="96" t="s">
         <v>155</v>
       </c>
@@ -11213,7 +11210,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="96" t="s">
@@ -11241,7 +11238,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="108"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="96" t="s">
         <v>154</v>
       </c>
@@ -11267,7 +11264,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="108"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="96" t="s">
         <v>155</v>
       </c>
@@ -11293,7 +11290,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="96" t="s">
@@ -11321,7 +11318,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="108"/>
+      <c r="B68" s="107"/>
       <c r="C68" s="96" t="s">
         <v>154</v>
       </c>
@@ -11347,7 +11344,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="108"/>
+      <c r="B69" s="107"/>
       <c r="C69" s="96" t="s">
         <v>155</v>
       </c>
@@ -11411,7 +11408,7 @@
       <c r="A72" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="107" t="s">
+      <c r="B72" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="96" t="s">
@@ -11439,7 +11436,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="108"/>
+      <c r="B73" s="107"/>
       <c r="C73" s="96" t="s">
         <v>154</v>
       </c>
@@ -11465,7 +11462,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="108"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="96" t="s">
         <v>155</v>
       </c>
@@ -11491,7 +11488,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="107" t="s">
+      <c r="B75" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="96" t="s">
@@ -11519,7 +11516,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="108"/>
+      <c r="B76" s="107"/>
       <c r="C76" s="96" t="s">
         <v>154</v>
       </c>
@@ -11545,7 +11542,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="108"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="96" t="s">
         <v>155</v>
       </c>
@@ -11571,7 +11568,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="107" t="s">
+      <c r="B78" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="96" t="s">
@@ -11599,7 +11596,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="108"/>
+      <c r="B79" s="107"/>
       <c r="C79" s="96" t="s">
         <v>154</v>
       </c>
@@ -11625,7 +11622,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="108"/>
+      <c r="B80" s="107"/>
       <c r="C80" s="96" t="s">
         <v>155</v>
       </c>
@@ -11651,7 +11648,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="107" t="s">
+      <c r="B81" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="96" t="s">
@@ -11679,7 +11676,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="108"/>
+      <c r="B82" s="107"/>
       <c r="C82" s="96" t="s">
         <v>154</v>
       </c>
@@ -11705,7 +11702,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="108"/>
+      <c r="B83" s="107"/>
       <c r="C83" s="96" t="s">
         <v>155</v>
       </c>
@@ -11731,7 +11728,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="107" t="s">
+      <c r="B84" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="96" t="s">
@@ -11759,7 +11756,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="108"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="96" t="s">
         <v>154</v>
       </c>
@@ -11785,7 +11782,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="108"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="96" t="s">
         <v>155</v>
       </c>
@@ -11849,7 +11846,7 @@
       <c r="A89" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="107" t="s">
+      <c r="B89" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="96" t="s">
@@ -11877,7 +11874,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="108"/>
+      <c r="B90" s="107"/>
       <c r="C90" s="96" t="s">
         <v>154</v>
       </c>
@@ -11903,7 +11900,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="108"/>
+      <c r="B91" s="107"/>
       <c r="C91" s="96" t="s">
         <v>155</v>
       </c>
@@ -11929,7 +11926,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="107" t="s">
+      <c r="B92" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="96" t="s">
@@ -11957,7 +11954,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="108"/>
+      <c r="B93" s="107"/>
       <c r="C93" s="96" t="s">
         <v>154</v>
       </c>
@@ -11983,7 +11980,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="108"/>
+      <c r="B94" s="107"/>
       <c r="C94" s="96" t="s">
         <v>155</v>
       </c>
@@ -12009,7 +12006,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="107" t="s">
+      <c r="B95" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="96" t="s">
@@ -12037,7 +12034,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="108"/>
+      <c r="B96" s="107"/>
       <c r="C96" s="96" t="s">
         <v>154</v>
       </c>
@@ -12063,7 +12060,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="108"/>
+      <c r="B97" s="107"/>
       <c r="C97" s="96" t="s">
         <v>155</v>
       </c>
@@ -12089,7 +12086,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="107" t="s">
+      <c r="B98" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="96" t="s">
@@ -12117,7 +12114,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="108"/>
+      <c r="B99" s="107"/>
       <c r="C99" s="96" t="s">
         <v>154</v>
       </c>
@@ -12143,7 +12140,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="108"/>
+      <c r="B100" s="107"/>
       <c r="C100" s="96" t="s">
         <v>155</v>
       </c>
@@ -12169,7 +12166,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="107" t="s">
+      <c r="B101" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="96" t="s">
@@ -12197,7 +12194,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="108"/>
+      <c r="B102" s="107"/>
       <c r="C102" s="96" t="s">
         <v>154</v>
       </c>
@@ -12223,7 +12220,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="108"/>
+      <c r="B103" s="107"/>
       <c r="C103" s="96" t="s">
         <v>155</v>
       </c>
@@ -12318,7 +12315,7 @@
       <c r="A108" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="107" t="s">
+      <c r="B108" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="96" t="s">
@@ -12346,7 +12343,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="108"/>
+      <c r="B109" s="107"/>
       <c r="C109" s="96" t="s">
         <v>154</v>
       </c>
@@ -12372,7 +12369,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="108"/>
+      <c r="B110" s="107"/>
       <c r="C110" s="96" t="s">
         <v>155</v>
       </c>
@@ -12398,7 +12395,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="107" t="s">
+      <c r="B111" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="96" t="s">
@@ -12426,7 +12423,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="108"/>
+      <c r="B112" s="107"/>
       <c r="C112" s="96" t="s">
         <v>154</v>
       </c>
@@ -12452,7 +12449,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="108"/>
+      <c r="B113" s="107"/>
       <c r="C113" s="96" t="s">
         <v>155</v>
       </c>
@@ -12478,7 +12475,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="107" t="s">
+      <c r="B114" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="96" t="s">
@@ -12506,7 +12503,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="108"/>
+      <c r="B115" s="107"/>
       <c r="C115" s="96" t="s">
         <v>154</v>
       </c>
@@ -12532,7 +12529,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="108"/>
+      <c r="B116" s="107"/>
       <c r="C116" s="96" t="s">
         <v>155</v>
       </c>
@@ -12558,7 +12555,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="107" t="s">
+      <c r="B117" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="96" t="s">
@@ -12586,7 +12583,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="108"/>
+      <c r="B118" s="107"/>
       <c r="C118" s="96" t="s">
         <v>154</v>
       </c>
@@ -12612,7 +12609,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="108"/>
+      <c r="B119" s="107"/>
       <c r="C119" s="96" t="s">
         <v>155</v>
       </c>
@@ -12638,7 +12635,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="107" t="s">
+      <c r="B120" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="96" t="s">
@@ -12666,7 +12663,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="108"/>
+      <c r="B121" s="107"/>
       <c r="C121" s="96" t="s">
         <v>154</v>
       </c>
@@ -12692,7 +12689,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="108"/>
+      <c r="B122" s="107"/>
       <c r="C122" s="96" t="s">
         <v>155</v>
       </c>
@@ -12756,7 +12753,7 @@
       <c r="A125" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="107" t="s">
+      <c r="B125" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="96" t="s">
@@ -12784,7 +12781,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="108"/>
+      <c r="B126" s="107"/>
       <c r="C126" s="96" t="s">
         <v>154</v>
       </c>
@@ -12810,7 +12807,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="108"/>
+      <c r="B127" s="107"/>
       <c r="C127" s="96" t="s">
         <v>155</v>
       </c>
@@ -12836,7 +12833,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="107" t="s">
+      <c r="B128" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="96" t="s">
@@ -12864,7 +12861,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="108"/>
+      <c r="B129" s="107"/>
       <c r="C129" s="96" t="s">
         <v>154</v>
       </c>
@@ -12890,7 +12887,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="108"/>
+      <c r="B130" s="107"/>
       <c r="C130" s="96" t="s">
         <v>155</v>
       </c>
@@ -12916,7 +12913,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="107" t="s">
+      <c r="B131" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="96" t="s">
@@ -12944,7 +12941,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="108"/>
+      <c r="B132" s="107"/>
       <c r="C132" s="96" t="s">
         <v>154</v>
       </c>
@@ -12970,7 +12967,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="108"/>
+      <c r="B133" s="107"/>
       <c r="C133" s="96" t="s">
         <v>155</v>
       </c>
@@ -12996,7 +12993,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="107" t="s">
+      <c r="B134" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="96" t="s">
@@ -13024,7 +13021,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="108"/>
+      <c r="B135" s="107"/>
       <c r="C135" s="96" t="s">
         <v>154</v>
       </c>
@@ -13050,7 +13047,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="108"/>
+      <c r="B136" s="107"/>
       <c r="C136" s="96" t="s">
         <v>155</v>
       </c>
@@ -13076,7 +13073,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="107" t="s">
+      <c r="B137" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="96" t="s">
@@ -13104,7 +13101,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="108"/>
+      <c r="B138" s="107"/>
       <c r="C138" s="96" t="s">
         <v>154</v>
       </c>
@@ -13130,7 +13127,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="108"/>
+      <c r="B139" s="107"/>
       <c r="C139" s="96" t="s">
         <v>155</v>
       </c>
@@ -13194,7 +13191,7 @@
       <c r="A142" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="107" t="s">
+      <c r="B142" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="96" t="s">
@@ -13222,7 +13219,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="108"/>
+      <c r="B143" s="107"/>
       <c r="C143" s="96" t="s">
         <v>154</v>
       </c>
@@ -13248,7 +13245,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="108"/>
+      <c r="B144" s="107"/>
       <c r="C144" s="96" t="s">
         <v>155</v>
       </c>
@@ -13274,7 +13271,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B145" s="107" t="s">
+      <c r="B145" s="106" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="96" t="s">
@@ -13302,7 +13299,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" s="108"/>
+      <c r="B146" s="107"/>
       <c r="C146" s="96" t="s">
         <v>154</v>
       </c>
@@ -13328,7 +13325,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B147" s="108"/>
+      <c r="B147" s="107"/>
       <c r="C147" s="96" t="s">
         <v>155</v>
       </c>
@@ -13354,7 +13351,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B148" s="107" t="s">
+      <c r="B148" s="106" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="96" t="s">
@@ -13382,7 +13379,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B149" s="108"/>
+      <c r="B149" s="107"/>
       <c r="C149" s="96" t="s">
         <v>154</v>
       </c>
@@ -13408,7 +13405,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B150" s="108"/>
+      <c r="B150" s="107"/>
       <c r="C150" s="96" t="s">
         <v>155</v>
       </c>
@@ -13434,7 +13431,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B151" s="107" t="s">
+      <c r="B151" s="106" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="96" t="s">
@@ -13462,7 +13459,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B152" s="108"/>
+      <c r="B152" s="107"/>
       <c r="C152" s="96" t="s">
         <v>154</v>
       </c>
@@ -13488,7 +13485,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" s="108"/>
+      <c r="B153" s="107"/>
       <c r="C153" s="96" t="s">
         <v>155</v>
       </c>
@@ -13514,7 +13511,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B154" s="107" t="s">
+      <c r="B154" s="106" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="96" t="s">
@@ -13542,7 +13539,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B155" s="108"/>
+      <c r="B155" s="107"/>
       <c r="C155" s="96" t="s">
         <v>154</v>
       </c>
@@ -13568,7 +13565,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B156" s="108"/>
+      <c r="B156" s="107"/>
       <c r="C156" s="96" t="s">
         <v>155</v>
       </c>
@@ -13622,7 +13619,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8jchdAvyuzn159j8B5b5T5QUey9z4yeO6E9UZ4Bp8JsPTI2B/cNCmZYofT+5ogrC4v1S2fAPLjQH/KyG/KL9QA==" saltValue="JAidFjqUb6afkQLyymkuQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kC95r2NgyRXlyNtmfQN34XLhTLoE/SbAIZq1DQOgUx1cEgqxDiikFnRzxOiukxUV/hudBzPTFGsC5X669yAA2Q==" saltValue="qnCmONwwYhnuiWbtxMpeMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -14889,7 +14886,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bOFCuzacpc1Pt/Mrq5k3go1ocmZQbUwHNL0pj405sgM1CzxEMz2vxxwGEGxVOGXIieU+6COIY8c8bVhcFTqSzQ==" saltValue="PwQZT+Nuk4SavZt0hh7sUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="E8QEdOYgCBmVxStgGck2GqDPdKehELmChGxDGgFABPuQO7lWVEBv15TGwqq93ZRboP69jwloUGoc/8Ixa4gX8w==" saltValue="+u7MNkp9xUrH9pVUM0RYtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23028,7 +23025,7 @@
       <c r="I328" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XZ/3HSX+LWqHsyboHs7FkkOCb13gXmE9v27QYoQ+vAYUuwU+FWDTJnpjceBdxCc5KlpCmRBSz3SEzDAd938FcA==" saltValue="6slku/XA/1tpx5gLyks++w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+Aqu8wzxUavNlaNOfZffv8/JyQuzj7yhtQu/6veclfBRz13HhCoW/uMcOar3m7d+ppH3hcx2i47gjY9KxEoy8A==" saltValue="dRzUhBNHY0CFThA0FPUWjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23328,16 +23325,16 @@
     </row>
     <row r="20" spans="1:7" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="E20" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="F20" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -23703,16 +23700,16 @@
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="E43" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="F43" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>73</v>
       </c>
       <c r="G43" s="58"/>
     </row>
@@ -24083,16 +24080,16 @@
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="E66" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="F66" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>73</v>
       </c>
       <c r="G66" s="58"/>
     </row>
@@ -24118,7 +24115,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tUywp4/6OprbGawFdc7y78d4uG/8rKvkn1oLwCBCjmnGqJPjAY18qSKDiAkOa+u/npyF1Dl4y1I8pdaU9mSTlA==" saltValue="jxeKgo3gO+Pxya7D6+RkTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8+SPd4X+t+On3Ctujg4qZRpkEbOfuKkQ2AaNTbW4512D6CRxsfhjstYKuL2wHrYwdaLJznB9FUNUL/jtdo4a3A==" saltValue="jMV7xvLVGE+pOy8pVW170A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -24168,7 +24165,7 @@
         <v>168</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C2" s="85">
         <v>0.21</v>
@@ -24186,7 +24183,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C3" s="85">
         <v>1</v>
@@ -24206,7 +24203,7 @@
         <v>180</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C4" s="85">
         <v>0.15</v>
@@ -24224,7 +24221,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
       <c r="B5" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C5" s="85">
         <v>1</v>
@@ -24244,7 +24241,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C6" s="85">
         <v>0.15</v>
@@ -24262,7 +24259,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69"/>
       <c r="B7" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C7" s="85">
         <v>1</v>
@@ -24282,7 +24279,7 @@
         <v>182</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C8" s="85">
         <v>0.35</v>
@@ -24300,7 +24297,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69"/>
       <c r="B9" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C9" s="85">
         <v>1</v>
@@ -24320,7 +24317,7 @@
         <v>186</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C10" s="85">
         <v>0.35</v>
@@ -24338,7 +24335,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="69"/>
       <c r="B11" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C11" s="85">
         <v>1</v>
@@ -24358,7 +24355,7 @@
         <v>190</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C12" s="85">
         <v>0.23</v>
@@ -24376,7 +24373,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="69"/>
       <c r="B13" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C13" s="85">
         <v>1</v>
@@ -24419,7 +24416,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C17" s="85">
         <f t="shared" ref="C17:F28" si="0">C2*0.9</f>
@@ -24441,7 +24438,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69"/>
       <c r="B18" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C18" s="85">
         <f t="shared" si="0"/>
@@ -24465,7 +24462,7 @@
         <v>180</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C19" s="85">
         <f t="shared" si="0"/>
@@ -24487,7 +24484,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="69"/>
       <c r="B20" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C20" s="85">
         <f t="shared" si="0"/>
@@ -24511,7 +24508,7 @@
         <v>181</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C21" s="85">
         <f t="shared" si="0"/>
@@ -24533,7 +24530,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="69"/>
       <c r="B22" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C22" s="85">
         <f t="shared" si="0"/>
@@ -24557,7 +24554,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C23" s="85">
         <f t="shared" si="0"/>
@@ -24579,7 +24576,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="69"/>
       <c r="B24" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C24" s="85">
         <f t="shared" si="0"/>
@@ -24603,7 +24600,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C25" s="85">
         <f t="shared" si="0"/>
@@ -24625,7 +24622,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="69"/>
       <c r="B26" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C26" s="85">
         <f t="shared" si="0"/>
@@ -24649,7 +24646,7 @@
         <v>190</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C27" s="85">
         <f t="shared" si="0"/>
@@ -24671,7 +24668,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="69"/>
       <c r="B28" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C28" s="85">
         <f t="shared" si="0"/>
@@ -24718,7 +24715,7 @@
         <v>168</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C32" s="85">
         <f t="shared" ref="C32:F43" si="1">C2*1.05</f>
@@ -24740,7 +24737,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="69"/>
       <c r="B33" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C33" s="85">
         <f t="shared" si="1"/>
@@ -24764,7 +24761,7 @@
         <v>180</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C34" s="85">
         <f t="shared" si="1"/>
@@ -24786,7 +24783,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="69"/>
       <c r="B35" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C35" s="85">
         <f t="shared" si="1"/>
@@ -24810,7 +24807,7 @@
         <v>181</v>
       </c>
       <c r="B36" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C36" s="85">
         <f t="shared" si="1"/>
@@ -24832,7 +24829,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="69"/>
       <c r="B37" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C37" s="85">
         <f t="shared" si="1"/>
@@ -24856,7 +24853,7 @@
         <v>182</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C38" s="85">
         <f t="shared" si="1"/>
@@ -24878,7 +24875,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="69"/>
       <c r="B39" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C39" s="85">
         <f t="shared" si="1"/>
@@ -24902,7 +24899,7 @@
         <v>186</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C40" s="85">
         <f t="shared" si="1"/>
@@ -24924,7 +24921,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="69"/>
       <c r="B41" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C41" s="85">
         <f t="shared" si="1"/>
@@ -24948,7 +24945,7 @@
         <v>190</v>
       </c>
       <c r="B42" s="69" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C42" s="85">
         <f t="shared" si="1"/>
@@ -24970,7 +24967,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="69"/>
       <c r="B43" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C43" s="85">
         <f t="shared" si="1"/>
@@ -24990,7 +24987,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Mlx5V54ZPfL+DVCPnxZpL3lujAbsWRRrIBO6YTvE5ERLKV+80Z7EUVvwMRratpgQiooYgwSGq70df99ZZsakxA==" saltValue="o2e4WKEZlot0d01mS01ekA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZzQSHzv0oht3/BJqJLVEP+O6un99DwK5/Axc3wMzWJp5pM7dNqGa/Fgn0frWiZcAlzJAOrWOZgTFKbWv1Hkx9A==" saltValue="pxM/g8uIupg9wZcata+86A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -25035,16 +25032,16 @@
         <v>99</v>
       </c>
       <c r="H1" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>72</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>73</v>
       </c>
       <c r="L1" s="57" t="s">
         <v>122</v>
@@ -25061,7 +25058,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -25638,7 +25635,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B17" s="65"/>
     </row>
@@ -25842,16 +25839,16 @@
         <v>99</v>
       </c>
       <c r="H24" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="J24" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="K24" s="57" t="s">
         <v>72</v>
-      </c>
-      <c r="K24" s="57" t="s">
-        <v>73</v>
       </c>
       <c r="L24" s="57" t="s">
         <v>122</v>
@@ -25868,7 +25865,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -26614,7 +26611,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="52" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B40" s="65"/>
     </row>
@@ -26870,16 +26867,16 @@
         <v>99</v>
       </c>
       <c r="H47" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="I47" s="57" t="s">
+      <c r="J47" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="57" t="s">
+      <c r="K47" s="57" t="s">
         <v>72</v>
-      </c>
-      <c r="K47" s="57" t="s">
-        <v>73</v>
       </c>
       <c r="L47" s="57" t="s">
         <v>122</v>
@@ -26896,7 +26893,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -27642,7 +27639,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="52" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B63" s="65"/>
     </row>
@@ -27875,7 +27872,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hPMwvJ3+d60YXLomjsJHjN8l/qdaXd/os4Ejte9XrQ56AMY5MxvNDptJjHUbflZEmBYxdpTKYHMTzH4O6fVp6Q==" saltValue="AGzu5fkA4JWi5Lzl/EZrKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="crP6e0JBStybG3MF5I/u6dTHtpd3zZyb7YJQCmZVzD77n+qPis+hhcJyIgiTDFTaRLgbLuYEZbN3YYCy9a9WFw==" saltValue="p/3PG2KYgPZ0dwamjcc8MA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -27922,7 +27919,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -27947,7 +27944,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B4" s="65"/>
       <c r="C4" s="77"/>
@@ -27978,7 +27975,7 @@
     </row>
     <row r="7" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="88" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -28002,7 +27999,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -28032,7 +28029,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B11" s="65"/>
       <c r="C11" s="77"/>
@@ -28068,7 +28065,7 @@
     </row>
     <row r="14" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="88" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -28092,7 +28089,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -28122,7 +28119,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="77"/>
@@ -28157,7 +28154,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J+vI+r+YzShTlBS6C9XfQQXNIJsXwjS4Kog7Au9WDfiXZljyR7MRofE0oFDb2JJRbHMKYt6rz4a4Oiun6HyUZQ==" saltValue="Jp3f4cwAN4uNFV/t6wUz+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tb0UfxW32mEr7nZHh+6Bur7q/AiLVfB5RxPQvU6dngRQUj6p+eNe3q+eR6j2DpZKtoJEvLA3y1/Kd8iFn81Xkg==" saltValue="dRIry6BHkcg36vvn7y8ICw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -28193,7 +28190,7 @@
         <v>160</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C1" s="76" t="s">
         <v>12</v>
@@ -28222,7 +28219,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D2" s="85">
         <v>0</v>
@@ -28242,7 +28239,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D3" s="85">
         <v>0</v>
@@ -28262,7 +28259,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D4" s="85">
         <v>0</v>
@@ -28288,7 +28285,7 @@
         <v>208</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D5" s="85">
         <v>0</v>
@@ -28308,7 +28305,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D6" s="85">
         <v>0</v>
@@ -28331,7 +28328,7 @@
         <v>209</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D7" s="85">
         <v>0</v>
@@ -28351,7 +28348,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D8" s="85">
         <v>0</v>
@@ -28377,7 +28374,7 @@
         <v>208</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D9" s="85">
         <v>0</v>
@@ -28397,7 +28394,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D10" s="85">
         <v>0</v>
@@ -28420,7 +28417,7 @@
         <v>209</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D11" s="85">
         <v>0</v>
@@ -28440,7 +28437,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D12" s="85">
         <v>0</v>
@@ -28466,7 +28463,7 @@
         <v>208</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D13" s="85">
         <v>0</v>
@@ -28486,7 +28483,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D14" s="85">
         <v>0</v>
@@ -28509,7 +28506,7 @@
         <v>209</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D15" s="85">
         <v>0</v>
@@ -28529,7 +28526,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D16" s="85">
         <v>0</v>
@@ -28555,7 +28552,7 @@
         <v>208</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D17" s="85">
         <v>0</v>
@@ -28575,7 +28572,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
@@ -28598,7 +28595,7 @@
         <v>209</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D19" s="85">
         <v>0</v>
@@ -28618,7 +28615,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C20" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D20" s="85">
         <v>0</v>
@@ -28644,7 +28641,7 @@
         <v>84</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D21" s="85">
         <v>0.28260869565217389</v>
@@ -28664,7 +28661,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C22" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D22" s="85">
         <v>0.46</v>
@@ -28690,7 +28687,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D23" s="85">
         <v>0.28260869565217389</v>
@@ -28710,7 +28707,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C24" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D24" s="85">
         <v>0.46</v>
@@ -28736,7 +28733,7 @@
         <v>84</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D25" s="85">
         <v>0.28260869565217389</v>
@@ -28756,7 +28753,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C26" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D26" s="85">
         <v>0.46</v>
@@ -28782,7 +28779,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D27" s="85">
         <v>1</v>
@@ -28802,7 +28799,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C28" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D28" s="85">
         <v>0</v>
@@ -28822,7 +28819,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C29" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D29" s="85">
         <v>0</v>
@@ -28848,7 +28845,7 @@
         <v>87</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D30" s="85">
         <v>1</v>
@@ -28868,7 +28865,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D31" s="85">
         <v>0</v>
@@ -28888,7 +28885,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D32" s="85">
         <v>0</v>
@@ -28914,7 +28911,7 @@
         <v>87</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D33" s="85">
         <v>1</v>
@@ -28934,7 +28931,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D34" s="85">
         <v>0</v>
@@ -28954,7 +28951,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C35" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D35" s="85">
         <v>0</v>
@@ -28980,7 +28977,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D36" s="85">
         <v>1</v>
@@ -29000,7 +28997,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D37" s="85">
         <v>0</v>
@@ -29020,7 +29017,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D38" s="85">
         <v>0</v>
@@ -29046,7 +29043,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D39" s="85">
         <v>1</v>
@@ -29066,7 +29063,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D40" s="85">
         <v>0</v>
@@ -29086,7 +29083,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C41" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D41" s="85">
         <v>0</v>
@@ -29112,7 +29109,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D42" s="85">
         <v>0.3</v>
@@ -29132,7 +29129,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D43" s="85">
         <v>0.5</v>
@@ -29152,7 +29149,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C44" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D44" s="85">
         <v>0.65</v>
@@ -29175,7 +29172,7 @@
         <v>88</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D45" s="85">
         <v>0.3</v>
@@ -29195,7 +29192,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C46" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D46" s="85">
         <v>0.49</v>
@@ -29215,7 +29212,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D47" s="85">
         <v>0.52</v>
@@ -29241,7 +29238,7 @@
         <v>87</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D48" s="85">
         <v>0.88</v>
@@ -29261,7 +29258,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C49" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D49" s="85">
         <v>0.78409090909090906</v>
@@ -29287,7 +29284,7 @@
         <v>87</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D50" s="85">
         <v>0.88372093023255816</v>
@@ -29307,7 +29304,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C51" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D51" s="85">
         <v>0.86</v>
@@ -29333,7 +29330,7 @@
         <v>82</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D52" s="85">
         <v>0.57999999999999996</v>
@@ -29353,7 +29350,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C53" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D53" s="85">
         <v>0.51</v>
@@ -29373,7 +29370,7 @@
     </row>
     <row r="55" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="92" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B55" s="93"/>
       <c r="C55" s="93"/>
@@ -29383,7 +29380,7 @@
         <v>160</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C56" s="76" t="s">
         <v>12</v>
@@ -29412,7 +29409,7 @@
         <v>87</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D57" s="85">
         <f t="shared" ref="D57:H66" si="0">D2*0.9</f>
@@ -29437,7 +29434,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C58" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D58" s="85">
         <f t="shared" si="0"/>
@@ -29462,7 +29459,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C59" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D59" s="85">
         <f t="shared" si="0"/>
@@ -29493,7 +29490,7 @@
         <v>208</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D60" s="85">
         <f t="shared" si="0"/>
@@ -29518,7 +29515,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D61" s="85">
         <f t="shared" si="0"/>
@@ -29546,7 +29543,7 @@
         <v>209</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D62" s="85">
         <f t="shared" si="0"/>
@@ -29571,7 +29568,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D63" s="85">
         <f t="shared" si="0"/>
@@ -29602,7 +29599,7 @@
         <v>208</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D64" s="85">
         <f t="shared" si="0"/>
@@ -29627,7 +29624,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C65" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D65" s="85">
         <f t="shared" si="0"/>
@@ -29655,7 +29652,7 @@
         <v>209</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D66" s="85">
         <f t="shared" si="0"/>
@@ -29680,7 +29677,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C67" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D67" s="85">
         <f t="shared" ref="D67:H76" si="1">D12*0.9</f>
@@ -29711,7 +29708,7 @@
         <v>208</v>
       </c>
       <c r="C68" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D68" s="85">
         <f t="shared" si="1"/>
@@ -29736,7 +29733,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C69" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D69" s="85">
         <f t="shared" si="1"/>
@@ -29764,7 +29761,7 @@
         <v>209</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D70" s="85">
         <f t="shared" si="1"/>
@@ -29789,7 +29786,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C71" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D71" s="85">
         <f t="shared" si="1"/>
@@ -29820,7 +29817,7 @@
         <v>208</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D72" s="85">
         <f t="shared" si="1"/>
@@ -29845,7 +29842,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C73" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D73" s="85">
         <f t="shared" si="1"/>
@@ -29873,7 +29870,7 @@
         <v>209</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D74" s="85">
         <f t="shared" si="1"/>
@@ -29898,7 +29895,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C75" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D75" s="85">
         <f t="shared" si="1"/>
@@ -29929,7 +29926,7 @@
         <v>84</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D76" s="85">
         <f t="shared" si="1"/>
@@ -29954,7 +29951,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C77" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D77" s="85">
         <f t="shared" ref="D77:H86" si="2">D22*0.9</f>
@@ -29985,7 +29982,7 @@
         <v>84</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D78" s="85">
         <f t="shared" si="2"/>
@@ -30010,7 +30007,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C79" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D79" s="85">
         <f t="shared" si="2"/>
@@ -30041,7 +30038,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D80" s="85">
         <f t="shared" si="2"/>
@@ -30066,7 +30063,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C81" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D81" s="85">
         <f t="shared" si="2"/>
@@ -30097,7 +30094,7 @@
         <v>87</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D82" s="85">
         <f t="shared" si="2"/>
@@ -30122,7 +30119,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C83" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D83" s="85">
         <f t="shared" si="2"/>
@@ -30147,7 +30144,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C84" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D84" s="85">
         <f t="shared" si="2"/>
@@ -30178,7 +30175,7 @@
         <v>87</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D85" s="85">
         <f t="shared" si="2"/>
@@ -30203,7 +30200,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C86" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D86" s="85">
         <f t="shared" si="2"/>
@@ -30228,7 +30225,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C87" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D87" s="85">
         <f t="shared" ref="D87:H96" si="3">D32*0.9</f>
@@ -30259,7 +30256,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D88" s="85">
         <f t="shared" si="3"/>
@@ -30284,7 +30281,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C89" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D89" s="85">
         <f t="shared" si="3"/>
@@ -30309,7 +30306,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C90" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D90" s="85">
         <f t="shared" si="3"/>
@@ -30340,7 +30337,7 @@
         <v>87</v>
       </c>
       <c r="C91" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D91" s="85">
         <f t="shared" si="3"/>
@@ -30365,7 +30362,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C92" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D92" s="85">
         <f t="shared" si="3"/>
@@ -30390,7 +30387,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C93" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D93" s="85">
         <f t="shared" si="3"/>
@@ -30421,7 +30418,7 @@
         <v>87</v>
       </c>
       <c r="C94" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D94" s="85">
         <f t="shared" si="3"/>
@@ -30446,7 +30443,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C95" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D95" s="85">
         <f t="shared" si="3"/>
@@ -30471,7 +30468,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C96" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D96" s="85">
         <f t="shared" si="3"/>
@@ -30502,7 +30499,7 @@
         <v>87</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D97" s="85">
         <f t="shared" ref="D97:H106" si="4">D42*0.9</f>
@@ -30527,7 +30524,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D98" s="85">
         <f t="shared" si="4"/>
@@ -30552,7 +30549,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C99" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D99" s="85">
         <f t="shared" si="4"/>
@@ -30580,7 +30577,7 @@
         <v>88</v>
       </c>
       <c r="C100" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D100" s="85">
         <f t="shared" si="4"/>
@@ -30605,7 +30602,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C101" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D101" s="85">
         <f t="shared" si="4"/>
@@ -30630,7 +30627,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C102" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D102" s="85">
         <f t="shared" si="4"/>
@@ -30661,7 +30658,7 @@
         <v>87</v>
       </c>
       <c r="C103" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D103" s="85">
         <f t="shared" si="4"/>
@@ -30686,7 +30683,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C104" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D104" s="85">
         <f t="shared" si="4"/>
@@ -30717,7 +30714,7 @@
         <v>87</v>
       </c>
       <c r="C105" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D105" s="85">
         <f t="shared" si="4"/>
@@ -30742,7 +30739,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C106" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D106" s="85">
         <f t="shared" si="4"/>
@@ -30773,7 +30770,7 @@
         <v>82</v>
       </c>
       <c r="C107" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D107" s="85">
         <f t="shared" ref="D107:H108" si="5">D52*0.9</f>
@@ -30798,7 +30795,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C108" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D108" s="85">
         <f t="shared" si="5"/>
@@ -30823,7 +30820,7 @@
     </row>
     <row r="110" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="92" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
@@ -30833,7 +30830,7 @@
         <v>160</v>
       </c>
       <c r="B111" s="52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C111" s="76" t="s">
         <v>12</v>
@@ -30862,7 +30859,7 @@
         <v>87</v>
       </c>
       <c r="C112" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D112" s="85">
         <f t="shared" ref="D112:H121" si="6">D2*1.05</f>
@@ -30887,7 +30884,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C113" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D113" s="85">
         <f t="shared" si="6"/>
@@ -30912,7 +30909,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D114" s="85">
         <f t="shared" si="6"/>
@@ -30943,7 +30940,7 @@
         <v>208</v>
       </c>
       <c r="C115" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D115" s="85">
         <f t="shared" si="6"/>
@@ -30968,7 +30965,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D116" s="85">
         <f t="shared" si="6"/>
@@ -30996,7 +30993,7 @@
         <v>209</v>
       </c>
       <c r="C117" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D117" s="85">
         <f t="shared" si="6"/>
@@ -31021,7 +31018,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D118" s="85">
         <f t="shared" si="6"/>
@@ -31052,7 +31049,7 @@
         <v>208</v>
       </c>
       <c r="C119" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D119" s="85">
         <f t="shared" si="6"/>
@@ -31077,7 +31074,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D120" s="85">
         <f t="shared" si="6"/>
@@ -31105,7 +31102,7 @@
         <v>209</v>
       </c>
       <c r="C121" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D121" s="85">
         <f t="shared" si="6"/>
@@ -31130,7 +31127,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D122" s="85">
         <f t="shared" ref="D122:H131" si="7">D12*1.05</f>
@@ -31161,7 +31158,7 @@
         <v>208</v>
       </c>
       <c r="C123" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D123" s="85">
         <f t="shared" si="7"/>
@@ -31186,7 +31183,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="85">
         <f t="shared" si="7"/>
@@ -31214,7 +31211,7 @@
         <v>209</v>
       </c>
       <c r="C125" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D125" s="85">
         <f t="shared" si="7"/>
@@ -31239,7 +31236,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D126" s="85">
         <f t="shared" si="7"/>
@@ -31270,7 +31267,7 @@
         <v>208</v>
       </c>
       <c r="C127" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D127" s="85">
         <f t="shared" si="7"/>
@@ -31295,7 +31292,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C128" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D128" s="85">
         <f t="shared" si="7"/>
@@ -31323,7 +31320,7 @@
         <v>209</v>
       </c>
       <c r="C129" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D129" s="85">
         <f t="shared" si="7"/>
@@ -31348,7 +31345,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D130" s="85">
         <f t="shared" si="7"/>
@@ -31379,7 +31376,7 @@
         <v>84</v>
       </c>
       <c r="C131" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D131" s="85">
         <f t="shared" si="7"/>
@@ -31404,7 +31401,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C132" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D132" s="85">
         <f t="shared" ref="D132:H141" si="8">D22*1.05</f>
@@ -31435,7 +31432,7 @@
         <v>84</v>
       </c>
       <c r="C133" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D133" s="85">
         <f t="shared" si="8"/>
@@ -31460,7 +31457,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C134" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D134" s="85">
         <f t="shared" si="8"/>
@@ -31491,7 +31488,7 @@
         <v>84</v>
       </c>
       <c r="C135" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D135" s="85">
         <f t="shared" si="8"/>
@@ -31516,7 +31513,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D136" s="85">
         <f t="shared" si="8"/>
@@ -31547,7 +31544,7 @@
         <v>87</v>
       </c>
       <c r="C137" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D137" s="85">
         <f t="shared" si="8"/>
@@ -31572,7 +31569,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C138" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D138" s="85">
         <f t="shared" si="8"/>
@@ -31597,7 +31594,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C139" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D139" s="85">
         <f t="shared" si="8"/>
@@ -31628,7 +31625,7 @@
         <v>87</v>
       </c>
       <c r="C140" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D140" s="85">
         <f t="shared" si="8"/>
@@ -31653,7 +31650,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D141" s="85">
         <f t="shared" si="8"/>
@@ -31678,7 +31675,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C142" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D142" s="85">
         <f t="shared" ref="D142:H151" si="9">D32*1.05</f>
@@ -31709,7 +31706,7 @@
         <v>87</v>
       </c>
       <c r="C143" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D143" s="85">
         <f t="shared" si="9"/>
@@ -31734,7 +31731,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C144" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D144" s="85">
         <f t="shared" si="9"/>
@@ -31759,7 +31756,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C145" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D145" s="85">
         <f t="shared" si="9"/>
@@ -31790,7 +31787,7 @@
         <v>87</v>
       </c>
       <c r="C146" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D146" s="85">
         <f t="shared" si="9"/>
@@ -31815,7 +31812,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C147" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D147" s="85">
         <f t="shared" si="9"/>
@@ -31840,7 +31837,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C148" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D148" s="85">
         <f t="shared" si="9"/>
@@ -31871,7 +31868,7 @@
         <v>87</v>
       </c>
       <c r="C149" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D149" s="85">
         <f t="shared" si="9"/>
@@ -31896,7 +31893,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C150" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D150" s="85">
         <f t="shared" si="9"/>
@@ -31921,7 +31918,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C151" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D151" s="85">
         <f t="shared" si="9"/>
@@ -31952,7 +31949,7 @@
         <v>87</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D152" s="85">
         <f t="shared" ref="D152:H161" si="10">D42*1.05</f>
@@ -31977,7 +31974,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C153" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D153" s="85">
         <f t="shared" si="10"/>
@@ -32002,7 +31999,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C154" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D154" s="85">
         <f t="shared" si="10"/>
@@ -32030,7 +32027,7 @@
         <v>88</v>
       </c>
       <c r="C155" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D155" s="85">
         <f t="shared" si="10"/>
@@ -32055,7 +32052,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C156" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D156" s="85">
         <f t="shared" si="10"/>
@@ -32080,7 +32077,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C157" s="69" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D157" s="85">
         <f t="shared" si="10"/>
@@ -32111,7 +32108,7 @@
         <v>87</v>
       </c>
       <c r="C158" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D158" s="85">
         <f t="shared" si="10"/>
@@ -32136,7 +32133,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C159" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D159" s="85">
         <f t="shared" si="10"/>
@@ -32167,7 +32164,7 @@
         <v>87</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D160" s="85">
         <f t="shared" si="10"/>
@@ -32192,7 +32189,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C161" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D161" s="85">
         <f t="shared" si="10"/>
@@ -32223,7 +32220,7 @@
         <v>82</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D162" s="85">
         <f t="shared" ref="D162:H163" si="11">D52*1.05</f>
@@ -32248,7 +32245,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C163" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D163" s="85">
         <f t="shared" si="11"/>
@@ -32272,7 +32269,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lOinZ9WBtxvlmLsihEzxEIU5d+DHGJzI8KefS8dub44efJYhfBi7wNeWAGn4exxilOKuQ0dlz0LO6hftmolFmw==" saltValue="rbouoBWGwTxAgNQatjmjCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hCJB0TA1Wx1rco/NGCDm4kv0G4YYZxgnNvTJZYzid3cikpLsCs7UDhU2O7Mgs1npSx5wrP3GdD+kuqZUnn2yqA==" saltValue="010Z5WhAOC1F9wREhspcXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -32304,7 +32301,7 @@
         <v>160</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="52" t="s">
@@ -32329,7 +32326,7 @@
         <v>104</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D2" s="85">
         <v>1</v>
@@ -32347,7 +32344,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D3" s="85">
         <v>0.2</v>
@@ -32371,7 +32368,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D4" s="85">
         <v>1</v>
@@ -32389,7 +32386,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D5" s="85">
         <v>0.59</v>
@@ -32413,7 +32410,7 @@
         <v>104</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D6" s="85">
         <v>1</v>
@@ -32431,7 +32428,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D7" s="85">
         <v>0.6</v>
@@ -32449,7 +32446,7 @@
     </row>
     <row r="9" spans="1:8" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="88" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -32457,7 +32454,7 @@
         <v>160</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="52" t="s">
@@ -32481,7 +32478,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" ref="D11:G16" si="0">D2*0.9</f>
@@ -32502,7 +32499,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="0"/>
@@ -32529,7 +32526,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="0"/>
@@ -32550,7 +32547,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D14" s="85">
         <f t="shared" si="0"/>
@@ -32577,7 +32574,7 @@
         <v>104</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D15" s="85">
         <f t="shared" si="0"/>
@@ -32598,7 +32595,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D16" s="85">
         <f t="shared" si="0"/>
@@ -32619,7 +32616,7 @@
     </row>
     <row r="18" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="88" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -32627,7 +32624,7 @@
         <v>160</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="52" t="s">
@@ -32651,7 +32648,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D20" s="85">
         <f t="shared" ref="D20:G25" si="1">D2*1.05</f>
@@ -32672,7 +32669,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D21" s="85">
         <f t="shared" si="1"/>
@@ -32699,7 +32696,7 @@
         <v>104</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D22" s="85">
         <f t="shared" si="1"/>
@@ -32720,7 +32717,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D23" s="85">
         <f t="shared" si="1"/>
@@ -32747,7 +32744,7 @@
         <v>104</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D24" s="85">
         <f t="shared" si="1"/>
@@ -32768,7 +32765,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C25" s="96" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D25" s="85">
         <f t="shared" si="1"/>
@@ -32788,7 +32785,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Viu2TMxvPQIu38K1spqkyKyiRS85Gp3pyRsHsIb8yKqDoPGODNl1xxBk8+cCqYFNPc6Kg8ZYPXOLz7u8lnt2hA==" saltValue="aFHlcxl+SrVKrvwucWAL7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AB7WiWQ07Mn3vzVQvtLAGHLW5n49MuWSs2dU7pRaiBbzmlBqGRQxNZ2qhb9keExW6c2ZWEq7B72yalqoolI65A==" saltValue="JaccJxbrWhkgAzWMySduoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32800,8 +32797,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" activeCellId="2" sqref="C35 C23:F23 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32912,16 +32909,16 @@
       <c r="B13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="11"/>
@@ -33119,7 +33116,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oL4RCMZz+ptelxGxmw0ncxtnhzDeKbNT7wopTTk+MnC02N8rE77bl/LByGmJe7Q/cW2tEz4tU0AFsg1eHR6rsA==" saltValue="8KmH41yiLh3RYiu3at1IeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wLhQTDa5ZLdiJhtkrrbF70/tl+CSoQ5uC6U+Tvz11zPw6g7ZpBcjZNYngzQ/gMQlkhrECJjfvsvnkt6chZJsOQ==" saltValue="HowjnO0HsyYMvGT3rAYRWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33374,16 +33371,16 @@
         <v>125</v>
       </c>
       <c r="L13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33476,7 +33473,7 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8j7TxMk9EQxXUJ+Zhxu8++3qctG1QR3ncMhuaW3b5j1kN0vxczG3Vk/OhJJZieMn0QuwFx6D1EibgYtjRKr0Pw==" saltValue="H9ImAdU4fId9JrxPOJujpg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oCxkF9eXSd9VInGRSEaC68oupkgvuYHflUqtXTDnSca+Fnm5x9/tK7RNIicZTt61u3uQ9XpQdIPY0iXVZ3e8ug==" saltValue="zA1Js/s6185ZfBz+vSEfQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33582,7 +33579,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DPH6L+iglYEuLiI88/9guVKq1je6+54d0s1E1q2BqHnhW5xCx28/JCMfHeJbsLN+WfQRYlk+MGJlInI7cuU3lQ==" saltValue="+1CK0Fq7r0C3mksjUxeOiw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Wy13Rr3zPMTlxbk8UOeNp5ydFnjIwtDbYAMFH+RxWfdfh13xYwCTn4mPU5dOBdjBaw/KQJb7Ci2RAZM3i0+oGw==" saltValue="CzQYVFtcKK7o20moDcKUfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -33789,7 +33786,7 @@
       <c r="K14" s="104"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/wEyC5afRpRrJ8jzP+MRkcj+SJ3GII55o5tYJuwJDFvGBwJ17V1JAf7z5wbdST3z+g/z8TU5XPiIbEYDQtJGlQ==" saltValue="gTNsXfB6TXZi7euFR4NJYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z3S6EJ4R8glPcRt7sj9l+VoiWr4tf25b97jFu+8IUa/D2HaOvwN++gk/PwflUIZh0dchqNM1IaqDWdxUYveuYw==" saltValue="Bk3JeswRhg4vAty4OtvWsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -33870,7 +33867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DLksHDO2fixTCKdFQ713QJqwAh6hqpToirvg/zQem5UzbO+cs5YnmXwdVMViZq09ORwtfKBWAz4Ycl/GZg0ACQ==" saltValue="2mZla5mvWgj5b5NmfiWrdA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xEjJNYtsLzKruwgcW101Mx+UqxAonlMnO+RDL1QSSqZka7MMoyEhzUypjBQBHSMPAs84ZbTdLt8/ALPHsAQuEQ==" saltValue="l1GNZPF6f9CmW4Klk58/8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34131,7 +34128,7 @@
       <c r="E21" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uOa7KianIMYvLtAQ2rhHkfN1R5I4vrtrbmk1HMU2p5afXp8BdnoxLhx75YvBSVCvGIfaeAwBaEthHt4/jxN88w==" saltValue="QS6hh1v/Tjp+nPFEbSr6KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aGkgulUa9+sxx2d05bPqwKdA2vLQXVDcG4IyCd9S7r4siveRYvxM9L1jQMYOgszOKUZotKrgIbqkSKalfiQkaA==" saltValue="Ij9isrBXBLx71jJud3Hcpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -34195,7 +34192,7 @@
       <c r="D3" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qgUo1m25EeniydYKme+9NTxi5NEeEjiKHotN90MLUPMKExoFAhL8dzuHUyD22GHwm0hqUyPK8SuVLbKUNEN3FA==" saltValue="Zo8loqkZf1EgatubTUawyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZKX+A1FDpoEGLAgB9+nFk07l7ltekerq6N7yE/PPS8ud7P3CWIm5P7OsqYwasH8gGPeV/Vtjn8SL4bK6k5NJew==" saltValue="3u5wmBxyZ5cSW1Fh7NLjLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/Optima_template.xlsx
+++ b/inputs/fr/Optima_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFDA34C0-CBCC-4760-B6B0-594646E7DAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{684AC1BE-0CD7-401B-B1F1-6A8D40F9AF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="6840" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,16 +700,16 @@
     <t>Autre</t>
   </si>
   <si>
-    <t>Enfant 1-5 mois</t>
+    <t>1-5 mois</t>
   </si>
   <si>
-    <t>Enfant 6-11 mois</t>
+    <t>6-11 mois</t>
   </si>
   <si>
-    <t>Enfant 12-23 mois</t>
+    <t>12-23 mois</t>
   </si>
   <si>
-    <t>Enfant 24-59 mois</t>
+    <t>24-59 mois</t>
   </si>
   <si>
     <t>Femmes enceintes</t>
@@ -739,7 +739,7 @@
     <t>Causes indirectes</t>
   </si>
   <si>
-    <t>Enfant &lt;1 mois</t>
+    <t>&lt;1 mois</t>
   </si>
   <si>
     <t>État</t>
@@ -2707,7 +2707,7 @@
       <c r="A63" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+ZSqzfzK6B7JL74+aSKq0+ZbXN/xaSxvvLJCYtAl8hyeACEKg7Bz8v5s2eSirjfG/uuG/tVfSDAcFaST2YXJ/g==" saltValue="+ra48uFnx2CvcQ/LVCa0pQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lA+S5BrCzSxul3iPIVvi3CJ8F+sjlDW89TeC3QT9EiQmleT6JBKXnf2VR78TEU85Gh9I249ow7RDEFFXmyFaAw==" saltValue="HDGtMK1B94lRTI0T/VIJXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3485,7 +3485,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vKUoypYNW8+9WUVb/3ngrS3IRBvIfr+mS0wfI+/pPmkjrt061HBmv4jtVRPqe94vr4YRHegYyGV6mEq5sDwTbg==" saltValue="oIlrHyfdK4Sud/zYRXNTVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3iDL2EuSgfCZa/a7GDgWC2Nam93bVAENom2cRtKmNY99HXL8byWsAxd58suIn4s+zhyEarAUJbnRKQh8nH8oCg==" saltValue="kbCm9XuXyepnSs2+/qt7OA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3635,7 +3635,7 @@
       <c r="C20" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fRmIXhL1H1d87yhqaGVlLSUnfmFpC867WdErH/a82CEPfMIyK+xo7IUM+fwdueXbV9JP2esJnaudbh6Hcsd6cg==" saltValue="iSMdOEZf4nZolNHFGmTEvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5Xy1EzH7F9NKpo7zmpgtNC2z+/LNuwh/dhqK4KVNz6CY1zWj0tGkYqfWsKzqhaouxcy5Hu+PIPrB0Ei9oUKATg==" saltValue="S6zkO9B7jFdqgcum8Za5hA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3736,7 +3736,7 @@
       <c r="A19" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E7NNf6a6BPxU8FqLeguS9VRl+9vF4dox4j9d2DOLzXEA+8ymCyWHhbO0b+KoFn2PsI0s5YUiacspYTx7JP8Y3w==" saltValue="cRyE6sCq3pf5IejoskwBFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cP9TLnd2IthGjBapppO8CN6Rq8P7R0r10c0gMEfKfGYki77RXYEgVAOISwiV3TONSjhdkFQg3VtAOOnH1OUcEw==" saltValue="CkBtf8dKcZTJyb3+zuXuKA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3851,7 +3851,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mGfNm/YpzEaZKLE4bwrZRnffptUEkzpgHBXIR+I42mMdADJNepOAhUOXHFXXrN8NeMhLgzHCBas5a71O9CvBzQ==" saltValue="pKrmle6SHQ21tc00igc3Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gqjBBYuu2YK+Lio2Ifd3QORizxqE6yfcg0CDyPmihBZ0SOviMmTU7LhfADWSsHAuDWjdylLrFtXo+kX9N+EMhA==" saltValue="iDAQVko8DW9iwsdNRBB8ww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5612,7 +5612,7 @@
       <c r="B40" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qisl10VUBebpCiv8MkRpcrLtMwUa0kUtmp8Lineh3LjgrSqjAVrd88IWN//N2Bp+KPvJ37EptPB+lt9xy5dzIw==" saltValue="xZssUTCDmzzPa4mojNhsng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qtuFlx+K0SHjAKalq8I0mW4JFOJiwXapNoqI6STi7JVc+WvJZ+Ndd4jmyiFLx+OnNwvcxWY8gFVqufFeULlavA==" saltValue="sAZP83meZkfvW1lH0dH/nQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5647,7 +5647,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nKmdsAXkRn0+Zhb4XjO9uKuA8R8AdsDgzG9nWUEMIC+Ryq9OLM2gvdJrHwwo0Kr6NnkFAjW76wOanfEfKehZxw==" saltValue="+B/4/YHS5QXVUcyybCeSKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7vifo6t1nqezDsrZ0ABJSagESqdPuEbqKpOL2+hZZ/azU7mYs+kYxIBRJSMc9G01rcLnh2R6OqgzIc571d/1Nw==" saltValue="Fb8uWBsVNBcUhx1VUBBvMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5853,7 +5853,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q975wXiK+P2PbugbLUHyQfPAy2ySYPGvCL6d30PdlCTcz/K5oK4Qr17axaM7ZqEIO80q1PSilJ5nbLEJPirxPA==" saltValue="IZaNI5S6dlILcqSucmB6/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nzMrEykgTslDKbqzqGNIiVd6o5yS4Ur62gzLpNjwgVilUoaPQ5AG354p/hrMfgZlE8SYv2qVEuevfGmaJgoegQ==" saltValue="s9EuErICpxk/K3ASeeLEuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7668,7 +7668,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J3+2FSDz0+jixnuJGaV7kFSbLbWaEZ4p/T9eflU+unqhU5rNLXEjQpHzvBB+b4Qls1s6NuIIKXs0/xMnoExKlA==" saltValue="xJ1ykw1SWcXyE0HlBYhLbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+5+LIiESv371s17AuSSR7kU7hrF4xE0VVG5lRMKarQxvqdXc0yxuH5bf+3ADUkkzqdYPDajl87xMS++yoqPPkg==" saltValue="Xf+vsmhqO++dovKM5fPuSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8436,7 +8436,7 @@
       <c r="K39" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DmQckkAQcyK/x+/kwWwogQBuzX3C1Kzbxk37KaG4kIaAfIY0sfH3S6luacDIO1HNlgfDPTQ29I6qknNjTKP7NA==" saltValue="4epw4C0N/hFs/CR6LgyccQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nIPdkkc5KCPFqtSzK0dgtlqnRWHKqgw1b/oNxKshHIghXZLmAqA6rTpNPsy3oyu3daD1Vtl+NfdR+ObJZedESg==" saltValue="d9q6kKAqF9o8b0+4oeqXww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8811,7 +8811,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O1OUtw4sFp4H7RzG06vgam2NpBBLTMs5V1u0jP4fEqu6Ln/+fzn44QFvf60aXjp3F2ImFrQ8EMa0NT5POfMNWA==" saltValue="e2l+WZQ1EMHhsOcsIvEgMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7PyHZSKi9iqaua0lvxJlSQMEoGSx7Nlwrht9pFvPKkxKWJx0P+OQgtfHUoN9ZgOzeCyjsfyzmbBntOe69Af1Gg==" saltValue="l4ISa6C+a4BLZyyInF+f4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9801,7 +9801,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KwQSo0K74u19xlQIvZ7zmTHcuZ6dAcyTLIk+O4sJsTZg8HUZqIKMS/4ZjPWJQ5SmMcnPVs9TMt+j7GvqWVOUJw==" saltValue="+CFHIAo3qor9qch3lwVkag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JoYZY3l6EFem9JRo954zS9E+73JVvZqre65XAlk56g7/yfljgoFsOnQTVfq8MSbTN/nMbmVrj0ZrVNYJHNogQg==" saltValue="UMxZDHXjG0Kx/2XAsGw5vw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13619,7 +13619,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kC95r2NgyRXlyNtmfQN34XLhTLoE/SbAIZq1DQOgUx1cEgqxDiikFnRzxOiukxUV/hudBzPTFGsC5X669yAA2Q==" saltValue="qnCmONwwYhnuiWbtxMpeMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XH+SdypwHlD3Ga8DzbSAX9QpIce518dWq5tBKtaEL7HOwNhY9+/rAoTIOv0vtnRcgwjZtJlp0D6zjllg+uqGfQ==" saltValue="TMJbsQQ0IGV2ba8XbiWEjg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -14886,7 +14886,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E8QEdOYgCBmVxStgGck2GqDPdKehELmChGxDGgFABPuQO7lWVEBv15TGwqq93ZRboP69jwloUGoc/8Ixa4gX8w==" saltValue="+u7MNkp9xUrH9pVUM0RYtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9+BVgX2U4tc3crOBmhhoBejuqVNUbgnQeL51NkUvjU/bo4m0sB0IqH/jfFkd2qm1wxvh5lKlC8/dym1H5cMwFg==" saltValue="QvoK59d6aqoasi2gqfR88Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23025,7 +23025,7 @@
       <c r="I328" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+Aqu8wzxUavNlaNOfZffv8/JyQuzj7yhtQu/6veclfBRz13HhCoW/uMcOar3m7d+ppH3hcx2i47gjY9KxEoy8A==" saltValue="dRzUhBNHY0CFThA0FPUWjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uqASxsBMYvKWkdpkLoiExXKVPbdhBfekJJkrxKjNMUdrSXFEQI3RlCxinJyMlaJVsWO7vgKbxd7Ia9HupYDImQ==" saltValue="Mz7gwHrTRuw6lXV7wJ5RCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -24115,7 +24115,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8+SPd4X+t+On3Ctujg4qZRpkEbOfuKkQ2AaNTbW4512D6CRxsfhjstYKuL2wHrYwdaLJznB9FUNUL/jtdo4a3A==" saltValue="jMV7xvLVGE+pOy8pVW170A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4ZXiSbPFWzNDb+4Q1mN/B++55TOHXq134yeVK5QdyjOPdOMjdQv1Z9xPeiKf2mpdKDH4IxaRN8P8oVH45env7g==" saltValue="zSrbIliZWr2gcBcbkeIxXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -24987,7 +24987,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZzQSHzv0oht3/BJqJLVEP+O6un99DwK5/Axc3wMzWJp5pM7dNqGa/Fgn0frWiZcAlzJAOrWOZgTFKbWv1Hkx9A==" saltValue="pxM/g8uIupg9wZcata+86A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OzsANE9PGRjPu2Crtalbk22rKFH872JhmbsT9XnoWrbBqlciU7gmdXrsf5YwcH4P34wX8H5WahgQSoPDBMXjVw==" saltValue="kyVLVMLJhn6BUnkNjd9Iag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -27872,7 +27872,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="crP6e0JBStybG3MF5I/u6dTHtpd3zZyb7YJQCmZVzD77n+qPis+hhcJyIgiTDFTaRLgbLuYEZbN3YYCy9a9WFw==" saltValue="p/3PG2KYgPZ0dwamjcc8MA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8H4jK3DRL9C3H3lnKBhtgz0TDSRjNfHI4MTenuZBqxLmxC4w8k3xUj304nIkuCLbvirVrWRiE00k+LTrgE55qw==" saltValue="tHvBrIA3pKU1GOWrfKCTIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -28154,7 +28154,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tb0UfxW32mEr7nZHh+6Bur7q/AiLVfB5RxPQvU6dngRQUj6p+eNe3q+eR6j2DpZKtoJEvLA3y1/Kd8iFn81Xkg==" saltValue="dRIry6BHkcg36vvn7y8ICw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KLTfSmssJofTW7olTIQeg218ToZ3DZJDKPtiF2928tY5ZYBwLbM1rOQQQ0P1cLuSfUJFrt2IkZLH6DdNqTM4+A==" saltValue="ukQhYFJbSLQpBG1iMH7fsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -32269,7 +32269,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hCJB0TA1Wx1rco/NGCDm4kv0G4YYZxgnNvTJZYzid3cikpLsCs7UDhU2O7Mgs1npSx5wrP3GdD+kuqZUnn2yqA==" saltValue="010Z5WhAOC1F9wREhspcXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yqJUKLuSi2356bD8ZcKyleNepFdaNH6A1lc1yQHfnE6YBjGtEOyRojVKzjeXS0qqTwtDvAqs9BvV8fOy2hQOJQ==" saltValue="KV/Azo7iLfEnxKDIcA1zJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -32785,7 +32785,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AB7WiWQ07Mn3vzVQvtLAGHLW5n49MuWSs2dU7pRaiBbzmlBqGRQxNZ2qhb9keExW6c2ZWEq7B72yalqoolI65A==" saltValue="JaccJxbrWhkgAzWMySduoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UkTCUJhCIiBP+0AcM8dHpaplmg0K+GzdEARIA9RGkgqWIKgAbaKAErCcjhfY9fUk/EYSl9tmP4IdjVRjUVtZaQ==" saltValue="L5C2e0mpoeQCvhBPzyC5gQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33116,7 +33116,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wLhQTDa5ZLdiJhtkrrbF70/tl+CSoQ5uC6U+Tvz11zPw6g7ZpBcjZNYngzQ/gMQlkhrECJjfvsvnkt6chZJsOQ==" saltValue="HowjnO0HsyYMvGT3rAYRWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ray5BfDDk4R9gDcGW9hb7HvLe5sk6Bl8Ke1ph6NSKj9qLMw/Aw/ItbqgfSKzHOGQBS2dlBpv9Dspn2T4CysRUQ==" saltValue="SYmEQDGPtCu1U0cvDjR6LA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33473,7 +33473,7 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oCxkF9eXSd9VInGRSEaC68oupkgvuYHflUqtXTDnSca+Fnm5x9/tK7RNIicZTt61u3uQ9XpQdIPY0iXVZ3e8ug==" saltValue="zA1Js/s6185ZfBz+vSEfQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B3iZx+qkcMNEV4HP0rz8aihLEJ8prb4Z9TMD8DwcuL9Kapl6Nf0wbnZW5CUfC5/Cj/sh/ZI/kcB/omdXBvqJIw==" saltValue="fGpv6gt5ILuNLaVdW8RyIg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33579,7 +33579,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Wy13Rr3zPMTlxbk8UOeNp5ydFnjIwtDbYAMFH+RxWfdfh13xYwCTn4mPU5dOBdjBaw/KQJb7Ci2RAZM3i0+oGw==" saltValue="CzQYVFtcKK7o20moDcKUfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8FYTA5kn6H3AxShlWXFPsxa00s7s+IoCcEVL3dzRNbWSXzqq2zhTTFDN96ZQQJDKcQjZWiWi6e5FaXmIb6/SiA==" saltValue="wwx7vHnuy47xY+mRRQRoLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -33786,7 +33786,7 @@
       <c r="K14" s="104"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z3S6EJ4R8glPcRt7sj9l+VoiWr4tf25b97jFu+8IUa/D2HaOvwN++gk/PwflUIZh0dchqNM1IaqDWdxUYveuYw==" saltValue="Bk3JeswRhg4vAty4OtvWsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="81IMb6cAAMdkmmZTeSfvhGhqCpDppaS2B372o8lLlhnHP1UvxvsoYGQU0YEp+Ylga7lSFcq4yvT080iuj5n6Rw==" saltValue="moyiPoEHxOSzsHZLHvql3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -33867,7 +33867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xEjJNYtsLzKruwgcW101Mx+UqxAonlMnO+RDL1QSSqZka7MMoyEhzUypjBQBHSMPAs84ZbTdLt8/ALPHsAQuEQ==" saltValue="l1GNZPF6f9CmW4Klk58/8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oWcEgiuQVpgeiFGIDSQtsoAA1sfmtdY0sfLxRGT8Kch+suBnzRcc84TYJo2XR21+yBCr4ULwtnS2gm6HoL8vTg==" saltValue="5smtftejpxxQTzL/O8Uqqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34128,7 +34128,7 @@
       <c r="E21" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aGkgulUa9+sxx2d05bPqwKdA2vLQXVDcG4IyCd9S7r4siveRYvxM9L1jQMYOgszOKUZotKrgIbqkSKalfiQkaA==" saltValue="Ij9isrBXBLx71jJud3Hcpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fyGJWvJaD1LQ9RAL2LWecJC3Cc0dO9Q+Ilvqc0NPQXVd7CBXEbnGYxF9JxQYKjB41Ir8/uZct4Dg6YWXQU/6dQ==" saltValue="NjU3VmMOd2b5OmwXgBB9XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -34192,7 +34192,7 @@
       <c r="D3" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZKX+A1FDpoEGLAgB9+nFk07l7ltekerq6N7yE/PPS8ud7P3CWIm5P7OsqYwasH8gGPeV/Vtjn8SL4bK6k5NJew==" saltValue="3u5wmBxyZ5cSW1Fh7NLjLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X8MIJN5tLPBCZfVqMcMI2KYPNt0bkgmEY5ZlxevR+/GpLqVrpiQC3+mCMDZQW9lWePvV4kP9KYspcaMdT4lXzA==" saltValue="Ky2lan/sf0R6UBox0ynyJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>